--- a/txt/txt.xlsx
+++ b/txt/txt.xlsx
@@ -1,49 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Magic-Touch-v2.0\txt\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C4930B-28D2-4329-B0CE-046D449476AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="577" yWindow="2438" windowWidth="21601" windowHeight="11872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -62,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -364,17 +408,1714 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>在遥远的一个国度里，住着一个一个中年男性，拥有王室身份和一位已故的女性，生前美丽且善良，他们渴望有一个孩子。 于是很诚意的向上苍祈祷。 “上帝啊！</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>In a distant kingdom, there lived a middle-aged man of royal lineage and his late wife, who had been renowned for her beauty and kindness. Together, they had longed for a child to bring joy and fulfillment to their lives. Consequently, the man earnestly offered heartfelt prayers to the heavens. "O God!" he beseeched with deep sincerity, his voice carrying the weight of his unfulfilled desires and hopes for divine intervention.</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>middle-aged man in royal attire, solemn expression, detailed eyes showing deep sincerity, strong nose, gentle lips, long shadow under soft lighting, ancient temple background, intricate stone carvings, golden rays of sunlight breaking through clouds, rich velvet cloak with embroidered edges, ornate crown resting on a nearby altar, incense smoke swirling in the air, warm earthy tones, dramatic contrast, realistic painting style, high detail, cinematic composition, emotional atmosphere, 8k quality</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>在遥远的一个国度里，住着一个国王和王后，他们渴望有一个孩子。 于是很诚意的向上苍祈祷。 “上帝啊！</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>我们都是好一个中年男性，拥有王室身份好一位已故的女性，生前美丽且善良，请您赐给我们一个孩子吧！”</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>A middle-aged man, who was of royal descent, along with a deceased woman, who had been beautiful and kind during her lifetime, earnestly pleaded to the divine being for granting them a child.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>middle-aged man, royal descent, dignified posture, elegant attire, deceased woman, beautiful and kind, translucent glowing figure, earnest expression, pleading gesture, divine being, celestial light, ethereal background, detailed eyes, sharp nose, defined lips, long eyelashes, intricate clothing details, rich textures, golden tones, soft lighting, emotional atmosphere, high-quality artwork, realistic style, renaissance influence, warm color palette</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>我们都是好国王好王后，请您赐给我们一个孩子吧！”</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>不久以后，一位已故的女性，生前美丽且善良果然生下了一个可爱的小公主，这个女孩的皮肤白得像雪一般，双颊红得有如苹果，头发乌黑柔顺，因此，一个中年男性，拥有王室身份和一位已故的女性，生前美丽且善良就把她取名为“皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女”。</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Not long after, a deceased woman, who was beautiful and kind during her lifetime, miraculously gave birth to a lovely little princess. The girl had skin as white as snow, cheeks as red as apples, and hair that was jet-black and smooth. Consequently, a middle-aged man of royal lineage, who was married to the late beautiful and kind woman, decided to name her "Snow-white skin, Rosy cheeks, Jet-black hair," as she grew into a stunning young maiden.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>snow-white skin, rosy cheeks, jet-black hair, a beautiful young maiden, detailed eyes with long eyelashes, delicate nose, stunning lips, graceful posture, elegant royal gown, flowing black hair, soft natural lighting, warm color tones, intricate textures, high detail, realistic style, soft focus, background of a royal castle garden, blooming flowers, serene atmosphere, timeless beauty, classic portrait, rich colors, smooth skin, vibrant red apples in the background, gentle smile, regal aura, masterful composition</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>不久以后，王后果然生下了一个可爱的小公主，这个女孩的皮肤白得像雪一般，双颊红得有如苹果，头发乌黑柔顺，因此，国王和王后就把她取名为“白雪公主”。</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>全国的人民都为皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女深深祝福。</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>People across the nation earnestly blessed her, hoping that she, with her snow-white skin, rosy cheeks, and raven-black hair that flowed smoothly, would gradually grow into a beautiful young maiden.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>snow-white skin, rosy cheeks, raven-black hair, smooth flowing hair, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, extremely detailed face, traditional attire, elegant posture, soft lighting, warm color tone, realistic style, high detail, 8k quality, national blessing, hopeful atmosphere, intricate background patterns, harmonious composition</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>全国的人民都为白雪公主深深祝福。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女在一个中年男性，拥有王室身份皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女和一位已故的女性，生前美丽且善良的宠爱之下，逐渐长大了，终于成了一个人见人爱的美少女。</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Her skin was as white as snow, her cheeks rosy, and her hair jet black and smooth. Under the care of a middle-aged man of royal lineage and a deceased woman who had been both beautiful and kind during her lifetime, she gradually grew into a lovely young maiden. As time passed, she blossomed into a charming beauty admired by all who met her.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>snow-white skin, rosy cheeks, jet-black smooth hair, beautiful detailed eyes, delicate nose, elegant lips, long eyelashes, enchanting smile, charming beauty, youthful maiden, royal lineage, caring middle-aged man, deceased kind mother, lush green garden, soft sunlight, Victorian dress, intricate lace, pearl necklace, gentle breeze, romantic atmosphere, high detail, realistic style, warm color tone, natural lighting, cinematic quality, 8k resolution</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>白雪公主在国王白雪公主和王后的宠爱之下，逐渐长大了，终于成了一个人见人爱的美少女。</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女非常善良、有爱心、她经常和动物一起玩耍。</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The girl had skin as white as snow, with rosy cheeks and hair that was black and smooth. She gradually grew into a beautiful young maiden who was extremely kind and compassionate. She often played with animals.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>girl with snow white skin, rosy cheeks, black smooth hair, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, extremely kind and compassionate expression, wearing a soft pastel dress, surrounded by playful animals, rabbits, deer, birds, in a lush green forest, sunlight filtering through the trees, natural lighting, detailed textures, high quality, realistic style, warm color tone, vibrant yet serene atmosphere</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>白雪公主非常善良、有爱心、她经常和动物一起玩耍。</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>森林的动物，像小鹿、小兔子、松鼠、小鸟都喜欢皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女，因为皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女会给它们吃食物，还会讲故事给它们听。</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>The animals in the forest, such as the fawns, rabbits, squirrels, and birds, all adored a young girl who had skin as white as snow, rosy cheeks, and hair that was jet black and smooth. As she gradually blossomed into a beautiful young woman, these animals were drawn to her kindness. She not only provided them with food but also entertained them by telling enchanting stories.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>young girl in a forest, surrounded by animals like fawns, rabbits, squirrels, and birds, beautiful detailed eyes with a gentle expression, delicate nose, soft and inviting lips, long eyelashes, snow-white skin, rosy cheeks, jet black smooth hair flowing down her back, wearing a simple yet elegant dress made of natural fabrics, intricate textures on her clothing resembling leaves and flowers, magical fairy tale atmosphere, lush green forest with sunlight filtering through the trees, vibrant wildflowers scattered around her feet, enchanting stories floating in the air as visible whispers, high detail, realistic style with a touch of fantasy, warm color tones with hints of gold and silver, soft natural lighting creating a dreamy ambiance, 8k quality, photorealistic, mystical yet approachable presence</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>森林的动物，像小鹿、小兔子、松鼠、小鸟都喜欢白雪公主，因为白雪公主会给它们吃食物，还会讲故事给它们听。</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>个性善良犹如天使般的皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女，过着幸福快乐的生活。 可是，好景不长，皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女的母亲生病去世了。</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>A girl with a kind personality, skin as white as snow, rosy cheeks, and jet-black, smooth hair gradually grew into a beautiful young maiden and lived a happy and joyful life. However, not long after, her mother, who also had skin as white as snow, rosy cheeks, and jet-black, smooth hair, fell ill and passed away as the girl was growing into a beautiful young maiden.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>girl with kind personality, snow-white skin, rosy cheeks, jet-black smooth hair, beautiful detailed eyes, delicate nose, elegant lips, long eyelashes, gentle expression, youthful beauty, soft natural lighting, warm color tone, realistic style, high detail, 8k quality, serene background, traditional clothing, emotional atmosphere, motherly love, nostalgic vibe, delicate textures</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>个性善良犹如天使般的白雪公主，过着幸福快乐的生活。 可是，好景不长，白雪公主的母亲生病去世了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>一个中年男性，拥有王室身份为了皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女就迎娶了一位新一位已故的女性，生前美丽且善良，可是，这位新一位已故的女性，生前美丽且善良却是个精通法术的女巫。</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>A middle-aged man of royal lineage, who possessed porcelain-white skin, rosy cheeks, and lustrous black hair, gradually transformed into a beautiful young maiden. He then married a deceased woman who, during her lifetime, was known for her beauty and kindness. However, this recently deceased woman, though equally beautiful and benevolent in life, was in fact a witch highly skilled in sorcery.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>middle-aged man with royal lineage, porcelain-white skin, rosy cheeks, lustrous black hair, transforming into a beautiful young maiden, delicate facial features, elegant nose, soft lips, long eyelashes, extremely detailed eyes and face, magical aura surrounding the scene, ethereal atmosphere, mysterious forest setting, moonlight illuminating the surroundings, intricate medieval clothing, flowing silk fabric, rich embroidery, golden accessories, deceased woman appearing as a ghostly bride, translucent pale skin, kind yet enigmatic expression, wearing an ornate gown, lace details, floral crown, witchcraft elements subtly integrated, swirling mist, glowing runes, romantic and haunting color tone, soft pastel hues, subtle blue and purple accents, cinematic lighting, high detail, photorealistic style, 8k quality</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>国王为了白雪公主就迎娶了一位新王后，可是，这位新王后却是个精通法术的女巫。</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>她虽然很美丽，但是个性很骄傲、暴躁。 尤其她最恨别人比她美丽。 “这是你新母后！”</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Although she was very beautiful, her personality was arrogant and irritable. In particular, she hated nothing more than others being more beautiful than her. The king introduced, "This is your new mother!"</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>arrogant princess, detailed facial features, sharp nose, cold lips, piercing eyes with a hint of disdain, long elegant eyelashes, luxurious royal attire, golden tiara, rich silk dress with intricate embroidery, standing in a grand palace hall, marble floor reflecting soft light, dramatic shadows emphasizing her irritable mood, dark moody background, deep red and gold color tones, baroque artistic style, highly detailed textures, cinematic lighting focusing on her face, ultra-realistic quality, 8k resolution, dramatic and intense atmosphere</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>她虽然很美丽，但是个性很骄傲、暴躁。 尤其她最恨别人比她美丽。 “这是你新母后！”</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>当一个中年男性，拥有王室身份向皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女介绍新一位已故的女性，生前美丽且善良时，她还正为死去的母后感到悲伤呢。</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>A middle-aged man of royal descent was introducing a young, deceased woman, who had been beautiful and kind in life, to a beautiful girl. The girl, with skin as white as snow, rosy cheeks, and black, flowing hair, was still grieving for her late mother, the queen.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>middle-aged man with regal presence, elegant posture, wearing luxurious robes adorned with gold embroidery, beautiful detailed eyes expressing solemnity, strong nose with aristocratic bridge, compassionate lips curved in a gentle smile, young woman with snow-white skin, rosy cheeks contrasting her pale complexion, long flowing black hair cascading down her back, delicate features with tear-filled eyes showing grief, small nose with graceful curve, soft lips trembling slightly, deceased woman portrayed as ethereal presence glowing faintly behind them, radiant beauty marked by kindness, royal hall filled with grandeur and sorrowful atmosphere, intricate marble floors reflecting dim candlelight, ornate chandeliers casting warm golden glow, rich velvet curtains draped over large windows allowing soft moonlight to filter through, highly detailed textures on fabrics and furnishings, cinematic lighting emphasizing emotional depth, dark moody tones blending into soft pastels, baroque art style with dramatic flair, photorealistic quality with sharp focus on characters' facial expressions, ultra-detailed rendering of clothing and surroundings, 8k resolution, dynamic composition drawing attention to interaction between characters</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>当国王向白雪公主介绍新王后时，她还正为死去的母后感到悲伤呢。</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>新一位已故的女性，生前美丽且善良有一面很奇特的镜子，从镜子里可以得到一切你想知道的答案。</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>A newly deceased woman, who was beautiful and kind during her lifetime, possessed a very peculiar mirror. This mirror could reveal every answer one desired to know.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>a beautiful deceased woman, wearing an elegant white gown, standing in a mystical foggy forest, holding a peculiar antique mirror, detailed delicate facial features, soft kind eyes, perfectly shaped nose, gentle lips with a serene expression, long flowing hair, surrounded by glowing fireflies, ethereal atmosphere, intricate mirror design with ancient carvings, realistic texture, highly detailed, 8k quality, cinematic lighting, soft pastel color tones, dreamlike artistic style, romantic fantasy theme, mysterious ambiance, reflective surface of the mirror showing faint visions</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>新王后有一面很奇特的镜子，从镜子里可以得到一切你想知道的答案。</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>所以，一位已故的女性，生前美丽且善良经常对着镜子问：“魔镜、魔镜，谁是世界上最美丽的女人？”</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>A deceased woman, who was known for her beauty and kindness during her lifetime, often stood before the mirror and inquired with a sense of curiosity and vanity: "O Magic Mirror, tell me true, who is the fairest woman in all the world?"</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>deceased woman, beautiful detailed eyes, delicate nose, soft and kind lips, long eyelashes, elegant posture, standing before an antique mirror, curious and vain expression, intricate hairstyle, vintage dress, glowing skin, ethereal aura, reflective surface of the mirror, dimly lit room, soft lighting, romantic style, warm yet mysterious color tone, highly detailed textures, cinematic quality, realistic art style, atmospheric background, subtle hints of vanity, 8k resolution</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>所以，王后经常对着镜子问：“魔镜、魔镜，谁是世界上最美丽的女人？”</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>“全世界最美的女人就是你，一位已故的女性，生前美丽且善良。” 可是，有一天，当一位已故的女性，生前美丽且善良再问魔镜同样的问题时，魔镜却回答说：</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>The magic mirror once declared to a deceased woman who was beautiful and kind in her lifetime, "The most beautiful woman in the world is you." However, one day, when this same deceased woman, who had been beautiful and kind during her lifetime, asked the magic mirror the same question again, the magic mirror replied, "The most beautiful woman in the world is no longer just you, but also others who possess inner beauty and kindness."</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>magic mirror, ornate golden frame with intricate carvings, crystal-clear reflective surface, floating in a mystical foggy forest, deceased woman as translucent ethereal figure, beautiful detailed eyes with long eyelashes, delicate nose, kind smile with beautifully detailed lips, flowing white gown with shimmering particles, soft glowing aura around her body, surrounded by faintly glowing fireflies, ancient tree roots winding around the scene, moonlight filtering through dense fog, dark blue and silver color tones, soft spotlight on the magic mirror and woman, highly detailed textures, cinematic lighting, fantasy art style, 8k ultra-high definition</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>“全世界最美的女人就是你，王后。” 可是，有一天，当王后再问魔镜同样的问题时，魔镜却回答说：</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>“现在皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女比你美丽。” 新一位已故的女性，生前美丽且善良听了非常生气。</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Upon hearing the remark that "Her skin is now as white as snow, her cheeks rosy, and her hair glossy and smooth, gradually blossoming into a beautiful young maiden surpassing your own beauty," the recently deceased woman, who had been both beautiful and kind during her lifetime, felt extremely infuriated.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>angry deceased woman, beautiful yet pale skin, rosy cheeks, glossy smooth black hair, detailed angry eyes with sharp gaze, perfectly shaped nose, beautiful but fierce lips, long dramatic eyelashes, elegant and graceful posture, traditional ancient dress, dark atmospheric background, intricate details, high resolution, cinematic style, dramatic lighting, deep shadows, rich colors, gothic romanticism, realistic portrait, emotional expression, 8k quality</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>“现在白雪公主比你美丽。” 新王后听了非常生气。</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>“可恶，怎么皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女和七个身材矮小的男性，住在森林中的小木屋里，勤劳善良可以有人比我更美丽，我一定要把她除去。”</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>The evil queen grew furious as she gazed into the magic mirror, for it revealed that there was indeed someone fairer than she. In the depths of the forest lived a young girl with skin as white as snow, cheeks blooming like roses, and hair flowing black and smooth. She was gradually blossoming into a beautiful maiden, cared for by seven diminutive men who were kind-hearted and hardworking. Consumed by jealousy, the queen resolved to eliminate this threat to her supremacy at once.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>evil queen, furious expression, beautiful detailed eyes, sharp nose, elegant yet cruel lips, long eyelashes, luxurious gown, dark atmosphere, magic mirror, ornate frame, glowing reflection, young girl in the forest, skin as white as snow, cheeks like roses, flowing black hair, delicate features, seven dwarves, kind-hearted and hardworking, wooden cottage, lush greenery, mystical ambiance, cinematic lighting, rich textures, highly detailed, realistic style, dark fairy tale, deep contrast, vibrant colors, 8k quality</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>“可恶，怎么白雪公主和七个小矮人可以有人比我更美丽，我一定要把她除去。”</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>于是，她就命令宫廷的武士说： “我不想再看到皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女了，你找个借口，把她带到森林里偷偷杀掉。</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Thus, the queen commanded her royal guards, "I no longer wish to see the maiden with skin as fair as snow, rosy cheeks, and lustrous black hair who is blossoming into a beautiful young lady. You must find a plausible pretext to take her deep into the forest and secretly eliminate her there."</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>queen, royal guards, maiden with skin as fair as snow, rosy cheeks, lustrous black hair, beautiful detailed eyes, delicate nose, elegant lips, long eyelashes, lush forest, secret elimination, plausible pretext, dark atmosphere, dramatic tension, realistic texture, cinematic lighting, deep shadows, vibrant colors, high detail, sharp focus, classical art style, rich composition, emotional depth, dynamic pose, flowing garments, golden crown, ornate armor, mystical aura, enchanting ambiance</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>于是，她就命令宫廷的武士说： “我不想再看到白雪公主了，你找个借口，把她带到森林里偷偷杀掉。</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>杀了以后，把她的心和舌头带回来，做为你杀死她的证据。 听到没有？ 不可以有差错……”</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>The man instructed him to kill her, and after killing her, to bring back her heart and tongue as evidence that he had carried out the killing. The man emphasized the importance of hearing and obeying this command, allowing no room for mistakes.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>dark forest atmosphere, mysterious hooded figure, bloodstained dagger, detailed facial features, stern eyes, sharp nose, firm lips, long eyelashes, shadowy surroundings, moonlight piercing through trees, eerie silence, red heart in hand, torn tongue on the ground, obedience and command emphasis, dark color tones, deep shadows, realistic texture, cinematic lighting, high detail, 8k quality, gothic art style, dramatic contrast</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>杀了以后，把她的心和舌头带回来，做为你杀死她的证据。 听到没有？ 不可以有差错……”</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>“是的，一位已故的女性，生前美丽且善良……” 武士听了这话之后，就真的把皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女带到森林里去了。</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>A samurai, upon hearing the description of a deceased woman who had been beautiful and kind-hearted during her lifetime, indeed took a young girl—who gradually grew into a stunning maiden with skin as white as snow, rosy cheeks, and lustrous black hair—to the forest.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>samurai warrior, young girl growing into a stunning maiden, pale white skin, rosy cheeks, lustrous black hair, beautiful detailed eyes, delicate nose, elegant lips, long eyelashes, traditional Japanese kimono, intricate patterns, forest setting, ancient trees, dappled sunlight, moss-covered ground, serene atmosphere, highly detailed textures, sharp focus, cinematic lighting, dramatic shadows, soft color tones, historical accuracy, artistic composition, photorealistic style, 8k quality</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>“是的，王后……” 武士听了这话之后，就真的把白雪公主带到森林里去了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>当武士抽出刀来杀公主的时候，他看到正在采花的公主，纯洁，善良，犹如天使一般，武士不忍心杀她，就向皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女说：</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>As the samurai drew his sword to kill the princess, he caught sight of her picking flowers. Pure and kind, she appeared like an angel. Unable to bring himself to harm her, the samurai addressed the young maiden, whose skin was as white as snow, cheeks rosy, and hair black and smooth, gradually blossoming into a beautiful girl.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>samurai, princess, garden, picking flowers, angelic presence, pure and kind, unable to harm, detailed samurai armor, intricate sword, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, extremely detailed face, white skin, rosy cheeks, black smooth hair, soft natural lighting, rich textures, traditional Japanese setting, lush greenery, blooming flowers, cinematic composition, realistic style, high detail, warm color tones, emotional atmosphere</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>当武士抽出刀来杀公主的时候，他看到正在采花的公主，纯洁，善良，犹如天使一般，武士不忍心杀她，就向白雪公主说：</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>“皇后命令我杀掉公主你，可是我实在狠不下心，所以你还是往森林里逃走吧！”</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>The soldier announced to the princess, his voice trembling with emotion, "The queen has ordered me to take your life, but I find myself incapable of carrying out such a cruel command. My heart is too compassionate to raise a weapon against you. Therefore, I urge you, flee into the depths of the forest where you may seek refuge and escape this imminent danger!"</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>soldier, princess, forest, emotional moment, compassionate expression, beautiful detailed eyes, delicate nose, soft lips, long eyelashes, royal attire, medieval setting, dark forest background, golden sunlight filtering through trees, dramatic lighting, rich textures, high detail, cinematic style, warm color tones, realistic art, 8k quality</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>“皇后命令我杀掉公主你，可是我实在狠不下心，所以你还是往森林里逃走吧！”</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>说完武士见到一头猪，就跑过去宰了它，并取下心和舌头以作为证据。 之后，武士便回皇宫去了。</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>After the samurai finished speaking, he noticed a pig nearby and swiftly approached it to slaughter the animal. He then carefully removed its heart and tongue as evidence of his claim. Following this action, the samurai promptly returned to the royal palace.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>samurai, dark forest environment, early morning mist, detailed traditional armor, sharp katana, bloody pig carcass, removed heart and tongue, evidence of claim, determined facial expression, strong jawline, intense eyes, focused gaze, realistic texture, dynamic composition, dramatic lighting, dark color tones, deep shadows, intricate details, high-quality artwork, photorealistic style, rich textures, masterfully crafted scene, Japanese historical setting</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>说完武士见到一头猪，就跑过去宰了它，并取下心和舌头以作为证据。 之后，武士便回皇宫去了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>听到猫头鹰叫声的皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女，越走越觉得森林好可怕。 突然，眼前有一栋小木屋，于是便又惊又喜的叫着：</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>The girl, whose skin was as white as snow, cheeks rosy, and hair black and smooth, grew into a beautiful young woman. As she ventured deeper, the forest became increasingly terrifying. Suddenly, she spotted a small wooden cabin ahead and exclaimed with both surprise and joy.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>beautiful young woman, pale white skin, rosy cheeks, black smooth hair, detailed delicate nose, stunning beautiful eyes, long eyelashes, elegant lips, wearing a simple forest dress, standing in front of a small wooden cabin, surrounded by dark dense forest, mysterious atmosphere, eerie lighting, dim moonlight shining through trees, realistic texture, cinematic composition, high detail, soft natural colors, deep shadows, enchanting ambiance, photorealistic style, 8k quality</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>听到猫头鹰叫声的白雪公主，越走越觉得森林好可怕。 突然，眼前有一栋小木屋，于是便又惊又喜的叫着：</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>“啊，是小木屋！” 皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女急忙向前敲敲门，可是屋子里没有人来开门。 她就自作主张的把门打开。</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>"A young girl with skin as white as snow, rosy cheeks, and black, flowing hair stood before a small wooden cabin. She knocked on the door eagerly, but no one came to answer it. Assuming that the cabin's owner wouldn't mind, she opened the door by herself."</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>young girl, skin as white as snow, rosy cheeks, black flowing hair, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, elegant posture, wearing a traditional dress, wooden cabin, small house in forest, rustic wooden door, autumn leaves surrounding, knocking on the door, eager expression, soft natural lighting, high detail, realistic style, warm color tone, 8k quality, cinematic photography, lush trees in background, moss covered logs, peaceful atmosphere</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>“啊，是小木屋！” 白雪公主急忙向前敲敲门，可是屋子里没有人来开门。 她就自作主张的把门打开。</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>进入小木屋后，里面竟然整齐排列着七张小小的床。</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>After the child entered the small wooden house, they found that there were seven tiny beds inside, arranged in perfect order.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>small wooden house, seven tiny beds, neatly arranged, cozy interior, soft blankets, child exploring, warm lighting, wooden floor, detailed eyes, curious expression, innocent face, beautiful detailed eyes, small nose, delicate lips, long eyelashes, fairy tale atmosphere, soft color tones, high detail, realistic style, peaceful ambiance, magical realism, enchanting scene, 8k quality</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>进入小木屋后，里面竟然整齐排列着七张小小的床。</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女在森林里跑了一天，觉得非常疲倦，就在那七张小小的床上躺了下来，不知不觉的睡着了。</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Her skin was as white as snow, her cheeks rosy, and her hair jet black and smooth. She gradually grew into a beautiful young girl who had spent the entire day running through the forest until she felt utterly exhausted. She then lay down on the seven little beds and soon fell sound asleep.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>beautiful young girl, lying on a small bed, surrounded by seven little beds, detailed facial features, beautiful detailed eyes, long eyelashes, delicate nose, soft rosy cheeks, pale white skin, jet black smooth hair, tired expression, peaceful sleep, forest background, wooden cabin interior, soft lighting, warm color tone, high detail, realistic style, 8k quality</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>白雪公主在森林里跑了一天，觉得非常疲倦，就在那七张小小的床上躺了下来，不知不觉的睡着了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>傍晚，当皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女和七个身材矮小的男性，住在森林中的小木屋里，勤劳善良七个身材矮小的男性，住在森林中的小木屋里，勤劳善良扛着锄头回来时，发现自己的家有人在，而且是睡在自己的床上，大家都很奇怪的问</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>In the twilight, a fair-skinned girl with rosy cheeks and raven-black hair was gradually blossoming into a beautiful young maiden. She lived in a small wooden cottage deep in the forest alongside seven short-statured men who were diligent and kind-hearted. One day, as the seven men returned home from their work in the fields, carrying hoes on their shoulders, they discovered that someone was inside their house, sound asleep in their bed. Surprised and curious, they all asked her how she had come to be there.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>twilight, fair-skinned girl, rosy cheeks, raven-black hair, beautiful young maiden, small wooden cottage, deep in the forest, seven short-statured men, diligent and kind-hearted, carrying hoes on their shoulders, returning home from fields, someone inside their house, sound asleep in their bed, surprised and curious, detailed eyes, delicate nose, beautiful lips, long eyelashes, soft lighting, warm color tone, magical atmosphere, realistic painting style, highly detailed, cinematic quality, natural textures, enchanting scenery</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>傍晚，当白雪公主和七个小矮人七个小矮人扛着锄头回来时，发现自己的家有人在，而且是睡在自己的床上，大家都很奇怪的问</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>： “这个漂亮的女孩子是谁啊？” “她睡得好香哪！” “这个小姑娘长得真美丽。”</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>A man asked, "Who is this beautiful girl?" Another person replied, "She is sleeping so soundly!" The man then commented, "This young girl is truly very beautiful."</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>sleeping girl, beautiful detailed face, delicate nose, soft lips, long eyelashes, peaceful expression, gentle lighting, soft shadows, realistic skin texture, flowing hair, comfortable bed, cozy blanket, warm tones, high detail, photorealistic style, natural colors, serene atmosphere, 8k quality</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>： “这个漂亮的女孩子是谁啊？” “她睡得好香哪！” “这个小姑娘长得真美丽。”</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>小矮人们纷纷议论的声音吵醒了皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女。 小矮人们很生气的说： “你为什么闯进我们的房子呢？”</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>The dwarfs' murmuring voices woke the girl with skin as white as snow, rosy cheeks, and smooth black hair, who was gradually blossoming into a beautiful young maiden. The dwarfs, feeling irritated, asked her angrily, "Why did you dare to intrude into our house without permission?"</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>girl with pale white skin, rosy cheeks, smooth black hair, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, soft facial features, wearing a simple dress, standing in a wooden house, seven dwarfs around her, dwarfs with annoyed expressions, wooden furniture, dim lighting, cozy atmosphere, natural textures, high detail, realistic style, warm color tones, soft shadows, cinematic quality, fantasy art, 8k resolution</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>小矮人们纷纷议论的声音吵醒了白雪公主。 小矮人们很生气的说： “你为什么闯进我们的房子呢？”</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>“各位先生，真是对不起，因为我在森林中迷路了，走了一整天的路，实在是又饿又累，看见这栋小屋，我就走进来休息了。”</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>The traveler apologized to the gentlemen, explaining that he had lost his way in the forest and had been walking all day, leaving him extremely hungry and tired. Upon seeing the small cottage, he decided to enter and rest.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>traveler, gentleman, forest, lost way, exhausted, hungry, small cottage, wooden door, detailed eyes, weary expression, long eyelashes, rugged clothing, moss-covered walls, soft lighting, warm tones, realistic style, high detail, natural textures, evening atmosphere, calm ambiance, 4k quality, cinematic composition</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>“各位先生，真是对不起，因为我在森林中迷路了，走了一整天的路，实在是又饿又累，看见这栋小屋，我就走进来休息了。”</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女又把事情的经过，一五一十地告诉小矮人。 小矮人们听了非常同情皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女的遭遇，就把她留下来。</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Her skin was as white as snow, her cheeks were rosy, and her hair was jet black and smooth. As she grew up, she became a beautiful young girl. She recounted the details of her story to the dwarfs with great sincerity. After hearing her account, the dwarfs felt profound sympathy for the beautiful young girl with skin as white as snow, rosy cheeks, and jet black, smooth hair. Consequently, they decided to take her in and provide her with a home.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>beautiful young girl, snow white skin, rosy cheeks, jet black smooth hair, detailed delicate face, extremely detailed eyes and face, long eyelashes, beautiful detailed eyes, small elegant nose, beautiful detailed lips, sincere expression, soft natural lighting, warm color tone, realistic style, high detail, cinematic quality, surrounded by dwarfs, cozy wooden cabin, forest background, magical atmosphere, enchanting scenery, harmonious composition</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>白雪公主又把事情的经过，一五一十地告诉小矮人。 小矮人们听了非常同情白雪公主的遭遇，就把她留下来。</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>“你就在这里住下来吧！” 皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女听到小矮人愿意留下她，很高兴的说：</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>"Snow White, with her skin as white as snow, her cheeks rosy, and her hair black and smooth, had gradually grown into a beautiful young girl. Upon hearing that the dwarfs were willing to let her stay, she happily replied, 'I will stay here then!'"</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>snow white, beautiful young girl, skin as white as snow, rosy cheeks, black smooth hair, detailed facial features, beautiful detailed eyes, long eyelashes, elegant nose, beautiful detailed lips, happy expression, wearing a traditional blue and yellow dress, red ribbon in hair, surrounded by forest scenery, wooden cabin in the background, sunlight filtering through trees, soft natural lighting, warm color tone, detailed textures, high-quality art, realistic style, enchanting atmosphere, fairy tale setting</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>“你就在这里住下来吧！” 白雪公主听到小矮人愿意留下她，很高兴的说：</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>“真是太感谢了，我愿意在这里为你们做饭、铺床、洗衣服、打扫，我什么都愿意为你们做。”</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>The woman expressed her gratitude with great enthusiasm, stating that she was willing to cook, make beds, do laundry, and clean for them at this place. She emphasized that she was ready to do anything for them.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>grateful woman, warm smile, beautiful detailed eyes, expressive eyebrows, elegant nose, kind and gentle lips, long eyelashes, heartfelt expression, standing in a cozy kitchen, wooden floors, soft natural light, pastel color tones, vintage furniture, neat and tidy environment, apron wearing, rolling up sleeves, realistic painting style, high detail, photorealistic, 8k quality</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>“真是太感谢了，我愿意在这里为你们做饭、铺床、洗衣服、打扫，我什么都愿意为你们做。”</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>“欢迎你，从此这里就是你的家了。” 皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女每天都把这个小木屋打扫得非常清洁。</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>The girl with skin as white as snow, rosy cheeks, and jet-black, smooth hair gradually grew into a beautiful young maiden. Every day, she welcomed the boy and told him, "Welcome, from now on, this place will be your home." She kept the little wooden house spotlessly clean.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>girl with snow white skin, rosy cheeks, jet black smooth hair, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, extremely detailed face, traditional dress, warm smile, wooden house in the background, spotlessly clean environment, soft natural lighting, cozy atmosphere, high quality, sharp focus, intricate details, realistic style, warm color tones, welcoming gesture, charming scenery, rural setting, peaceful ambiance</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>“欢迎你，从此这里就是你的家了。” 白雪公主每天都把这个小木屋打扫得非常清洁。</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>七个身材矮小的男性，住在森林中的小木屋里，勤劳善良从森林里回来后，就有可口的晚餐等着他们。 就这样日复一日，皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女和小矮人过着快乐的生活。</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Seven diminutive men, known as dwarfs, resided in a quaint wooden cottage nestled within the depths of a lush forest. They were industrious and kind-hearted, and every day upon their return from the forest, they were greeted with a delicious and appetizing dinner prepared by a mysterious figure. As days turned into months, a young girl with skin as white as snow, rosy cheeks, and lustrous black hair gradually grew into a beautiful maiden. She lived happily with the dwarfs, sharing joyful moments and forming an unbreakable bond.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>seven dwarfs, quaint wooden cottage, lush forest, industrious and kind-hearted, delicious dinner, mysterious figure, young girl, skin as white as snow, rosy cheeks, lustrous black hair, beautiful maiden, joyful moments, unbreakable bond, detailed facial features, beautiful detailed eyes, well-defined nose, delicate lips, long eyelashes, soft lighting, warm color tone, cozy atmosphere, natural textures, high-quality art, realistic style, enchanting scenery, fairy tale ambiance</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>七个小矮人从森林里回来后，就有可口的晚餐等着他们。 就这样日复一日，白雪公主和小矮人过着快乐的生活。</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>新一位已故的女性，生前美丽且善良以为皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女已经死了，有一天她又问魔镜说： “魔镜、魔镜，谁是世界上最美丽的人呢？”</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>A newly deceased young woman, who had been beautiful and kind in her lifetime, with skin as white as snow, rosy cheeks, and hair that was black and smooth, had grown into a beautiful maiden before passing away. One day, while questioning the magic mirror, she asked: "Magic Mirror, Magic Mirror, who is the fairest person in the world?"</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>young woman with pale white skin, rosy cheeks, long smooth black hair, delicate facial features, beautiful detailed eyes with long eyelashes, elegant nose, soft and graceful lips, wearing a flowing white gown, standing in front of an ancient magic mirror, surrounded by dimly lit candles, gothic romantic style, dark yet enchanting atmosphere, rich textures on the dress and mirror frame, highly detailed realism, soft lighting creating subtle shadows, deep blue and purple color tones, mystical aura emanating from the mirror, 8k quality, cinematic composition</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>新王后以为白雪公主已经死了，有一天她又问魔镜说： “魔镜、魔镜，谁是世界上最美丽的人呢？”</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>魔镜回答一位已故的女性，生前美丽且善良说：</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>The magic mirror responded to a deceased woman, who was beautiful and kind during her lifetime, saying: "You are the most stunning and benevolent soul in memory."</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>magic mirror reflecting light, deceased woman appearing in the mirror, beautiful detailed eyes with kindness, delicate nose, gentle smile on beautiful detailed lips, long eyelashes, elegant hairstyle flowing softly, soft glowing aura around her figure, ancient enchanted frame of the mirror with intricate carvings, dimly lit room with candlelight, mysterious foggy atmosphere, rich deep tones of purple and blue, highly realistic texture, cinematic lighting, 8k ultra-detailed quality, romantic fantasy style, ethereal emotional expression, timeless elegance, memory-filled ambiance</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>魔镜回答王后说：</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>“一位已故的女性，生前美丽且善良，你很美丽，可是皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女比你更美丽，她现在在森林中和七个身材矮小的男性，住在森林中的小木屋里，勤劳善良过着快乐幸福的生活。”</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>A deceased woman, who was beautiful and kind during her lifetime, became the subject of a vivid description. Though you are already quite beautiful, with skin as white as snow, rosy cheeks, and smooth black hair, there is someone else who has grown into an even more beautiful young girl. She now resides in a small wooden cottage in the forest, living happily with seven short-statured men. Together, they lead a life filled with diligence and kindness, enjoying great joy and contentment.</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>deceased woman, beautiful and kind, skin as white as snow, rosy cheeks, smooth black hair, elegant detailed eyes, delicate nose, graceful lips, long eyelashes, surrounded by flowers, soft lighting, realistic texture, highly detailed, cinematic style, warm color tone, magical atmosphere, seven dwarves in the background, wooden cottage in the forest, lush greenery, vibrant nature, happiness and contentment, fantasy art, 8k resolution</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>“王后，你很美丽，可是白雪公主比你更美丽，她现在在森林中和七个小矮人过着快乐幸福的生活。”</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>一位已故的女性，生前美丽且善良听了这个回答之后，才知道皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女并没有死，她感到很愤怒。</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>A deceased woman, who had been beautiful and kind-hearted during her lifetime, heard this response and realized that the fair-skinned girl with rosy cheeks and lustrous black hair, who had gradually blossomed into a beautiful young maiden, was still alive. This revelation filled her with immense anger.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>deceased woman, pale skin, translucent complexion, delicate features, beautiful detailed eyes filled with anger, sharp gaze, elegant nose, sorrowful yet furious expression, beautiful detailed lips curled into a snarl, long eyelashes, kind-hearted aura contrasted by current rage, fair-skinned girl in background, rosy cheeks glowing with life, lustrous black hair flowing naturally, youthful beauty, blossoming maiden, contrasting emotions of anger and regret, dark atmospheric background, dim lighting emphasizing facial details, high detail in textures, cinematic artistic style, deep color tones, muted blues and grays, dramatic shadows enhancing mood, 8k image quality</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>王后听了这个回答之后，才知道白雪公主并没有死，她感到很愤怒。</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>“真是可恶极了，一定要让皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女从世界上消失”</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>It was truly infuriating; the world seemed to demand that she must have skin as fair as snow, cheeks flushed with a healthy red, and hair that was pitch-black and silky smooth, gradually transforming into a beautiful young girl only to eventually vanish from existence.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>beautiful young girl, fair skin like snow, cheeks with healthy red blush, pitch-black silky hair, delicate facial features, beautiful detailed eyes, long eyelashes, elegant nose, graceful lips, soft natural expression, traditional eastern aesthetic, flowing dress, ethereal atmosphere, surrounded by soft light, vanishing into mist, dreamlike scene, high detail, sharp focus, cinematic style, soft pastel colors, warm lighting, mystical ambiance, 8k quality</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>“真是可恶极了，一定要让白雪公主从世界上消失”</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>坏心肠的一位已故的女性，生前美丽且善良想到了一个办法，她在鲜红的苹果外面，涂上了她调配的毒药，准备去毒死皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女。 “嘿！</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>A deceased woman, who was wicked at heart despite being beautiful and seemingly kind during her lifetime, devised a plan. She coated the surface of a bright red apple with poison that she had concocted herself, intending to use it to kill a young girl who was growing up to be stunningly beautiful, with skin as white as snow, rosy cheeks, and lustrous black hair. "Hey!"</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>deceased woman, beautiful yet wicked, detailed pale face, sharp intelligent eyes, delicate nose, sinister smile with lips coated in red, long flowing black hair, dark elegant gown, gothic lace details, bright red poisoned apple, shimmering toxic coating, young girl in background, skin white as snow, rosy cheeks, lustrous black hair, innocent expression, dark forest setting, eerie twilight lighting, deep shadows, crimson highlights, dramatic contrast, cinematic composition, highly detailed painting, realistic textures, dark romantic style, rich atmospheric tones, mysterious mood, 8k quality</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>坏心肠的王后想到了一个办法，她在鲜红的苹果外面，涂上了她调配的毒药，准备去毒死白雪公主。 “嘿！</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>嘿！ 皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女只要吃一口这个有毒的苹果，就一定会死去。 到那个时候，我就是世界上最美丽的女人了。”</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>The evil queen, with a pale complexion as white as snow, rosy cheeks, and lustrous black hair, believed that the beautiful young maiden would surely perish upon taking a bite of the poisoned apple. As she contemplated this, she envisioned herself becoming the fairest woman in the world once the girl was gone.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>evil queen, pale complexion, rosy cheeks, lustrous black hair, elegant crown, dark red lips, sharp nose, cold detailed eyes, long eyelashes, regal posture, flowing gown, deep purple color, golden embroidery, luxurious fabric, poisoned apple, gothic castle background, dramatic lighting, rich details, cinematic style, high contrast, dark atmospheric tones, realistic portrait, 8k quality, intricate textures, baroque art influence, mysterious aura, stunning realism</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>嘿！ 白雪公主只要吃一口这个有毒的苹果，就一定会死去。 到那个时候，我就是世界上最美丽的女人了。”</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>然后，一位已故的女性，生前美丽且善良就打扮成老太婆的模样，提着一篮苹果到森林里去了。</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Then, a deceased woman who had been beautiful and kind during her lifetime decided to disguise herself as an old woman, carrying a basket of apples with her as she ventured into the forest.</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>deceased woman disguised as old woman, carrying a basket of apples, walking into the forest, beautiful detailed eyes, kind expression, detailed face with long eyelashes, weathered hands, traditional old-fashioned dress, textured clothing, realistic skin tones, soft lighting, autumn forest scenery, golden afternoon sunlight, rich earthy color tones, highly detailed textures, cinematic quality, photorealistic style, 8k resolution, natural shadows, deep emotional atmosphere</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>然后，王后就打扮成老太婆的模样，提着一篮苹果到森林里去了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>坏一位已故的女性，生前美丽且善良提着一篮苹果来到了小矮人的小木屋前。 “可爱的小姑娘，你要不要买一个又红又香的苹果呀！</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>A deceased woman, who was beautiful and kind during her lifetime, carried a basket of apples and arrived at the door of the dwarfs' wooden cabin. The dwarfs, seeing her, asked with a smile: "Dear little lady, would you like to buy a red and fragrant apple?"</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>deceased woman, beautiful and kind face, soft smile, delicate features, extremely detailed eyes and face, long eyelashes, gentle expression, elegant nose, beautifully shaped lips, flowing hair, vintage dress, basket of apples, wooden cabin, dwarfs, friendly smiles, red and fragrant apples, warm lighting, natural textures, autumnal background, soft color tones, high detail, cinematic style, realistic art, 4k quality</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>坏王后提着一篮苹果来到了小矮人的小木屋前。 “可爱的小姑娘，你要不要买一个又红又香的苹果呀！</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>我送一个给你吃吧，相信你一定会喜欢的。”</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>She offered him a bite of the delicacy, confident that he would surely enjoy it.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>girl offering a bite of delicacy, elegant pose, confident expression, beautiful detailed eyes, perfectly shaped nose, beautiful detailed lips, long eyelashes, delicate facial features, traditional delicacy on a small plate, rich textures, soft lighting, warm color tone, intricate details, high-quality artwork, realistic style, romantic atmosphere, detailed background with subtle patterns, smooth skin, natural shadows, masterful composition</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>我送一个给你吃吧，相信你一定会喜欢的。”</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>本来就很喜欢吃苹果的皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女，看到又红又大的苹果，便高兴地说： “哇！ 这红红的苹果多么的可爱呀！</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>The girl, who had always loved eating apples, had skin as white as snow, rosy cheeks, and black, smooth hair. As she gradually blossomed into a beautiful young maiden, she saw a bright red, large apple and exclaimed with delight: "Wow! What a lovely red apple this is!"</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>girl with snow white skin, rosy cheeks, black smooth hair, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, wearing a soft pastel dress, standing in an apple orchard, bright red large apple in her hand, expressing delight, realistic texture, highly detailed facial features, soft natural lighting, warm color tone, cinematic artistic style, 8k image quality, lush green grass, clear blue sky background, vibrant surroundings</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>本来就很喜欢吃苹果的白雪公主，看到又红又大的苹果，便高兴地说： “哇！ 这红红的苹果多么的可爱呀！</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>一定很好吃的。” 于是皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女就伸手接过那个苹果。</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>The apple, which was sure to be very delicious, was then taken by the hand of a beautiful young girl who was growing up to be stunning, with skin as white as snow, rosy cheeks, and black, lustrous hair.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>apple, beautiful young girl, pale white skin, rosy cheeks, black lustrous hair, delicate facial features, stunning appearance, soft natural lighting, realistic texture, high detail, smooth skin, elegant posture, traditional european dress, intricate patterns, lush green garden, vibrant colors, soft focus, photorealistic style, 8k quality, beautiful detailed eyes, perfectly shaped nose, captivating smile, long eyelashes, charming expression, harmonious color tones</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>一定很好吃的。” 于是白雪公主就伸手接过那个苹果。</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>结果，皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女才咬了一口，就马上倒在地上，昏死过去了。</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>As a result, her skin became as white as snow, her cheeks flushed with a healthy red hue, and her hair turned jet black and smooth. She gradually developed into a beautiful young girl. However, after she took a bite, she immediately collapsed on the ground and lost consciousness.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>girl with snow white skin, healthy red cheeks, jet black smooth hair, beautiful detailed eyes, delicate nose, cherry lips, long eyelashes, elegant facial features, wearing traditional fairytale attire, collapsed posture, unconscious expression, soft ambient lighting, rich color tones, highly detailed realism, cinematic quality, 8k resolution, intricate shadows and highlights, magical atmosphere, enchanting forest background, mystical aura, fairy tale style</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>结果，白雪公主才咬了一口，就马上倒在地上，昏死过去了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>坏心的一位已故的女性，生前美丽且善良看到她倒在地上，大笑着说：“哈！哈！ 皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女从此以后就从这个世界上消失了。”</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>A deceased woman, who was malicious in heart but had been beautiful and kind during her lifetime, was seen lying on the ground. A figure stood over her, laughing loudly: "Ha! Ha! Her skin was as white as snow, her cheeks were rosy, and her hair was black and smooth. She gradually grew into a beautiful young girl, but from this day forward, she has vanished from this world."</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>deceased woman, beautiful detailed eyes, delicate nose, full lips, long eyelashes, pale white skin, rosy cheeks, black smooth hair, lying on the ground, transformation into young girl, vanished from the world, mysterious atmosphere, dark fantasy style, gothic elements, high contrast lighting, deep shadows, vibrant yet eerie colors, cinematic composition, realistic details, sharp focus, cold snowy environment, standing figure laughing, dramatic pose, haunting expression, intricate clothing textures, flowing fabrics, 8k quality, highly detailed art, photorealistic rendering</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>坏心的王后看到她倒在地上，大笑着说：“哈！哈！ 白雪公主从此以后就从这个世界上消失了。”</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>小矮人傍晚回家的时后，看到皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女躺在地上像死了一样，他们马上把她抬到床上，尽力的施救，可是皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女仍然没有醒过来。</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>In the evening, when the dwarfs returned home, they found a beautiful young woman lying on the ground as if she were dead. She had skin as white as snow, rosy cheeks, and smooth, black hair. As she had gradually grown into a stunning maiden, the dwarfs immediately carried her to a bed and did their utmost to revive her. However, despite their efforts, the beautiful young woman with skin as white as snow, rosy cheeks, and smooth, black hair remained unconscious.</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>beautiful young woman, skin as white as snow, rosy cheeks, smooth black hair, lying on the ground, unconscious expression, delicate facial features, extremely detailed eyes and face, long eyelashes, beautiful detailed lips, soft nose structure, dressed in a simple yet elegant gown, surrounded by concerned dwarfs, wooden cabin interior, evening light filtering through windows, warm ambient lighting, realistic texture, high detail, cinematic style, rich color tones, soft shadows, fantasy art, 8k quality</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>小矮人傍晚回家的时后，看到白雪公主躺在地上像死了一样，他们马上把她抬到床上，尽力的施救，可是白雪公主仍然没有醒过来。</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>小矮人们哭哭啼啼的把皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女，放在一个装满鲜花的玻璃棺材内，准备举行盛大的葬礼。</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>The dwarfs, weeping bitterly, placed the girl, who had fair skin like snow, rosy cheeks, and smooth, black hair, and was gradually blossoming into a beautiful young maiden, into a glass coffin filled with flowers, preparing to hold a grand funeral for her.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>dwarfs, weeping bitterly, sorrowful expressions, detailed faces, a girl in a glass coffin, fair skin like snow, rosy cheeks, smooth black hair, delicate facial features, beautiful detailed eyes, long eyelashes, beautifully shaped nose, elegant lips, gradual transformation into a young maiden, flowers inside the glass coffin, floral arrangements, grand funeral preparations, somber atmosphere, realistic texture, cinematic lighting, soft tones, high-quality art, dark yet enchanting mood, gothic romanticism style, 8k resolution</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>小矮人们哭哭啼啼的把白雪公主，放在一个装满鲜花的玻璃棺材内，准备举行盛大的葬礼。</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>这时，邻国的王子正好路过森林，看到了玻璃棺材里美丽可爱的公主，还有在旁哀悼的小矮人和小动物们。</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>At that moment, the prince from a neighboring kingdom happened to be passing through the forest when he caught sight of a beautiful and adorable princess lying in a glass coffin, surrounded by little dwarfs and small animals who were mourning her loss with great sorrow.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>prince in medieval attire, elegant and noble posture, detailed facial features, sharp jawline, confident expression, beautiful detailed eyes, straight nose, charming lips, wearing a royal cape with golden embroidery, holding a bouquet of flowers, glass coffin with intricate carvings, princess inside the coffin, delicate and serene face, rosy cheeks, long flowing hair, dressed in a white gown with lace details, surrounded by seven dwarfs, each displaying sorrowful expressions, small animals like rabbits and squirrels gathered around, tears streaming down their faces, deep forest background, lush green trees, soft moss covering the ground, dappled sunlight filtering through the leaves, mystical and melancholic atmosphere, highly detailed textures, cinematic lighting, soft pastel color tones, realistic art style, ultra-high resolution, 8k quality</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>这时，邻国的王子正好路过森林，看到了玻璃棺材里美丽可爱的公主，还有在旁哀悼的小矮人和小动物们。</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>王子知道事情的经过之后，含着泪水悲伤地的注视皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女说：</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Upon learning the details of the matter, the prince, with tears welling up in his eyes, gazed sorrowfully at her—her skin as white as snow, her cheeks rosy, her hair jet-black and lustrous, and she was blossoming into a beautiful young maiden. He realized that she had endured much hardship and silently vowed to protect her from any future harm.</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>prince, beautiful detailed eyes filled with tears, sorrowful gaze, delicate nose, soft and gentle lips, long eyelashes, extremely detailed face, pale skin, white as snow, rosy cheeks, jet-black lustrous hair, elegant posture, graceful dress, blooming into a young maiden, innocent expression, endured hardships, vow to protect, emotional moment, realistic texture, cinematic lighting, warm tones, high detail, 8k quality, renaissance art style, dramatic contrast, soft background, romantic atmosphere</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>王子知道事情的经过之后，含着泪水悲伤地的注视白雪公主说：</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>“可怜的公主，如果你能复活的话，该有多好呀！”</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>The young man lamented, "Poor princess, if only you could be resurrected, how wonderful it would be!"</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>young man in a dark enchanted forest, wearing medieval clothing, detailed facial features, sad expression, beautiful detailed eyes with longing gaze, sharp nose, soft lips, long eyelashes, princess floating in the background, translucent and glowing, resurrection magic aura, shimmering light particles, mystical atmosphere, intricate textures on trees, moss-covered ground, moonlight filtering through dense canopy, deep blue and purple color tones, soft lighting, cinematic quality, highly detailed, realistic style, 8k resolution</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>“可怜的公主，如果你能复活的话，该有多好呀！”</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>王子向皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女献上了花束，含情脉脉的地凝视着她说：“她的皮肤雪白，脸颊红润，好像睡着一般，根本不像死去的人。”</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>The prince, with skin as pale as snow, rosy cheeks, and lustrous black hair, presented a bouquet of flowers to the beautiful young maiden who was gradually blossoming into her full grace. He gazed at her tenderly and said, "Her skin is as white as snow, her cheeks rosy, and she looks as if she is merely sleeping, not at all like someone who has passed away."</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>prince, pale skin, rosy cheeks, lustrous black hair, bouquet of flowers, beautiful young maiden, blossoming grace, tender gaze, detailed facial features, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, elegant clothing, romantic atmosphere, soft lighting, realistic style, high detail, cinematic quality, warm color tone, white and red accents, emotional expression, timeless art, masterful composition</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>王子向白雪公主献上了花束，含情脉脉的地凝视着她说：“她的皮肤雪白，脸颊红润，好像睡着一般，根本不像死去的人。”</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>最后，王子情不自禁地俯身吻了她。 突然，皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女从口中吐出了吃进去的苹果。</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Finally, the prince couldn't help but lean down and kiss her. At that moment, a miraculous transformation occurred. The girl's skin became as white as snow, her cheeks flushed with a healthy red hue, and her hair grew long and sleek, shining with a deep black luster. Gradually, she emerged as a beautiful young maiden, and from her mouth, the piece of apple she had swallowed was expelled.</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>prince, princess, romantic moment, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, extremely detailed face, white as snow skin, healthy red cheeks, long sleek black hair, shining with luster, deep black, miraculous transformation, apple piece, expulsion, magical atmosphere, soft lighting, realistic style, high detail, cinematic quality, warm tones, enchanting scenery, fantasy theme, elegant posture, flowing hair, natural blush, glowing complexion, soft shadows, vibrant colors</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>最后，王子情不自禁地俯身吻了她。 突然，白雪公主从口中吐出了吃进去的苹果。</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>原来是王子对公主的爱，使毒苹果失去了效力，公主也逐渐恢复了体温，睁开明亮的双眼。</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>It was the prince's love for the princess that rendered the poisoned apple ineffective. As a result, the princess gradually regained her body heat, and her bright eyes slowly opened, revealing her return to life.</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>princess, prince, romantic scene, bright eyes, beautiful detailed eyes, long eyelashes, delicate nose, soft lips, glowing skin, flowing golden hair, elegant dress, royal attire, warm lighting, soft shadows, realistic style, high detail, lifelike textures, tender expression, love theme, enchanted forest background, soft green tones, golden sunlight, vibrant colors, magical atmosphere, 8k quality, photorealistic, cinematic lighting, emotional connection</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>原来是王子对公主的爱，使毒苹果失去了效力，公主也逐渐恢复了体温，睁开明亮的双眼。</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女苏醒了过来，好像是从长睡中醒来一般，她的脸颊和唇依旧是那么的红润。 “哇！ 你们看到了吧！</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Her skin was as white as snow, her cheeks were rosy, and her hair was pitch-black and smooth. She gradually awakened, growing into a beautiful maiden, as if emerging from a long slumber. Her cheeks and lips remained vividly red. The girl exclaimed with excitement, "Wow! Didn't you see that!"</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>snow-white skin, rosy cheeks, pitch-black smooth hair, beautiful detailed eyes, delicate nose, vividly red lips, long eyelashes, extremely detailed face, elegant maiden, awakening from slumber, surprised expression, excited exclamation, traditional eastern beauty, realistic portrait, soft natural lighting, high detail, cinematic quality, warm color tone, 8k resolution, photorealistic style, artistic composition</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>白雪公主苏醒了过来，好像是从长睡中醒来一般，她的脸颊和唇依旧是那么的红润。 “哇！ 你们看到了吧！</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女活过来了！ 皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女复活了！” 小矮人们都雀跃不已，兴奋地叫着。 王子更是满心欢喜地说：</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>The princess, with skin as white as snow, rosy cheeks, and hair that was jet black and smooth, gradually came back to life as a beautiful young girl. The dwarfs jumped for joy, calling out excitedly. The prince, overjoyed, exclaimed:</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>princess, skin as white as snow, rosy cheeks, jet black smooth hair, beautiful detailed eyes, delicate nose, elegant lips, long eyelashes, graceful posture, royal attire, shimmering gown, golden tiara, glowing aura, joyful dwarfs, excited prince, vibrant forest background, soft sunlight, magical atmosphere, realistic texture, cinematic lighting, rich details, fantasy art style, warm color tone, ultra high resolution, photorealistic quality</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>白雪公主活过来了！ 白雪公主复活了！” 小矮人们都雀跃不已，兴奋地叫着。 王子更是满心欢喜地说：</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>“真是太好了！ 皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女重生了，上帝真的不会让我失望啊！” 连在旁的动物们也吱吱喳喳谈论不休。</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>It was truly remarkable! The girl, who had been reborn, possessed skin as white as snow, rosy cheeks, and hair that was jet black and smooth. She was gradually growing into a beautiful young maiden, and the Lord had indeed not let her down. Even the animals nearby chimed in with their own chatter, discussing the marvel incessantly.</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>girl with snow white skin, rosy cheeks, jet black smooth hair, beautiful detailed eyes, delicate nose, elegant lips, long eyelashes, extremely detailed face, graceful posture, surrounded by curious animals, vibrant forest background, soft natural lighting, warm color tone, high detail, realistic style, cinematic quality, enchanting atmosphere, 8k resolution</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>“真是太好了！ 白雪公主重生了，上帝真的不会让我失望啊！” 连在旁的动物们也吱吱喳喳谈论不休。</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>王子向皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女说明了他的来历之后，就握着公主的双手，温柔的说：“公主，你愿意和我一起回皇宫，做我的王妃吗？”</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>The prince, with skin as white as snow, rosy cheeks, and hair that was jet black and smooth, gradually matured into a beautiful young lady. After explaining her origins, she then held the princess's hands and said gently: "Princess, would you be willing to return to the palace with me and become my queen?"</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>prince transformed into a beautiful young lady, snow white skin, rosy cheeks, jet black smooth hair, elegant and graceful posture, detailed delicate facial features, extremely detailed eyes and face, long eyelashes, beautiful detailed eyes, petite nose, beautiful detailed lips, wearing an exquisite royal gown, shimmering fabric with gold embroidery, soft natural lighting, romantic atmosphere, pastel color tones, sharp focus, high detail, cinematic style, fantasy art, 8k quality</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>王子向白雪公主说明了他的来历之后，就握着公主的双手，温柔的说：“公主，你愿意和我一起回皇宫，做我的王妃吗？”</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女羞怯地点头答应了。</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>The girl, with skin as white as snow, rosy cheeks, and hair that was jet black and smooth, gradually developed into a beautiful young maiden. She shyly nodded in agreement.</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>girl with snow white skin, rosy cheeks, jet black smooth hair, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, shy expression, youthful appearance, traditional east asian beauty, soft natural lighting, ultra detailed face, high quality, sharp focus, cinematic style, warm color tone, realistic portrait, 8k resolution</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>白雪公主羞怯地点头答应了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>小矮人和森林皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女和七个身材矮小的男性，住在森林中的小木屋里，勤劳善良的动物们，有的手舞足蹈，有的欢声歌唱，为王子和皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女歌颂庆贺。</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>The Snow-white maiden and the seven dwarfs lived in a small wooden house in the forest. Her skin was as white as snow, her cheeks were rosy, and her hair was black and smooth. She gradually grew into a beautiful young girl. The seven dwarfs were short men who were hardworking and kind-hearted. Various animals in the forest were cheerful and lively; some danced gracefully, while others sang joyfully. Together, they celebrated and praised the prince, the Snow-white maiden who had grown into a beautiful young girl with white skin, rosy cheeks, and black, smooth hair.</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>snow-white maiden, seven dwarfs, small wooden house, forest background, beautiful detailed eyes, delicate nose, elegant lips, long eyelashes, white skin, rosy cheeks, black smooth hair, short hardworking dwarfs, kind-hearted expressions, cheerful forest animals, graceful dancing animals, joyful singing birds, vibrant forest atmosphere, fairy tale style, soft lighting, warm color tones, high detail, cinematic quality, magical realism, enchanting scenery, harmonious composition</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>小矮人和森林白雪公主和七个小矮人的动物们，有的手舞足蹈，有的欢声歌唱，为王子和白雪公主歌颂庆贺。</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>“祝愿王子和公主，永远幸福快乐！”</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>The crowd joyfully cheered, expressing their heartfelt wishes that the prince and princess would remain happy and content forever.</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>prince, princess, royal couple, beautiful detailed eyes, elegant noses, delicate lips, long eyelashes, radiant smiles, luxurious clothing, golden crowns, intricate dresses, rich fabrics, silk textures, velvet robes, joyous crowd, cheering people, waving hands, heartfelt wishes, happiness, contentment, grand castle background, ornate architecture, colorful flags, bright lighting, warm color tones, detailed faces, realistic style, high-quality image, sharp focus, dynamic composition, fantasy art, majestic atmosphere</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>“祝愿王子和公主，永远幸福快乐！”</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>王子带着皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女，骑着白马向小矮人和森林里的动物们告别，他们一直回头向小矮人们挥手说再见：</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>The princess, with skin as white as snow, rosy cheeks, and lustrous black hair, gradually grew into a beautiful young lady. She rode a white horse and bid farewell to the dwarfs and the animals in the forest who had been her companions. As she departed, she continuously turned back to wave goodbye to the dwarfs with a heartfelt expression.</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>princess, white skin, rosy cheeks, lustrous black hair, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, elegant dress, white horse, waving hand, heartfelt expression, forest background, dwarfs, animals, farewell scene, sunlight filtering through trees, soft lighting, warm color tone, realistic style, high detail, 8k quality</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>王子带着白雪公主，骑着白马向小矮人和森林里的动物们告别，他们一直回头向小矮人们挥手说再见：</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>“小矮人们，感谢你们对我的照顾，我会永远记得你们的。” “祝你们幸福，再见！”</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>The little dwarf said to the person who had taken care of him, "Thank you all for your care for me, I will always remember each and every one of you." The person replied with deep emotion, "Wish you all happiness, and may good fortune forever accompany you. Farewell!"</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>little dwarf, human character interaction, beautiful detailed eyes, kind smile, heartfelt expression, long eyelashes, delicate nose, warm lips, emotional farewell scene, lush forest background, soft sunlight lighting, golden hour atmosphere, gratitude theme, touching moment, realistic style, high detail, 8k quality, cinematic composition, natural color tones, rich textures, moss-covered stones, vibrant greenery, subtle bokeh effect, timeless art style</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>“小矮人们，感谢你们对我的照顾，我会永远记得你们的。” “祝你们幸福，再见！”</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>他们离开森林，回到邻国之后，马上受到全国人民的欢迎。 在人民的心目中，他们真是天生一对。</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>After they left the forest and returned to their neighboring country, they were immediately welcomed by all the people. In the hearts of the citizens, the prince and princess were truly a perfect match destined by heaven.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>prince, princess, grand welcoming ceremony, cheering crowd, detailed medieval clothing, golden crowns, beautiful detailed eyes, delicate noses, elegant lips, long eyelashes, red carpet, colorful banners, vibrant flowers, sunny day, cobblestone streets, detailed architecture, realistic texture, sharp focus, cinematic style, warm color tone, natural lighting, ultra-detailed facial features, harmonious composition, romantic atmosphere, high-quality artwork, 8k resolution</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>他们离开森林，回到邻国之后，马上受到全国人民的欢迎。 在人民的心目中，他们真是天生一对。</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>坏心的一位已故的女性，生前美丽且善良自从毒害了皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女之后，就以为皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女必死无疑，所以非常高兴。</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>A deceased woman, who was evil-hearted but had been beautiful and kind during her lifetime, rejoiced greatly after successfully poisoning a young girl. This young girl, with skin as white as snow, rosy cheeks, and black, lustrous hair, had gradually blossomed into a beautiful maiden. The evil woman believed that such a maiden, possessing features as pristine as snow, cheeks as red as roses, and hair as black as ebony, was undoubtedly destined to die.</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>deceased woman, evil-hearted, beautiful and kind in life, rejoicing after poisoning, young girl with snow-white skin, rosy cheeks, black lustrous hair, blooming into a beautiful maiden, pristine features, cheeks red as roses, hair black as ebony, destined to die, dark atmosphere, detailed face, sharp eyes, cruel smile, long eyelashes, elegant nose, stunning yet sinister beauty, gothic style, dramatic lighting, deep shadows, rich textures, cinematic quality, dark romanticism, 8k ultra-detailed, realistic art, moody color tones, cold blues and purples, subtle red accents</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>坏心的王后自从毒害了白雪公主之后，就以为白雪公主必死无疑，所以非常高兴。</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>有一天，她满怀自信地的问魔镜： “魔镜、魔镜，现在世界上最美丽的人应该是我了吧！” 魔镜回答说：</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>One day, she asked the magic mirror with full confidence, "Magic mirror on the wall, who is the most beautiful person in the world right now? Shouldn't it be me?" The magic mirror replied, "The most beautiful person in the world right now is not you but Snow White. Although you are dressed gorgeously and look stunning, your heart is filled with jealousy and evil, which makes you less beautiful inside and out."</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>beautiful queen in a grand hall, standing before a magical mirror, detailed crown on her head, elegant long dress with intricate patterns, beautiful detailed eyes with long eyelashes, perfectly shaped nose, confident yet slightly angry expression, beautiful detailed lips with a hint of arrogance, dark shadows reflecting jealousy and evil in her eyes, luxurious golden decorations in the background, ornate marble floor, soft glowing light from the magic mirror, dramatic contrast between light and shadow, highly detailed textures, cinematic quality, dark romantic style, deep red and gold color tones, strong lighting creating dramatic atmosphere, realistic painting style, 8k resolution, ultra-detailed artwork</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>有一天，她满怀自信地的问魔镜： “魔镜、魔镜，现在世界上最美丽的人应该是我了吧！” 魔镜回答说：</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>“除了皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女以外，你是最美丽的人，但是，在邻国生活的皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女比你漂亮千万倍。”</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>The king told Snow White, "Apart from you gradually growing into a beautiful young girl with skin as white as snow, rosy cheeks, and hair that is jet black and smooth, you are the most beautiful person I know. However, there is a girl in the neighboring country who also has skin as white as snow, rosy cheeks, and jet black, smooth hair, and she is millions of times more beautiful than you."</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>snow white, the king, medieval castle garden, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, extremely detailed face, pale skin like snow, rosy cheeks, jet black smooth hair, elegant royal attire, golden crown, rich velvet fabric, intricate embroidery, soft natural lighting, romantic atmosphere, fairy tale style, timeless art, hyper-realistic painting, 8k resolution, cinematic composition, warm color tones, soft shadows, lush greenery background, detailed flora, enchanting ambiance</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>“除了白雪公主以外，你是最美丽的人，但是，在邻国生活的白雪公主比你漂亮千万倍。”</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>一位已故的女性，生前美丽且善良听了觉得很奇怪，她想皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女不是被她害死了吗？ 可是又想到皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女运气一向很好，</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>A deceased woman, who had been beautiful and kind-hearted during her lifetime, found it strange when she heard this. She wondered how the girl with skin as white as snow, rosy cheeks, and lustrous black hair could have grown into a beautiful young maiden when she herself had not caused her death. Yet, upon further reflection, she realized that the girl with skin as white as snow, rosy cheeks, and lustrous black hair had always been blessed with good fortune.</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>a deceased woman with a kind-hearted soul, translucent pale skin, soft rosy cheeks, flowing lustrous black hair, delicate elegant features, beautiful detailed eyes filled with curiosity, perfectly shaped nose, graceful lips with a gentle expression, wearing traditional ancient attire, surrounded by ethereal glowing light, set in an otherworldly mystical forest at twilight, intricate textures on leaves and bark, highly detailed facial structure, long eyelashes framing her eyes, vibrant yet serene atmosphere, warm golden lighting blending with cool blue tones, cinematic composition, ultra-detailed realism mixed with fantasy elements, 8k resolution, sharp focus, rich deep shadows contrasted with radiant highlights</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>王后听了觉得很奇怪，她想白雪公主不是被她害死了吗？ 可是又想到白雪公主运气一向很好，</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>“简直是气死人了，我就不相信不能杀掉皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女！”</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>It was utterly infuriating. He could not believe that he would fail to kill the girl with skin as white as snow, rosy cheeks, and lustrous black hair, who was blossoming into a beautiful young woman.</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>beautiful detailed eyes, long eyelashes, delicate nose, elegant lips, pale white skin, rosy cheeks, lustrous black hair, youthful beauty, flowing dress, soft textures, intricate details, dark forest atmosphere, mysterious lighting, cinematic composition, high-quality artwork, realistic style, rich colors, dramatic contrast, deep shadows, glowing highlights, 8k resolution, photorealistic rendering, gothic romanticism, dark fantasy elements, enchanting ambiance</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>“简直是气死人了，我就不相信不能杀掉白雪公主！”</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>一位已故的女性，生前美丽且善良原本就是个女巫，于是她骑着魔扫帚，带着魔剑，飞往邻国，准备去除掉她的眼中钉。</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>A deceased woman, who was beautiful and kind during her lifetime, was originally a witch. She mounted her magical broomstick, wielding a enchanted sword, and flew to a neighboring country with the determination to eliminate her sworn rival.</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>deceased woman, once beautiful and kind witch, detailed pale face, soft facial features, enchanting eyes with a determined gaze, delicate nose, serene lips, long flowing hair, magical broomstick, enchanted sword, dark yet elegant witch attire, intricate patterns on clothing, floating cape, moonlit sky, mystical aura, swirling fog, realistic texture, cinematic quality, gothic fantasy style, deep blue and purple color tones, dramatic lighting, high detail, photorealistic</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>王后原本就是个女巫，于是她骑着魔扫帚，带着魔剑，飞往邻国，准备去除掉她的眼中钉。</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>当她飞到邻国的上空时，突然一道闪电朝坏一位已故的女性，生前美丽且善良打来。 “劈！叭！” 一阵响声把女巫一位已故的女性，生前美丽且善良从扫帚上打下来。</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>As she flew over the neighboring country, a sudden bolt of lightning struck a deceased woman who had been beautiful and kind-hearted during her lifetime. With a loud "Crack! Boom!", the sound caused the witch to fall from her broomstick.</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>deceased woman, beautiful and kind-hearted, struck by lightning, falling from broomstick, witch in mid-air, detailed facial features, soft nose, elegant lips, striking eyes, long eyelashes, flowing hair, dramatic sky, stormy weather, dark clouds, lightning bolts, gothic style, mysterious atmosphere, deep shadows, realistic lighting, cinematic composition, high detail, dynamic pose, haunting beauty, rich textures, atmospheric tones, vibrant yet somber colors</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>当她飞到邻国的上空时，突然一道闪电朝坏王后打来。 “劈！叭！” 一阵响声把女巫王后从扫帚上打下来。</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>女巫一位已故的女性，生前美丽且善良终于受到上帝的处罚，结束了作恶多端的生命。</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>A witch, who was once a beautiful and kind woman in her lifetime but later turned to malevolence, was eventually punished by God, thus bringing an end to her life of committing countless evils.</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>witch with dark mysterious aura, beautiful detailed eyes with a hint of sorrow, sharp nose with a curved line, full and beautiful detailed lips, long eyelashes, pale skin with subtle cracks indicating divine punishment, flowing black hair with strands turning to ash, tattered elegant dress with dark Gothic patterns, standing in a desolate battlefield under a blood-red sky, surrounded by shattered remains of her magical artifacts, detailed facial features showing a mix of beauty and malevolence, intricate textures on cracked skin symbolizing divine retribution, dramatic lighting with dark shadows contrasting against faint red highlights, deep moody colors with shades of crimson and dark gray, highly detailed realistic style with elements of dark fantasy art, cinematic quality with sharp focus on the witch's face, rich atmospheric background enhancing the tragic story, high definition details throughout the image, dark romantic artistic tone, supernatural and haunting ambiance</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>女巫王后终于受到上帝的处罚，结束了作恶多端的生命。</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>此时，王子的国家却举国欢腾，因为美丽的皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女答应了王子的求婚，正在举行盛大的婚礼。</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>At that moment, the prince's entire nation was celebrating with great joy. The reason was that a beautiful young lady, whose skin was as white as snow, cheeks rosy, and hair black and smooth, had gradually blossomed into a stunning maiden. She had accepted the prince's proposal, and they were now hosting a grand wedding ceremony.</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>prince, princess, royal wedding ceremony, grand celebration, beautiful young lady, white skin, rosy cheeks, black smooth hair, stunning maiden, elegant gown, golden crown, detailed eyes, delicate nose, beautiful lips, long eyelashes, extremely detailed face, luxurious palace, festive atmosphere, vibrant crowd, sparkling lights, rich textures, intricate patterns, soft lighting, warm color tone, romantic artistic style, high-quality image, sharp focus, realistic details</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>此时，王子的国家却举国欢腾，因为美丽的白雪公主答应了王子的求婚，正在举行盛大的婚礼。</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>小矮人和森林的动物们也被邀请来参加婚礼，在全国人民的祝福声中，王子和皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女将永远快乐的生活在一起。</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>The dwarfs and the animals in the forest were also invited to the wedding. Amidst the blessings of all the people in the nation, the prince and the girl with skin as white as snow, rosy cheeks, and smooth black hair, who had gradually grown into a beautiful young woman, would live together happily forever.</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>dwarfs, animals, forest wedding, prince, beautiful young woman, white skin, rosy cheeks, smooth black hair, detailed eyes, delicate nose, elegant lips, long eyelashes, lush trees, golden sunlight, fairy tale atmosphere, enchanted forest, joyful celebration, intricate dresses, royal attire, soft lighting, warm color tones, realistic style, high detail, cinematic quality, magical ambiance, happiness, love, blessings, vibrant nature, flowers, butterflies, natural beauty, harmonious composition</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>小矮人和森林的动物们也被邀请来参加婚礼，在全国人民的祝福声中，王子和白雪公主将永远快乐的生活在一起。</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/txt/txt.xlsx
+++ b/txt/txt.xlsx
@@ -424,17 +424,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>在遥远的一个国度里，住着一个一个中年男性，拥有王室身份和一位已故的女性，生前美丽且善良，他们渴望有一个孩子。 于是很诚意的向上苍祈祷。 “上帝啊！</t>
+          <t>在遥远的一个国度里，住着一个国王(一个中年男子，拥有至高无上的权力)和王后(一位美丽而善良的女子，身体虚弱)，他们渴望有一个孩子。 于是很诚意的向上苍祈祷。 “上帝啊！</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>In a distant kingdom, there lived a middle-aged man of royal lineage and his late wife, who had been renowned for her beauty and kindness. Together, they had longed for a child to bring joy and fulfillment to their lives. Consequently, the man earnestly offered heartfelt prayers to the heavens. "O God!" he beseeched with deep sincerity, his voice carrying the weight of his unfulfilled desires and hopes for divine intervention.</t>
+          <t>In a faraway kingdom, there lived a king, a middle-aged man who wielded absolute power, and a queen, a beautiful and kind woman of fragile health. Deeply yearning for a child, they earnestly prayed to the heavens with sincere hearts. The king supplicated, "O Lord!" while clasping his hands in devout hope.</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>middle-aged man in royal attire, solemn expression, detailed eyes showing deep sincerity, strong nose, gentle lips, long shadow under soft lighting, ancient temple background, intricate stone carvings, golden rays of sunlight breaking through clouds, rich velvet cloak with embroidered edges, ornate crown resting on a nearby altar, incense smoke swirling in the air, warm earthy tones, dramatic contrast, realistic painting style, high detail, cinematic composition, emotional atmosphere, 8k quality</t>
+          <t>king in royal attire, majestic presence, middle-aged man with stern expression, detailed eyes showing determination, strong nose, firm lips, golden crown, elaborate robe with intricate embroidery, clasped hands in prayer, queen standing beside him in delicate gown, pale complexion, fragile yet graceful posture, soft beautiful eyes filled with longing, elegant nose, tender lips, long flowing hair, dimly lit throne room, ornate architecture, stained glass windows casting soft multicolored light, rich textures on fabric and stone, dramatic lighting highlighting the figures, gothic style with renaissance elements, deep emotional atmosphere, highly detailed realistic painting, cinematic composition, warm tones mixed with cool hues from the light, 8k ultra high definition quality</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -446,17 +446,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>我们都是好一个中年男性，拥有王室身份好一位已故的女性，生前美丽且善良，请您赐给我们一个孩子吧！”</t>
+          <t>我们都是好国王(一个中年男子，拥有至高无上的权力)好王后(一位美丽而善良的女子，身体虚弱)，请您赐给我们一个孩子吧！”</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A middle-aged man, who was of royal descent, along with a deceased woman, who had been beautiful and kind during her lifetime, earnestly pleaded to the divine being for granting them a child.</t>
+          <t>The subjects, a middle-aged man with supreme power known as the benevolent king and a beautiful yet frail woman referred to as the kind queen, pleaded together: "Your Majesties, please bestow upon us a child!"</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>middle-aged man, royal descent, dignified posture, elegant attire, deceased woman, beautiful and kind, translucent glowing figure, earnest expression, pleading gesture, divine being, celestial light, ethereal background, detailed eyes, sharp nose, defined lips, long eyelashes, intricate clothing details, rich textures, golden tones, soft lighting, emotional atmosphere, high-quality artwork, realistic style, renaissance influence, warm color palette</t>
+          <t>benevolent king, middle-aged man with supreme power, detailed beard, wise eyes, strong nose, kind smile, elegant crown, golden armor, royal robes, kind queen, beautiful yet frail woman, delicate facial features, soft eyes, small nose, tender lips, long flowing hair, white gown, intricate embroidery, royal throne room, grand architecture, marble floor, tall windows with sunlight streaming in, ornate chandeliers, rich tapestries, magical aura, glowing symbols of fertility, ethereal light surrounding the couple, fantasy realism style, highly detailed, cinematic lighting, warm color tones, 8k quality</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -468,17 +468,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>不久以后，一位已故的女性，生前美丽且善良果然生下了一个可爱的小公主，这个女孩的皮肤白得像雪一般，双颊红得有如苹果，头发乌黑柔顺，因此，一个中年男性，拥有王室身份和一位已故的女性，生前美丽且善良就把她取名为“皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女”。</t>
+          <t>不久以后，王后(一位美丽而善良的女子，身体虚弱)果然生下了一个可爱的小公主，这个女孩的皮肤白得像雪一般，双颊红得有如苹果，头发乌黑柔顺，因此，国王(一个中年男子，拥有至高无上的权力)和王后(一位美丽而善良的女子，身体虚弱)就把她取名为“白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)”。</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Not long after, a deceased woman, who was beautiful and kind during her lifetime, miraculously gave birth to a lovely little princess. The girl had skin as white as snow, cheeks as red as apples, and hair that was jet-black and smooth. Consequently, a middle-aged man of royal lineage, who was married to the late beautiful and kind woman, decided to name her "Snow-white skin, Rosy cheeks, Jet-black hair," as she grew into a stunning young maiden.</t>
+          <t>Not long after, the queen, a beautiful and kind-hearted woman though frail in health, gave birth to a lovely little princess. The infant's skin was as white as snow, her cheeks as red as apples, and her hair smooth and pitch-black. Consequently, the king, a middle-aged man wielding supreme authority, and the queen decided to name their daughter "Snow White." As Snow White grew, she developed into a pure and benevolent young lady with unparalleled beauty.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>snow-white skin, rosy cheeks, jet-black hair, a beautiful young maiden, detailed eyes with long eyelashes, delicate nose, stunning lips, graceful posture, elegant royal gown, flowing black hair, soft natural lighting, warm color tones, intricate textures, high detail, realistic style, soft focus, background of a royal castle garden, blooming flowers, serene atmosphere, timeless beauty, classic portrait, rich colors, smooth skin, vibrant red apples in the background, gentle smile, regal aura, masterful composition</t>
+          <t>snow white, beautiful princess, pale skin like snow, rosy apple cheeks, pitch-black hair, delicate facial features, beautiful detailed eyes, long eyelashes, elegant nose, beautiful detailed lips, kind-hearted expression, frail yet graceful posture, royal attire, intricate golden crown, flowing gown with lace and embroidery, soft lighting, warm color tone, fairy tale style, magical atmosphere, high detail, sharp focus, realistic painting, cinematic composition, rich textures, fantasy world background, lush greenery, soft bokeh effect</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -490,17 +490,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>全国的人民都为皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女深深祝福。</t>
+          <t>全国的人民都为白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)深深祝福。</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>People across the nation earnestly blessed her, hoping that she, with her snow-white skin, rosy cheeks, and raven-black hair that flowed smoothly, would gradually grow into a beautiful young maiden.</t>
+          <t>The people across the country all sent their heartfelt blessings to the young princess, whose skin was as white as snow, cheeks as red as apples, and hair jet black and smooth, gradually blossoming into a beautiful maiden, pure and kind-hearted.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>snow-white skin, rosy cheeks, raven-black hair, smooth flowing hair, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, extremely detailed face, traditional attire, elegant posture, soft lighting, warm color tone, realistic style, high detail, 8k quality, national blessing, hopeful atmosphere, intricate background patterns, harmonious composition</t>
+          <t>young princess with snow-white skin, apple-red cheeks, jet-black smooth hair, pure and kind-hearted expression, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, elegant royal attire, intricate golden crown, soft glowing light around her, lush green garden background, blooming flowers surrounding her, vibrant colors, realistic texture, cinematic quality, romantic artistic style, warm color tone, soft natural lighting, high detail, stunning visual composition</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -512,17 +512,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女在一个中年男性，拥有王室身份皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女和一位已故的女性，生前美丽且善良的宠爱之下，逐渐长大了，终于成了一个人见人爱的美少女。</t>
+          <t>白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)在国王(一个中年男子，拥有至高无上的权力)白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)和王后(一位美丽而善良的女子，身体虚弱)的宠爱之下，逐渐长大了，终于成了一个人见人爱的美少女。</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Her skin was as white as snow, her cheeks rosy, and her hair jet black and smooth. Under the care of a middle-aged man of royal lineage and a deceased woman who had been both beautiful and kind during her lifetime, she gradually grew into a lovely young maiden. As time passed, she blossomed into a charming beauty admired by all who met her.</t>
+          <t>The princess, whose skin was as white as snow, cheeks as red as apples, and hair smooth and black, grew up under the loving care of the king, a middle-aged man with supreme power, and the queen, a beautiful and kind woman with fragile health. As she matured into a pure and善良 teenage girl, everyone who met her couldn't help but be enchanted by her beauty and grace.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>snow-white skin, rosy cheeks, jet-black smooth hair, beautiful detailed eyes, delicate nose, elegant lips, long eyelashes, enchanting smile, charming beauty, youthful maiden, royal lineage, caring middle-aged man, deceased kind mother, lush green garden, soft sunlight, Victorian dress, intricate lace, pearl necklace, gentle breeze, romantic atmosphere, high detail, realistic style, warm color tone, natural lighting, cinematic quality, 8k resolution</t>
+          <t>princess, pure teenage girl, beautiful detailed eyes, long eyelashes, delicate nose, graceful lips, skin white as snow, cheeks red as apples, smooth black hair, elegant gown, golden embroidery, royal crown, surrounded by flowers, loving king father, middle-aged man with supreme power, kind queen mother, fragile health, enchanting beauty, graceful posture, soft lighting, warm color tone, detailed realistic style, high-quality art, 8k resolution</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -534,17 +534,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女非常善良、有爱心、她经常和动物一起玩耍。</t>
+          <t>白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)非常善良、有爱心、她经常和动物一起玩耍。</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The girl had skin as white as snow, with rosy cheeks and hair that was black and smooth. She gradually grew into a beautiful young maiden who was extremely kind and compassionate. She often played with animals.</t>
+          <t>The young Snow White, whose skin was as white as snow, cheeks as red as apples, and hair as black and smooth as silk, gradually blossomed into a beautiful adolescent, embodying purity and kindness. She was exceptionally benevolent and compassionate, often engaging in playful activities with the animals around her, forming a deep bond with them.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>girl with snow white skin, rosy cheeks, black smooth hair, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, extremely kind and compassionate expression, wearing a soft pastel dress, surrounded by playful animals, rabbits, deer, birds, in a lush green forest, sunlight filtering through the trees, natural lighting, detailed textures, high quality, realistic style, warm color tone, vibrant yet serene atmosphere</t>
+          <t>young snow white, pure and kind-hearted, with skin as white as snow, cheeks as red as ripe apples, hair as black and smooth as silk, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, exceptionally benevolent expression, wearing a traditional german renaissance dress, surrounded by playful forest animals, birds perched on her shoulders, rabbits and deer gathered around her, lush green forest background, soft sunlight filtering through the trees, vibrant flowers blooming at her feet, high detail, realistic texture, cinematic lighting, warm color tone, 8k quality, artstation, concept art, detailed illustration</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -556,17 +556,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>森林的动物，像小鹿、小兔子、松鼠、小鸟都喜欢皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女，因为皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女会给它们吃食物，还会讲故事给它们听。</t>
+          <t>森林的动物，像小鹿、小兔子、松鼠、小鸟都喜欢白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)，因为白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)会给它们吃食物，还会讲故事给它们听。</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>The animals in the forest, such as the fawns, rabbits, squirrels, and birds, all adored a young girl who had skin as white as snow, rosy cheeks, and hair that was jet black and smooth. As she gradually blossomed into a beautiful young woman, these animals were drawn to her kindness. She not only provided them with food but also entertained them by telling enchanting stories.</t>
+          <t>The animals in the forest, such as the little deer, rabbits, squirrels, and birds, all adored Snow White, a girl whose skin was as white as snow, cheeks as red as apples, and hair as black and smooth as silk, gradually blossoming into a beautiful young maiden known for her purity and kindness. She would often feed them and entertain them by telling delightful stories.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>young girl in a forest, surrounded by animals like fawns, rabbits, squirrels, and birds, beautiful detailed eyes with a gentle expression, delicate nose, soft and inviting lips, long eyelashes, snow-white skin, rosy cheeks, jet black smooth hair flowing down her back, wearing a simple yet elegant dress made of natural fabrics, intricate textures on her clothing resembling leaves and flowers, magical fairy tale atmosphere, lush green forest with sunlight filtering through the trees, vibrant wildflowers scattered around her feet, enchanting stories floating in the air as visible whispers, high detail, realistic style with a touch of fantasy, warm color tones with hints of gold and silver, soft natural lighting creating a dreamy ambiance, 8k quality, photorealistic, mystical yet approachable presence</t>
+          <t>snow white, in a lush forest filled with sunlight streaming through the trees, surrounded by adoring animals including deer, rabbits, squirrels, and birds, beautiful detailed eyes, delicate nose, charming lips, long eyelashes, skin as white as snow, cheeks as red as apples, hair as black and smooth as silk, wearing a traditional renaissance-style dress with blue and yellow tones, holding food to feed the animals, exuding purity and kindness, soft natural lighting, rich greenery and foliage, detailed textures of bark and leaves, magical fairy tale atmosphere, vibrant yet serene color palette, highly detailed realistic art style, 8k quality</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -578,17 +578,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>个性善良犹如天使般的皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女，过着幸福快乐的生活。 可是，好景不长，皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女的母亲生病去世了。</t>
+          <t>个性善良犹如天使般的白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)，过着幸福快乐的生活。 可是，好景不长，白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)的母亲生病去世了。</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A girl with a kind personality, skin as white as snow, rosy cheeks, and jet-black, smooth hair gradually grew into a beautiful young maiden and lived a happy and joyful life. However, not long after, her mother, who also had skin as white as snow, rosy cheeks, and jet-black, smooth hair, fell ill and passed away as the girl was growing into a beautiful young maiden.</t>
+          <t>The young princess, whose personality was as kind as an angel, lived a happy and joyful life. She had skin as white as snow, cheeks as red as apples, and hair that was jet black and smooth. As she gradually grew into a beautiful young maiden, her purity and kindness were evident to all. However, the peaceful and joyful days did not last long. The princess's mother, who was also a kind and gentle queen, fell seriously ill and eventually passed away.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>girl with kind personality, snow-white skin, rosy cheeks, jet-black smooth hair, beautiful detailed eyes, delicate nose, elegant lips, long eyelashes, gentle expression, youthful beauty, soft natural lighting, warm color tone, realistic style, high detail, 8k quality, serene background, traditional clothing, emotional atmosphere, motherly love, nostalgic vibe, delicate textures</t>
+          <t>young princess with pale white skin, rosy apple cheeks, jet black smooth hair, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, elegant royal dress, golden embroidery, soft silk texture, angelic aura, kind and gentle expression, surrounded by a serene garden, vibrant flowers, soft natural lighting, warm pastel color tones, highly detailed realistic art style, cinematic quality, sharp focus on the face, flowing hair in gentle breeze, pearl jewelry, delicate crown, peaceful atmosphere, lush greenery background, subtle bokeh effect, 8k resolution</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -600,17 +600,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>一个中年男性，拥有王室身份为了皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女就迎娶了一位新一位已故的女性，生前美丽且善良，可是，这位新一位已故的女性，生前美丽且善良却是个精通法术的女巫。</t>
+          <t>国王(一个中年男子，拥有至高无上的权力)为了白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)就迎娶了一位新王后(精通法术的女巫，外表美丽，但个性骄傲、暴躁)(一位美丽而善良的女子，身体虚弱)，可是，这位新王后(精通法术的女巫，外表美丽，但个性骄傲、暴躁)(一位美丽而善良的女子，身体虚弱)却是个精通法术的女巫。</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A middle-aged man of royal lineage, who possessed porcelain-white skin, rosy cheeks, and lustrous black hair, gradually transformed into a beautiful young maiden. He then married a deceased woman who, during her lifetime, was known for her beauty and kindness. However, this recently deceased woman, though equally beautiful and benevolent in life, was in fact a witch highly skilled in sorcery.</t>
+          <t>The king, a middle-aged man wielding absolute power, married a new queen to ensure a brighter future for Princess Snow White. Snow White was a young girl growing into a beautiful maiden, her skin as white as snow, cheeks as red as apples, and hair as black and smooth as silk, embodying purity and kindness. The new queen, although appearing as a beautiful and frail woman on the surface, was in reality a skilled witch who possessed magical powers. She was known for her proud and irritable nature, which often influenced her actions and decisions within the kingdom.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>middle-aged man with royal lineage, porcelain-white skin, rosy cheeks, lustrous black hair, transforming into a beautiful young maiden, delicate facial features, elegant nose, soft lips, long eyelashes, extremely detailed eyes and face, magical aura surrounding the scene, ethereal atmosphere, mysterious forest setting, moonlight illuminating the surroundings, intricate medieval clothing, flowing silk fabric, rich embroidery, golden accessories, deceased woman appearing as a ghostly bride, translucent pale skin, kind yet enigmatic expression, wearing an ornate gown, lace details, floral crown, witchcraft elements subtly integrated, swirling mist, glowing runes, romantic and haunting color tone, soft pastel hues, subtle blue and purple accents, cinematic lighting, high detail, photorealistic style, 8k quality</t>
+          <t>kingly figure, middle-aged man, strong jawline, authoritative gaze, detailed eyes with wisdom, regal attire, golden crown, royal throne room, new queen standing beside him, beautiful yet frail appearance, elegant gown, intricate hairstyle, subtle hints of magical aura, proud posture, irritable expression, young princess Snow White, purity embodied, skin white as snow, cheeks red as apples, hair black and smooth as silk, delicate features, innocent smile, soft lighting, rich textures, gothic architecture, dark wooden floors, velvet curtains, dramatic shadows, realistic style, cinematic quality, deep color tones, warm golden hues mixed with cool blues, detailed backgrounds, fantasy elements, mystical atmosphere</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -627,12 +627,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Although she was very beautiful, her personality was arrogant and irritable. In particular, she hated nothing more than others being more beautiful than her. The king introduced, "This is your new mother!"</t>
+          <t>Although she was very beautiful, her personality was arrogant and irritable. In particular, she hated it the most when others were more beautiful than her. "This is your new mother!" the king proclaimed to his children.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>arrogant princess, detailed facial features, sharp nose, cold lips, piercing eyes with a hint of disdain, long elegant eyelashes, luxurious royal attire, golden tiara, rich silk dress with intricate embroidery, standing in a grand palace hall, marble floor reflecting soft light, dramatic shadows emphasizing her irritable mood, dark moody background, deep red and gold color tones, baroque artistic style, highly detailed textures, cinematic lighting focusing on her face, ultra-realistic quality, 8k resolution, dramatic and intense atmosphere</t>
+          <t>arrogant queen, detailed facial features, beautiful detailed eyes with sharp gaze, high cheekbones, beautiful detailed lips with a slight sneer, perfectly groomed eyebrows, long eyelashes, elaborate royal gown, golden crown, rich fabrics, luxurious textures, dark and moody atmosphere, dramatic lighting, deep shadows, regal pose, elegant yet intimidating presence, dark red and gold color tones, realistic style, highly detailed, cinematic quality, 8k resolution, photorealistic, studio lighting, masterful composition, striking contrast</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -644,17 +644,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>当一个中年男性，拥有王室身份向皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女介绍新一位已故的女性，生前美丽且善良时，她还正为死去的母后感到悲伤呢。</t>
+          <t>当国王(一个中年男子，拥有至高无上的权力)向白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)介绍新王后(精通法术的女巫，外表美丽，但个性骄傲、暴躁)(一位美丽而善良的女子，身体虚弱)时，她还正为死去的母后感到悲伤呢。</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A middle-aged man of royal descent was introducing a young, deceased woman, who had been beautiful and kind in life, to a beautiful girl. The girl, with skin as white as snow, rosy cheeks, and black, flowing hair, was still grieving for her late mother, the queen.</t>
+          <t>The king, a middle-aged man wielding absolute power, introduced the new queen to Snow White. Snow White was a young girl growing into a beautiful maiden, with skin as white as snow, cheeks as red as apples, and hair as black and smooth as silk; she was pure and kind-hearted. The new queen, a witch skilled in sorcery, possessed great beauty but was proud and irascible. At that moment, Snow White was still grieving for her deceased mother, the former queen, who had been a beautiful and kind woman though frail in health.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>middle-aged man with regal presence, elegant posture, wearing luxurious robes adorned with gold embroidery, beautiful detailed eyes expressing solemnity, strong nose with aristocratic bridge, compassionate lips curved in a gentle smile, young woman with snow-white skin, rosy cheeks contrasting her pale complexion, long flowing black hair cascading down her back, delicate features with tear-filled eyes showing grief, small nose with graceful curve, soft lips trembling slightly, deceased woman portrayed as ethereal presence glowing faintly behind them, radiant beauty marked by kindness, royal hall filled with grandeur and sorrowful atmosphere, intricate marble floors reflecting dim candlelight, ornate chandeliers casting warm golden glow, rich velvet curtains draped over large windows allowing soft moonlight to filter through, highly detailed textures on fabrics and furnishings, cinematic lighting emphasizing emotional depth, dark moody tones blending into soft pastels, baroque art style with dramatic flair, photorealistic quality with sharp focus on characters' facial expressions, ultra-detailed rendering of clothing and surroundings, 8k resolution, dynamic composition drawing attention to interaction between characters</t>
+          <t>king in luxurious royal attire, majestic presence, middle-aged man with authoritative gaze, detailed facial features, strong nose, sharp eyes, well-defined lips, golden crown, red velvet robe, elaborate embroidery, intricate patterns, standing beside a young girl, Snow White with porcelain skin, rosy apple cheeks, lustrous black hair flowing down her back, pure and innocent expression, delicate eyes, soft lips, wearing a simple yet elegant dress, subtle grief in her posture, new queen standing nearby, stunning beauty with sharp features, high cheekbones, captivating eyes, full lips, dressed in an ornate gown with dark colors, exuding pride and arrogance, witch-like aura with hidden sorcery elements, magical symbols subtly glowing around her hands, grand hall with marble floors, tall stained glass windows casting colorful light, dimly lit chandeliers, dramatic shadows, gothic architectural style, rich textures, deep color tones, dark reds and blues dominating the scene, contrasted by Snow White's pale glow, baroque art style, highly detailed, cinematic lighting, 8k quality, photorealistic finish</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -666,17 +666,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>新一位已故的女性，生前美丽且善良有一面很奇特的镜子，从镜子里可以得到一切你想知道的答案。</t>
+          <t>新王后(精通法术的女巫，外表美丽，但个性骄傲、暴躁)(一位美丽而善良的女子，身体虚弱)有一面很奇特的镜子，从镜子里可以得到一切你想知道的答案。</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>A newly deceased woman, who was beautiful and kind during her lifetime, possessed a very peculiar mirror. This mirror could reveal every answer one desired to know.</t>
+          <t>The new queen, a witch skilled in sorcery with a beautiful appearance but a proud and irritable personality, possessed a most peculiar mirror that could provide any answers one desired to know. She, a beautiful and kind-hearted woman yet frail in health, often sought the mirror for its magical insights.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>a beautiful deceased woman, wearing an elegant white gown, standing in a mystical foggy forest, holding a peculiar antique mirror, detailed delicate facial features, soft kind eyes, perfectly shaped nose, gentle lips with a serene expression, long flowing hair, surrounded by glowing fireflies, ethereal atmosphere, intricate mirror design with ancient carvings, realistic texture, highly detailed, 8k quality, cinematic lighting, soft pastel color tones, dreamlike artistic style, romantic fantasy theme, mysterious ambiance, reflective surface of the mirror showing faint visions</t>
+          <t>witch queen, proud and irritable expression, beautiful detailed eyes with a hint of mysticism, long eyelashes, elegant nose, delicate and beautiful lips, pale skin, frail health appearance, wearing an intricate dark gown with gold embroidery, standing in a dimly lit throne room, peculiar magical mirror floating beside her, mirror reflecting mysterious swirling patterns, gothic architecture in the background, rich textures on the walls and floor, dark yet enchanting atmosphere, deep purple and black color tones, soft lighting casting dramatic shadows, highly detailed fantasy art style, cinematic quality, 8k resolution, sharp focus on the queen's face, realistic yet slightly surreal, atmospheric and captivating scene</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -688,17 +688,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>所以，一位已故的女性，生前美丽且善良经常对着镜子问：“魔镜、魔镜，谁是世界上最美丽的女人？”</t>
+          <t>所以，王后(一位美丽而善良的女子，身体虚弱)经常对着镜子问：“魔镜、魔镜，谁是世界上最美丽的女人？”</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A deceased woman, who was known for her beauty and kindness during her lifetime, often stood before the mirror and inquired with a sense of curiosity and vanity: "O Magic Mirror, tell me true, who is the fairest woman in all the world?"</t>
+          <t>The queen, a beautiful and kind-hearted woman with fragile health, often stood before the mirror and inquired: "Magic Mirror, who is the fairest woman in the world?"</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>deceased woman, beautiful detailed eyes, delicate nose, soft and kind lips, long eyelashes, elegant posture, standing before an antique mirror, curious and vain expression, intricate hairstyle, vintage dress, glowing skin, ethereal aura, reflective surface of the mirror, dimly lit room, soft lighting, romantic style, warm yet mysterious color tone, highly detailed textures, cinematic quality, realistic art style, atmospheric background, subtle hints of vanity, 8k resolution</t>
+          <t>queen standing before an antique mirror, beautiful detailed eyes with a gentle gaze, delicate nose, graceful lips with a soft smile, long eyelashes, fragile yet elegant posture, wearing a royal gown adorned with intricate embroidery, surrounded by a dimly lit bedroom with luxurious velvet curtains, wooden floors with a Persian rug, golden mirror frame reflecting soft light, romantic artistic style, warm color tone with hints of gold and ivory, subtle lighting creating a serene atmosphere, ultra-detailed textures, high-quality masterpiece, realistic painting style, 8k resolution</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -710,17 +710,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>“全世界最美的女人就是你，一位已故的女性，生前美丽且善良。” 可是，有一天，当一位已故的女性，生前美丽且善良再问魔镜同样的问题时，魔镜却回答说：</t>
+          <t>“全世界最美的女人就是你，王后(一位美丽而善良的女子，身体虚弱)。” 可是，有一天，当王后(一位美丽而善良的女子，身体虚弱)再问魔镜同样的问题时，魔镜却回答说：</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>The magic mirror once declared to a deceased woman who was beautiful and kind in her lifetime, "The most beautiful woman in the world is you." However, one day, when this same deceased woman, who had been beautiful and kind during her lifetime, asked the magic mirror the same question again, the magic mirror replied, "The most beautiful woman in the world is no longer just you, but also others who possess inner beauty and kindness."</t>
+          <t>The magic mirror once declared, "The fairest woman in the world is you, my queen—a beautiful and kind woman, though frail in health." However, one day, when the queen, who was beautiful and kind yet physically fragile, asked the magic mirror the same question again, it replied, "The fairest woman in the world is no longer you, my queen. It is now Snow White, whose skin is as pure as snow, lips as red as blood, and hair as black as ebony."</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>magic mirror, ornate golden frame with intricate carvings, crystal-clear reflective surface, floating in a mystical foggy forest, deceased woman as translucent ethereal figure, beautiful detailed eyes with long eyelashes, delicate nose, kind smile with beautifully detailed lips, flowing white gown with shimmering particles, soft glowing aura around her body, surrounded by faintly glowing fireflies, ancient tree roots winding around the scene, moonlight filtering through dense fog, dark blue and silver color tones, soft spotlight on the magic mirror and woman, highly detailed textures, cinematic lighting, fantasy art style, 8k ultra-high definition</t>
+          <t>queen, elegant gown, delicate crown, beautiful detailed eyes, graceful nose, gentle smile, soft lips, long eyelashes, pale complexion, frail physique, magic mirror, ornate frame, dark wood texture, gothic style, rich velvet curtains, dimly lit room, candlelight glow, deep reds and golds, intricate details, dramatic shadows, realistic painting style, classical art, romantic atmosphere, subtle sparkle, regal aura, emotional expression, timeless beauty</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -732,17 +732,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>“现在皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女比你美丽。” 新一位已故的女性，生前美丽且善良听了非常生气。</t>
+          <t>“现在白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)比你美丽。” 新王后(精通法术的女巫，外表美丽，但个性骄傲、暴躁)(一位美丽而善良的女子，身体虚弱)听了非常生气。</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Upon hearing the remark that "Her skin is now as white as snow, her cheeks rosy, and her hair glossy and smooth, gradually blossoming into a beautiful young maiden surpassing your own beauty," the recently deceased woman, who had been both beautiful and kind during her lifetime, felt extremely infuriated.</t>
+          <t>The magic mirror replied, "Now Snow White, whose skin is as white as snow, cheeks as red as apples, and hair as black and smooth as silk, has gradually grown into a beautiful young girl who is pure and kind-hearted. She is more beautiful than you." Upon hearing this, the new queen, a witch skilled in sorcery with a beautiful appearance but a proud and irritable personality, became extremely angry.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>angry deceased woman, beautiful yet pale skin, rosy cheeks, glossy smooth black hair, detailed angry eyes with sharp gaze, perfectly shaped nose, beautiful but fierce lips, long dramatic eyelashes, elegant and graceful posture, traditional ancient dress, dark atmospheric background, intricate details, high resolution, cinematic style, dramatic lighting, deep shadows, rich colors, gothic romanticism, realistic portrait, emotional expression, 8k quality</t>
+          <t>snow white, beautiful young girl, pure and kind-hearted, skin as white as snow, cheeks as red as apples, hair as black and smooth as silk, elegant posture, delicate facial features, extremely detailed eyes and face, long eyelashes, beautiful detailed eyes, small beautiful nose, gentle smile, beautiful detailed lips, magical atmosphere, enchanted forest background, lush greenery, soft lighting, golden hour, realistic style, highly detailed, cinematic quality, 8k resolution, deep shadows, vibrant colors, rich textures, dramatic composition, fantasy art, mystical ambiance</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -754,17 +754,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>“可恶，怎么皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女和七个身材矮小的男性，住在森林中的小木屋里，勤劳善良可以有人比我更美丽，我一定要把她除去。”</t>
+          <t>“可恶，怎么白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)和七个小矮人(七个身材矮小的男子，勤劳善良，喜欢整洁)可以有人比我更美丽，我一定要把她除去。”</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>The evil queen grew furious as she gazed into the magic mirror, for it revealed that there was indeed someone fairer than she. In the depths of the forest lived a young girl with skin as white as snow, cheeks blooming like roses, and hair flowing black and smooth. She was gradually blossoming into a beautiful maiden, cared for by seven diminutive men who were kind-hearted and hardworking. Consumed by jealousy, the queen resolved to eliminate this threat to her supremacy at once.</t>
+          <t>The evil queen despised the fact that Snow White, with her skin as white as snow, cheeks as red as apples, and hair as black and smooth as silk, was gradually growing into a beautiful young girl who was pure and kind-hearted, and that the seven dwarfs, though short in stature, were hardworking and good-natured men who loved cleanliness, could all be more beautiful than her. She was determined to eliminate Snow White.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>evil queen, furious expression, beautiful detailed eyes, sharp nose, elegant yet cruel lips, long eyelashes, luxurious gown, dark atmosphere, magic mirror, ornate frame, glowing reflection, young girl in the forest, skin as white as snow, cheeks like roses, flowing black hair, delicate features, seven dwarves, kind-hearted and hardworking, wooden cottage, lush greenery, mystical ambiance, cinematic lighting, rich textures, highly detailed, realistic style, dark fairy tale, deep contrast, vibrant colors, 8k quality</t>
+          <t>evil queen with sharp gaze, detailed eyes filled with malice, thin lips curled into a sneer, elegant yet cold nose structure, dark flowing hair styled intricately, crimson red cloak with golden embroidery, black corset with lace details, luxurious velvet fabric, pale skin contrasting the dark attire, gothic castle background with dim lighting, deep shadows emphasizing villainous aura, dramatic contrast between light and dark tones, rich textures in clothing and surroundings, realistic portrait style, intricate jewelry adorning her neck and wrists, apple in hand symbolizing envy and temptation, high detail focus on facial features, atmospheric fog adding mystery, cinematic lighting enhancing drama, 8k resolution, highly detailed, photorealistic, dark romantic art style, moody color palette with deep reds, blacks, and whites</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -776,17 +776,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>于是，她就命令宫廷的武士说： “我不想再看到皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女了，你找个借口，把她带到森林里偷偷杀掉。</t>
+          <t>于是，她就命令宫廷的武士(宫廷中的武士，心地善良，不忍心伤害无辜之人)说： “我不想再看到白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)了，你找个借口，把她带到森林里偷偷杀掉。</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Thus, the queen commanded her royal guards, "I no longer wish to see the maiden with skin as fair as snow, rosy cheeks, and lustrous black hair who is blossoming into a beautiful young lady. You must find a plausible pretext to take her deep into the forest and secretly eliminate her there."</t>
+          <t>The queen, driven by jealousy, issued an order to the kind-hearted royal knight, who was unwilling to harm the innocent. She commanded him to take Princess Snow White, whose skin was as white as snow, cheeks as red as apples, and hair as black and smooth as silk, and who was growing into a pure and benevolent young maiden, into the depths of the forest under some pretext and secretly eliminate her there.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>queen, royal guards, maiden with skin as fair as snow, rosy cheeks, lustrous black hair, beautiful detailed eyes, delicate nose, elegant lips, long eyelashes, lush forest, secret elimination, plausible pretext, dark atmosphere, dramatic tension, realistic texture, cinematic lighting, deep shadows, vibrant colors, high detail, sharp focus, classical art style, rich composition, emotional depth, dynamic pose, flowing garments, golden crown, ornate armor, mystical aura, enchanting ambiance</t>
+          <t>queen, royal palace, jealousy, detailed eyes, elegant nose, delicate lips, long eyelashes, kind-hearted knight, unwillingness, innocence, princess snow white, skin as white as snow, cheeks as red as apples, hair as black and smooth as silk, pure maiden, benevolent nature, deep forest, pretext, secret elimination, dramatic tension, realistic texture, dark atmosphere, gothic style, rich details, cinematic lighting, vibrant colors, high-definition quality, intricate clothing, medieval fantasy, emotional depth</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -803,12 +803,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>The man instructed him to kill her, and after killing her, to bring back her heart and tongue as evidence that he had carried out the killing. The man emphasized the importance of hearing and obeying this command, allowing no room for mistakes.</t>
+          <t>The assassin was instructed to kill her, and after she was killed, her heart and tongue were to be brought back as evidence of her death. The speaker emphasized that there must be no mistakes in carrying out this task.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>dark forest atmosphere, mysterious hooded figure, bloodstained dagger, detailed facial features, stern eyes, sharp nose, firm lips, long eyelashes, shadowy surroundings, moonlight piercing through trees, eerie silence, red heart in hand, torn tongue on the ground, obedience and command emphasis, dark color tones, deep shadows, realistic texture, cinematic lighting, high detail, 8k quality, gothic art style, dramatic contrast</t>
+          <t>dark alleyway at night, assassin with a hooded cloak, detailed eyes showing determination, sharp nose, calm lips, holding a dagger concealed in shadows, target woman lying lifeless on cold stone ground, bloodstain near her chest, dim moonlight casting eerie illumination, dark gray stones with moist texture, foggy atmosphere, Victorian-era clothing for both characters, realistic style, deep contrast between dark and light areas, somber color tone, focus on intricate facial features of assassin, long eyelashes on the assassin, emphasis on no mistakes theme through serious expressions, high detail, cinematic lighting, photorealistic quality, grim and haunting mood</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -820,17 +820,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>“是的，一位已故的女性，生前美丽且善良……” 武士听了这话之后，就真的把皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女带到森林里去了。</t>
+          <t>“是的，王后(一位美丽而善良的女子，身体虚弱)……” 武士(宫廷中的武士，心地善良，不忍心伤害无辜之人)听了这话之后，就真的把白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)带到森林里去了。</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>A samurai, upon hearing the description of a deceased woman who had been beautiful and kind-hearted during her lifetime, indeed took a young girl—who gradually grew into a stunning maiden with skin as white as snow, rosy cheeks, and lustrous black hair—to the forest.</t>
+          <t>The queen, a beautiful and kind-hearted woman though frail in health, asked the samurai, who was compassionate and unwilling to harm the innocent, to take Snow White, a young maiden with skin as white as snow, cheeks as red as apples, and hair as black as a raven's wing, deep into the forest. Upon hearing the queen's request, the samurai indeed led Snow White, whose innocence and purity were unmatched, into the depths of the forest.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>samurai warrior, young girl growing into a stunning maiden, pale white skin, rosy cheeks, lustrous black hair, beautiful detailed eyes, delicate nose, elegant lips, long eyelashes, traditional Japanese kimono, intricate patterns, forest setting, ancient trees, dappled sunlight, moss-covered ground, serene atmosphere, highly detailed textures, sharp focus, cinematic lighting, dramatic shadows, soft color tones, historical accuracy, artistic composition, photorealistic style, 8k quality</t>
+          <t>queen, beautiful and kind-hearted woman, frail in health, compassionate samurai, unwilling to harm the innocent, Snow White, young maiden, skin as white as snow, cheeks as red as apples, hair as black as a raven's wing, deep forest, innocence and purity unmatched, detailed eyes, delicate nose, soft lips, long eyelashes, elegant kimono, traditional Japanese armor, lush green trees, golden sunlight filtering through leaves, serene atmosphere, high detail, cinematic lighting, rich textures, realistic style, warm color tones, 8k quality</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -842,17 +842,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>当武士抽出刀来杀公主的时候，他看到正在采花的公主，纯洁，善良，犹如天使一般，武士不忍心杀她，就向皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女说：</t>
+          <t>当武士(宫廷中的武士，心地善良，不忍心伤害无辜之人)抽出刀来杀公主的时候，他看到正在采花的公主，纯洁，善良，犹如天使一般，武士(宫廷中的武士，心地善良，不忍心伤害无辜之人)不忍心杀她，就向白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)说：</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>As the samurai drew his sword to kill the princess, he caught sight of her picking flowers. Pure and kind, she appeared like an angel. Unable to bring himself to harm her, the samurai addressed the young maiden, whose skin was as white as snow, cheeks rosy, and hair black and smooth, gradually blossoming into a beautiful girl.</t>
+          <t>When the kind-hearted samurai, who served in the court and was unwilling to harm innocent people, drew his sword to kill the princess, he saw the princess picking flowers. She appeared so pure and kind, like an angel. Unable to bring himself to harm her, the samurai said to Snow White, whose skin was as white as snow, cheeks as red as apples, and hair smooth and black, and who was gradually blossoming into a beautiful young girl known for her purity and kindness:</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>samurai, princess, garden, picking flowers, angelic presence, pure and kind, unable to harm, detailed samurai armor, intricate sword, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, extremely detailed face, white skin, rosy cheeks, black smooth hair, soft natural lighting, rich textures, traditional Japanese setting, lush greenery, blooming flowers, cinematic composition, realistic style, high detail, warm color tones, emotional atmosphere</t>
+          <t>samurai, kind-hearted warrior, traditional Japanese armor, katana drawn, hesitant expression, detailed face, strong yet gentle eyes, soft nose, slightly parted lips, long black hair, white skin, rosy cheeks, princess, Snow White, pure and kind, angelic presence, picking flowers, flowing dress, red apples, dark smooth hair, youthful beauty, blossoming girl, detailed floral surroundings, lush greenery, soft sunlight, golden hour lighting, realistic art style, cinematic composition, rich textures, highly detailed, 8k quality, vibrant yet natural colors</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>The soldier announced to the princess, his voice trembling with emotion, "The queen has ordered me to take your life, but I find myself incapable of carrying out such a cruel command. My heart is too compassionate to raise a weapon against you. Therefore, I urge you, flee into the depths of the forest where you may seek refuge and escape this imminent danger!"</t>
+          <t>The soldier announced, "The queen has ordered me to eliminate Princess you, but I find myself incapable of carrying out such a cruel task. Therefore, I urge you to flee into the depths of the forest for your own safety!"</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>soldier, princess, forest, emotional moment, compassionate expression, beautiful detailed eyes, delicate nose, soft lips, long eyelashes, royal attire, medieval setting, dark forest background, golden sunlight filtering through trees, dramatic lighting, rich textures, high detail, cinematic style, warm color tones, realistic art, 8k quality</t>
+          <t>soldier in ancient armor, detailed face with determined eyes, strong nose, gentle lips, long eyelashes, wearing a cape fluttering in the wind, holding a sheathed sword, standing before a princess with a worried expression, beautiful detailed eyes, delicate nose, soft lips, elegant dress flowing in the breeze, lush forest background with sunlight filtering through trees, moss-covered rocks, vibrant greenery, golden hour lighting, cinematic composition, highly detailed, sharp focus, epic fantasy style, rich colors, dramatic atmosphere, 8k quality</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -886,17 +886,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>说完武士见到一头猪，就跑过去宰了它，并取下心和舌头以作为证据。 之后，武士便回皇宫去了。</t>
+          <t>说完武士(宫廷中的武士，心地善良，不忍心伤害无辜之人)见到一头猪，就跑过去宰了它，并取下心和舌头以作为证据。 之后，武士(宫廷中的武士，心地善良，不忍心伤害无辜之人)便回皇宫去了。</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>After the samurai finished speaking, he noticed a pig nearby and swiftly approached it to slaughter the animal. He then carefully removed its heart and tongue as evidence of his claim. Following this action, the samurai promptly returned to the royal palace.</t>
+          <t>After delivering his speech, the kind-hearted court samurai, who was unwilling to harm innocent people, saw a pig and immediately ran over to slaughter it. He then took its heart and tongue as evidence. Following this, the compassionate court samurai returned to the palace.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>samurai, dark forest environment, early morning mist, detailed traditional armor, sharp katana, bloody pig carcass, removed heart and tongue, evidence of claim, determined facial expression, strong jawline, intense eyes, focused gaze, realistic texture, dynamic composition, dramatic lighting, dark color tones, deep shadows, intricate details, high-quality artwork, photorealistic style, rich textures, masterfully crafted scene, Japanese historical setting</t>
+          <t>court samurai, kind-hearted expression, detailed traditional samurai armor, intricate katana sheathed at his side, strong yet gentle face structure, beautiful detailed eyes showing compassion, elegant nose, beautiful detailed lips with a slight frown, long eyelashes, standing in a royal palace garden, lush greenery surrounding him, holding a pig's heart and tongue as evidence, blood stains on his hands symbolizing the act of justice, dimly lit lanterns casting warm light, darkening sky indicating evening time, rich textures in clothing and armor, highly detailed facial features, photorealistic style, cinematic lighting, deep color tones of red and gold mixed with soft greens, 8k image quality, dramatic atmosphere, emotional scene, realistic shadows and highlights</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -908,17 +908,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>听到猫头鹰叫声的皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女，越走越觉得森林好可怕。 突然，眼前有一栋小木屋，于是便又惊又喜的叫着：</t>
+          <t>听到猫头鹰叫声的白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)，越走越觉得森林好可怕。 突然，眼前有一栋小木屋，于是便又惊又喜的叫着：</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>The girl, whose skin was as white as snow, cheeks rosy, and hair black and smooth, grew into a beautiful young woman. As she ventured deeper, the forest became increasingly terrifying. Suddenly, she spotted a small wooden cabin ahead and exclaimed with both surprise and joy.</t>
+          <t>Hearing the owl's call, Snow White, whose skin was as white as snow, cheeks as red as apples, and hair as black and smooth as silk, had gradually grown into a beautiful young girl who was pure and kind-hearted. She felt increasingly frightened as she walked deeper into the forest. Suddenly, she spotted a small wooden cabin in front of her and exclaimed with both surprise and joy:</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>beautiful young woman, pale white skin, rosy cheeks, black smooth hair, detailed delicate nose, stunning beautiful eyes, long eyelashes, elegant lips, wearing a simple forest dress, standing in front of a small wooden cabin, surrounded by dark dense forest, mysterious atmosphere, eerie lighting, dim moonlight shining through trees, realistic texture, cinematic composition, high detail, soft natural colors, deep shadows, enchanting ambiance, photorealistic style, 8k quality</t>
+          <t>snow white, beautiful young girl, pure and kind-hearted, skin as white as snow, cheeks as red as apples, hair as black and smooth as silk, detailed eyes, long eyelashes, small nose, beautiful lips, wearing a traditional german renaissance dress, deep forest background, darkening atmosphere, feeling frightened, wooden cabin in the distance, soft lighting, mysterious owl call, gothic fairy tale style, rich textures, cinematic quality, highly detailed, 8k resolution, vibrant yet muted colors, dramatic shadows, enchanting ambiance</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -930,17 +930,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>“啊，是小木屋！” 皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女急忙向前敲敲门，可是屋子里没有人来开门。 她就自作主张的把门打开。</t>
+          <t>“啊，是小木屋！” 白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)急忙向前敲敲门，可是屋子里没有人来开门。 她就自作主张的把门打开。</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>"A young girl with skin as white as snow, rosy cheeks, and black, flowing hair stood before a small wooden cabin. She knocked on the door eagerly, but no one came to answer it. Assuming that the cabin's owner wouldn't mind, she opened the door by herself."</t>
+          <t>"Oh, it's a little wooden house!" Snow White (whose skin was as white as snow, cheeks as red as apples, and hair as black and smooth as silk, gradually growing into a beautiful young girl, pure and kind-hearted) hurriedly approached and knocked on the door. However, no one came to answer it. She then took the initiative to open the door by herself.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>young girl, skin as white as snow, rosy cheeks, black flowing hair, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, elegant posture, wearing a traditional dress, wooden cabin, small house in forest, rustic wooden door, autumn leaves surrounding, knocking on the door, eager expression, soft natural lighting, high detail, realistic style, warm color tone, 8k quality, cinematic photography, lush trees in background, moss covered logs, peaceful atmosphere</t>
+          <t>snow white, little wooden house, pure and kind-hearted girl, skin as white as snow, cheeks as red as apples, hair as black and smooth as silk, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, extremely detailed face, wearing a traditional german dress, standing near an open door, curious expression, detailed wooden texture, moss-covered walls, small round window, autumn forest background, golden sunlight filtering through trees, soft bokeh effect, highly detailed, 8k quality, artstation, concept art, rich colors, warm lighting, cinematic composition</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -957,12 +957,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>After the child entered the small wooden house, they found that there were seven tiny beds inside, arranged in perfect order.</t>
+          <t>After the characters entered the small wooden house, they found that there were seven tiny beds inside, arranged in perfect order.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>small wooden house, seven tiny beds, neatly arranged, cozy interior, soft blankets, child exploring, warm lighting, wooden floor, detailed eyes, curious expression, innocent face, beautiful detailed eyes, small nose, delicate lips, long eyelashes, fairy tale atmosphere, soft color tones, high detail, realistic style, peaceful ambiance, magical realism, enchanting scene, 8k quality</t>
+          <t>small wooden house, seven tiny beds arranged neatly, cozy interior, warm lighting, soft blankets, detailed wooden textures, beautiful detailed eyes, delicate nose, charming lips, long eyelashes, fairy tale atmosphere, magical realism, soft pastel colors, enchanting ambiance, high detail, realistic style, 8k quality, intricate craftsmanship, peaceful mood, mystical vibe</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -974,17 +974,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女在森林里跑了一天，觉得非常疲倦，就在那七张小小的床上躺了下来，不知不觉的睡着了。</t>
+          <t>白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)在森林里跑了一天，觉得非常疲倦，就在那七张小小的床上躺了下来，不知不觉的睡着了。</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Her skin was as white as snow, her cheeks rosy, and her hair jet black and smooth. She gradually grew into a beautiful young girl who had spent the entire day running through the forest until she felt utterly exhausted. She then lay down on the seven little beds and soon fell sound asleep.</t>
+          <t>The pure and kind Snow White, whose skin was as white as snow, cheeks as red as apples, and hair as black and smooth as silk, gradually grew into a beautiful young girl. She ran through the forest for an entire day and felt extremely exhausted. She then lay down on the seven tiny beds and soon fell asleep without realizing it.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>beautiful young girl, lying on a small bed, surrounded by seven little beds, detailed facial features, beautiful detailed eyes, long eyelashes, delicate nose, soft rosy cheeks, pale white skin, jet black smooth hair, tired expression, peaceful sleep, forest background, wooden cabin interior, soft lighting, warm color tone, high detail, realistic style, 8k quality</t>
+          <t>snow white, pure and kind princess, skin as white as snow, cheeks as red as apples, hair as black and smooth as silk, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, extremely detailed face, exhausted expression, lying on tiny beds, forest background, soft lighting, warm color tone, fairy tale style, high detail, realistic, 8k quality, magical atmosphere, peaceful scenery, wooden cabin interior, soft bedding, natural textures</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -996,17 +996,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>傍晚，当皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女和七个身材矮小的男性，住在森林中的小木屋里，勤劳善良七个身材矮小的男性，住在森林中的小木屋里，勤劳善良扛着锄头回来时，发现自己的家有人在，而且是睡在自己的床上，大家都很奇怪的问</t>
+          <t>傍晚，当白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)和七个小矮人(七个身材矮小的男子，勤劳善良，喜欢整洁)七个小矮人(七个身材矮小的男子，勤劳善良，喜欢整洁)扛着锄头回来时，发现自己的家有人在，而且是睡在自己的床上，大家都很奇怪的问</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>In the twilight, a fair-skinned girl with rosy cheeks and raven-black hair was gradually blossoming into a beautiful young maiden. She lived in a small wooden cottage deep in the forest alongside seven short-statured men who were diligent and kind-hearted. One day, as the seven men returned home from their work in the fields, carrying hoes on their shoulders, they discovered that someone was inside their house, sound asleep in their bed. Surprised and curious, they all asked her how she had come to be there.</t>
+          <t>In the evening, when Snow White (whose skin was as white as snow, cheeks as red as apples, and hair as black and smooth as silk, gradually growing into a beautiful young girl, pure and kind-hearted) and the Seven Dwarfs (seven short-statured men, hardworking and benevolent, with a fondness for tidiness) returned home carrying their hoes, they found that someone was inside their house, even sleeping in their beds. Everyone felt puzzled and asked aloud who the intruder might be.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>twilight, fair-skinned girl, rosy cheeks, raven-black hair, beautiful young maiden, small wooden cottage, deep in the forest, seven short-statured men, diligent and kind-hearted, carrying hoes on their shoulders, returning home from fields, someone inside their house, sound asleep in their bed, surprised and curious, detailed eyes, delicate nose, beautiful lips, long eyelashes, soft lighting, warm color tone, magical atmosphere, realistic painting style, highly detailed, cinematic quality, natural textures, enchanting scenery</t>
+          <t>snow white, seven dwarfs, evening scene, wooden cottage, beautiful detailed eyes, delicate nose, charming lips, long eyelashes, pure and kind-hearted expression, pale skin like snow, rosy cheeks like red apples, hair as black and smooth as silk, short-statured men with beards, carrying hoes, tidy and cozy room, small beds arranged neatly, mysterious figure sleeping in the bed, puzzled and curious expressions, warm golden lighting, soft shadows, fairy tale atmosphere, rich details, intricate textures, 8k resolution, cinematic style, vibrant yet natural colors, magical realism art style</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1023,12 +1023,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>A man asked, "Who is this beautiful girl?" Another person replied, "She is sleeping so soundly!" The man then commented, "This young girl is truly very beautiful."</t>
+          <t>A man asked, "Who is this beautiful girl?" Another person replied, "She is sleeping so soundly!" The man then commented, "This little girl is truly very beautiful."</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>sleeping girl, beautiful detailed face, delicate nose, soft lips, long eyelashes, peaceful expression, gentle lighting, soft shadows, realistic skin texture, flowing hair, comfortable bed, cozy blanket, warm tones, high detail, photorealistic style, natural colors, serene atmosphere, 8k quality</t>
+          <t>little girl sleeping soundly, peaceful expression, delicate facial features, soft curly hair spread across a pillow, extremely detailed eyes closed with long eyelashes, small beautiful nose, gentle lips slightly parted, soft pastel lighting, serene bedroom scene, warm color tone, high detail, photorealistic style, soft focus, cozy atmosphere, comfortable bed with fluffy blankets, realistic shadows, natural skin tones</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1040,17 +1040,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>小矮人们纷纷议论的声音吵醒了皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女。 小矮人们很生气的说： “你为什么闯进我们的房子呢？”</t>
+          <t>小矮人们纷纷议论的声音吵醒了白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)。 小矮人们很生气的说： “你为什么闯进我们的房子呢？”</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>The dwarfs' murmuring voices woke the girl with skin as white as snow, rosy cheeks, and smooth black hair, who was gradually blossoming into a beautiful young maiden. The dwarfs, feeling irritated, asked her angrily, "Why did you dare to intrude into our house without permission?"</t>
+          <t>The voices of the dwarfs chattering awakened Snow White, whose skin was as white as snow, cheeks as red as apples, and hair as black and smooth as silk, gradually growing into a beautiful young girl who was pure and kind. The dwarfs, feeling quite angry, asked her, "Why did you intrude into our house?"</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>girl with pale white skin, rosy cheeks, smooth black hair, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, soft facial features, wearing a simple dress, standing in a wooden house, seven dwarfs around her, dwarfs with annoyed expressions, wooden furniture, dim lighting, cozy atmosphere, natural textures, high detail, realistic style, warm color tones, soft shadows, cinematic quality, fantasy art, 8k resolution</t>
+          <t>snow white, dwarfs, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, extremely detailed face, skin as white as snow, cheeks as red as apples, hair as black and smooth as silk, pure and kind expression, innocent smile, chattering dwarfs, wooden table, small house interior, warm lighting, soft shadows, realistic texture, high detail, cinematic style, golden tones, cozy atmosphere, 8k quality, photorealistic, renaissance art influence</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1067,12 +1067,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>The traveler apologized to the gentlemen, explaining that he had lost his way in the forest and had been walking all day, leaving him extremely hungry and tired. Upon seeing the small cottage, he decided to enter and rest.</t>
+          <t>The traveler apologized to the gentlemen, explaining that he had lost his way in the forest and had been walking all day, leaving him both hungry and exhausted. Upon seeing the cottage, he decided to enter and rest inside.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>traveler, gentleman, forest, lost way, exhausted, hungry, small cottage, wooden door, detailed eyes, weary expression, long eyelashes, rugged clothing, moss-covered walls, soft lighting, warm tones, realistic style, high detail, natural textures, evening atmosphere, calm ambiance, 4k quality, cinematic composition</t>
+          <t>traveler, gentlemen, forest, cottage, lost way, walking all day, hungry, exhausted, rest inside, detailed eyes, strong nose, soft lips, long eyelashes, weary expression, rustic clothing, wooden cottage, evening light, autumn trees, golden tones, realistic style, high detail, warm lighting, 8k quality</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1084,17 +1084,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女又把事情的经过，一五一十地告诉小矮人。 小矮人们听了非常同情皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女的遭遇，就把她留下来。</t>
+          <t>白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)又把事情的经过，一五一十地告诉小矮人。 小矮人们听了非常同情白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)的遭遇，就把她留下来。</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Her skin was as white as snow, her cheeks were rosy, and her hair was jet black and smooth. As she grew up, she became a beautiful young girl. She recounted the details of her story to the dwarfs with great sincerity. After hearing her account, the dwarfs felt profound sympathy for the beautiful young girl with skin as white as snow, rosy cheeks, and jet black, smooth hair. Consequently, they decided to take her in and provide her with a home.</t>
+          <t>The innocent and kind Snow White, whose skin was as white as snow, cheeks as red as apples, and hair as black and smooth as silk, had grown into a beautiful young girl. She recounted the entire course of events to the seven dwarfs in great detail. Upon hearing her story, the seven dwarfs felt immense sympathy for Snow White and decided to take her in, offering her a place to stay.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>beautiful young girl, snow white skin, rosy cheeks, jet black smooth hair, detailed delicate face, extremely detailed eyes and face, long eyelashes, beautiful detailed eyes, small elegant nose, beautiful detailed lips, sincere expression, soft natural lighting, warm color tone, realistic style, high detail, cinematic quality, surrounded by dwarfs, cozy wooden cabin, forest background, magical atmosphere, enchanting scenery, harmonious composition</t>
+          <t>snow white, innocent and kind expression, skin as white as snow, cheeks as red as apples, hair as black and smooth as silk, beautiful detailed eyes, small delicate nose, beautiful detailed lips, long eyelashes, wearing a traditional germanic dress, standing amidst seven dwarfs, each dwarf showing sympathetic expressions, wooden cottage in the background, lush green forest surroundings, soft natural lighting, detailed textures, highly realistic, cinematic quality, 8k resolution, ghibli style, warm color tone, rich details, fairy tale atmosphere</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1106,17 +1106,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>“你就在这里住下来吧！” 皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女听到小矮人愿意留下她，很高兴的说：</t>
+          <t>“你就在这里住下来吧！” 白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)听到小矮人愿意留下她，很高兴的说：</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>"Snow White, with her skin as white as snow, her cheeks rosy, and her hair black and smooth, had gradually grown into a beautiful young girl. Upon hearing that the dwarfs were willing to let her stay, she happily replied, 'I will stay here then!'"</t>
+          <t>The seven dwarfs, who were kind-hearted and lived happily in their small but cozy house in the forest, decided to let her stay. Snow White, whose skin was as white as snow, cheeks as red as apples, and hair as black and smooth as silk, had gradually grown into a beautiful young girl who was pure and kind. Upon hearing that the dwarfs were willing to have her stay, she joyfully said, "I will stay here with you!"</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>snow white, beautiful young girl, skin as white as snow, rosy cheeks, black smooth hair, detailed facial features, beautiful detailed eyes, long eyelashes, elegant nose, beautiful detailed lips, happy expression, wearing a traditional blue and yellow dress, red ribbon in hair, surrounded by forest scenery, wooden cabin in the background, sunlight filtering through trees, soft natural lighting, warm color tone, detailed textures, high-quality art, realistic style, enchanting atmosphere, fairy tale setting</t>
+          <t>seven dwarfs, small cozy house in the forest, Snow White, skin as white as snow, cheeks as red as apples, hair as black and smooth as silk, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, pure and kind expression, joyful smile, vibrant forest scenery, wooden furniture, warm lighting, fairy tale atmosphere, detailed textures, soft natural light, whimsical artistic style, enchanting color tone, high-quality detailed image, 8k resolution, ultra-detailed facial features, magical forest background, happy and harmonious scene</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1133,12 +1133,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>The woman expressed her gratitude with great enthusiasm, stating that she was willing to cook, make beds, do laundry, and clean for them at this place. She emphasized that she was ready to do anything for them.</t>
+          <t>The woman expressed her gratitude with great enthusiasm, stating that she was willing to cook, make beds, wash clothes, and clean for them at this place. She emphasized that she was ready to do anything for them.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>grateful woman, warm smile, beautiful detailed eyes, expressive eyebrows, elegant nose, kind and gentle lips, long eyelashes, heartfelt expression, standing in a cozy kitchen, wooden floors, soft natural light, pastel color tones, vintage furniture, neat and tidy environment, apron wearing, rolling up sleeves, realistic painting style, high detail, photorealistic, 8k quality</t>
+          <t>grateful woman, warm smile, beautiful detailed eyes, expressive eyebrows, kind facial expression, slightly tilted head, beautiful detailed lips, long eyelashes, elegant posture, standing in a cozy kitchen, wooden table, soft lighting, golden tones, realistic style, high detail, 8k quality, natural colors, welcoming atmosphere, clean and tidy environment, apron on, soft shadows, autumnal color palette</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1150,17 +1150,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>“欢迎你，从此这里就是你的家了。” 皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女每天都把这个小木屋打扫得非常清洁。</t>
+          <t>“欢迎你，从此这里就是你的家了。” 白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)每天都把这个小木屋打扫得非常清洁。</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>The girl with skin as white as snow, rosy cheeks, and jet-black, smooth hair gradually grew into a beautiful young maiden. Every day, she welcomed the boy and told him, "Welcome, from now on, this place will be your home." She kept the little wooden house spotlessly clean.</t>
+          <t>"Every day, the seven dwarfs welcomed her, saying, 'Welcome, from now on, this place will be your home.' Snow White, whose skin was as white as snow, cheeks as red as apples, and hair as black and smooth as silk, gradually grew into a beautiful young girl, pure and kind-hearted. She diligently cleaned the small wooden house every day, keeping it exceptionally tidy."</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>girl with snow white skin, rosy cheeks, jet black smooth hair, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, extremely detailed face, traditional dress, warm smile, wooden house in the background, spotlessly clean environment, soft natural lighting, cozy atmosphere, high quality, sharp focus, intricate details, realistic style, warm color tones, welcoming gesture, charming scenery, rural setting, peaceful ambiance</t>
+          <t>snow white, seven dwarfs, wooden house, beautiful young girl, pure and kind-hearted, skin as white as snow, cheeks as red as apples, hair as black and smooth as silk, detailed eyes, beautiful nose, delicate lips, long eyelashes, extremely detailed face, clean and tidy house, welcoming atmosphere, forest background, natural lighting, soft shadows, warm color tone, fairy tale style, vibrant colors, high detail, 8k quality, realistic yet magical, lush greenery, cozy environment, rustic wooden textures, smiling faces, happiness, harmony</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1172,17 +1172,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>七个身材矮小的男性，住在森林中的小木屋里，勤劳善良从森林里回来后，就有可口的晚餐等着他们。 就这样日复一日，皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女和小矮人过着快乐的生活。</t>
+          <t>七个小矮人(七个身材矮小的男子，勤劳善良，喜欢整洁)从森林里回来后，就有可口的晚餐等着他们。 就这样日复一日，白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)和小矮人过着快乐的生活。</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Seven diminutive men, known as dwarfs, resided in a quaint wooden cottage nestled within the depths of a lush forest. They were industrious and kind-hearted, and every day upon their return from the forest, they were greeted with a delicious and appetizing dinner prepared by a mysterious figure. As days turned into months, a young girl with skin as white as snow, rosy cheeks, and lustrous black hair gradually grew into a beautiful maiden. She lived happily with the dwarfs, sharing joyful moments and forming an unbreakable bond.</t>
+          <t>Upon their return from the forest, the seven dwarfs, who were diligent and kind-hearted men of short stature with a penchant for tidiness, found a delicious dinner prepared for them. Day by day, Snow White, a young maiden whose skin was as white as snow, cheeks as red as apples, and hair as black and smooth as silk, grew into a beautiful and pure-hearted teenager. She lived joyfully with the dwarfs in their cozy home nestled within the woods.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>seven dwarfs, quaint wooden cottage, lush forest, industrious and kind-hearted, delicious dinner, mysterious figure, young girl, skin as white as snow, rosy cheeks, lustrous black hair, beautiful maiden, joyful moments, unbreakable bond, detailed facial features, beautiful detailed eyes, well-defined nose, delicate lips, long eyelashes, soft lighting, warm color tone, cozy atmosphere, natural textures, high-quality art, realistic style, enchanting scenery, fairy tale ambiance</t>
+          <t>seven dwarfs, Snow White, cozy home in the woods, wooden table with delicious dinner, warm lighting, detailed eyes of Snow White, beautiful detailed lips, long eyelashes, pure-hearted expression, short statured men with kind faces, neatly arranged room, rustic furniture, soft golden tones, vibrant colors, high detail, realistic style, soft natural lighting, clean and tidy atmosphere, fairy tale ambiance, enchanting forest background, smooth black hair like silk, rosy cheeks, white skin, 8k quality, cinematic art style</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1194,17 +1194,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>新一位已故的女性，生前美丽且善良以为皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女已经死了，有一天她又问魔镜说： “魔镜、魔镜，谁是世界上最美丽的人呢？”</t>
+          <t>新王后(精通法术的女巫，外表美丽，但个性骄傲、暴躁)(一位美丽而善良的女子，身体虚弱)以为白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)已经死了，有一天她又问魔镜说： “魔镜、魔镜，谁是世界上最美丽的人呢？”</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>A newly deceased young woman, who had been beautiful and kind in her lifetime, with skin as white as snow, rosy cheeks, and hair that was black and smooth, had grown into a beautiful maiden before passing away. One day, while questioning the magic mirror, she asked: "Magic Mirror, Magic Mirror, who is the fairest person in the world?"</t>
+          <t>The new queen, a witch skilled in sorcery, was outwardly beautiful but possessed a proud and irascible personality. She believed that Snow White, a pure and kind-hearted young girl with skin as white as snow, cheeks as red as apples, and lustrous black hair, who had gradually grown into a beautiful maiden, had already died. One day, the queen, who was also a frail yet beautiful and benevolent woman, once again asked the magic mirror: "Magic mirror on the wall, who is the fairest of them all?"</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>young woman with pale white skin, rosy cheeks, long smooth black hair, delicate facial features, beautiful detailed eyes with long eyelashes, elegant nose, soft and graceful lips, wearing a flowing white gown, standing in front of an ancient magic mirror, surrounded by dimly lit candles, gothic romantic style, dark yet enchanting atmosphere, rich textures on the dress and mirror frame, highly detailed realism, soft lighting creating subtle shadows, deep blue and purple color tones, mystical aura emanating from the mirror, 8k quality, cinematic composition</t>
+          <t>new queen, witch skilled in sorcery, beautiful yet proud expression, irascible personality, detailed eyes with a hint of malice, perfectly sculpted nose, beautiful lips with a slight sneer, long eyelashes, frail physique, elegant and regal posture, dark flowing gown with intricate patterns, lustrous black hair cascading down her back, pale skin with a touch of red on her cheeks, standing in a grand hall, magic mirror in the background, ornate golden frame, gothic architectural details, dramatic lighting with deep shadows and glowing highlights, rich color tones of crimson and gold, atmospheric smoke swirling around the queen, realistic texture of silk and stone, cinematic quality, highly detailed art style, dark fantasy theme, moody and intense atmosphere</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1216,17 +1216,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>魔镜回答一位已故的女性，生前美丽且善良说：</t>
+          <t>魔镜回答王后(一位美丽而善良的女子，身体虚弱)说：</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>The magic mirror responded to a deceased woman, who was beautiful and kind during her lifetime, saying: "You are the most stunning and benevolent soul in memory."</t>
+          <t>The magic mirror answered the queen, a beautiful and kind woman with a frail constitution, saying that she was the most beautiful in the land.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>magic mirror reflecting light, deceased woman appearing in the mirror, beautiful detailed eyes with kindness, delicate nose, gentle smile on beautiful detailed lips, long eyelashes, elegant hairstyle flowing softly, soft glowing aura around her figure, ancient enchanted frame of the mirror with intricate carvings, dimly lit room with candlelight, mysterious foggy atmosphere, rich deep tones of purple and blue, highly realistic texture, cinematic lighting, 8k ultra-detailed quality, romantic fantasy style, ethereal emotional expression, timeless elegance, memory-filled ambiance</t>
+          <t>magic mirror, beautiful and kind woman, frail constitution, elegant queen, detailed eyes, delicate nose, soft lips, long eyelashes, pale skin, flowing gown, intricate crown, ornate mirror frame, gothic style, dark wood texture, shimmering glass surface, mystical aura, glowing symbols, realistic portrait, cinematic lighting, rich color tones, sharp focus, highly detailed, fantasy art, romantic atmosphere, dramatic contrast, 8k quality</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1238,17 +1238,18 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>“一位已故的女性，生前美丽且善良，你很美丽，可是皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女比你更美丽，她现在在森林中和七个身材矮小的男性，住在森林中的小木屋里，勤劳善良过着快乐幸福的生活。”</t>
+          <t>“王后(一位美丽而善良的女子，身体虚弱)，你很美丽，可是白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)比你更美丽，她现在在森林中和七个小矮人(七个身材矮小的男子，勤劳善良，喜欢整洁)过着快乐幸福的生活。”</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>A deceased woman, who was beautiful and kind during her lifetime, became the subject of a vivid description. Though you are already quite beautiful, with skin as white as snow, rosy cheeks, and smooth black hair, there is someone else who has grown into an even more beautiful young girl. She now resides in a small wooden cottage in the forest, living happily with seven short-statured men. Together, they lead a life filled with diligence and kindness, enjoying great joy and contentment.</t>
+          <t>The queen, a beautiful and kind woman but frail in health, was told that she was indeed lovely; however, Snow White, whose skin was as white as snow, cheeks as red as apples, and hair as black and smooth as silk, was growing into a pure-hearted and virtuous young maiden who surpassed her in beauty. At present, Snow White was living joyfully and peacefully in the forest with the seven dwarfs, who were industrious and benevolent men of short stature that cherished cleanliness and order.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>deceased woman, beautiful and kind, skin as white as snow, rosy cheeks, smooth black hair, elegant detailed eyes, delicate nose, graceful lips, long eyelashes, surrounded by flowers, soft lighting, realistic texture, highly detailed, cinematic style, warm color tone, magical atmosphere, seven dwarves in the background, wooden cottage in the forest, lush greenery, vibrant nature, happiness and contentment, fantasy art, 8k resolution</t>
+          <t>queen, elegant posture, delicate facial features, beautiful detailed eyes, high arched eyebrows, small refined nose, graceful lips, pale complexion, frail health, intricate crown, luxurious velvet gown, soft pastel colors, translucent lace sleeves, golden embroidery, royal throne room, dim lighting, melancholic atmosphere, dramatic contrast, cinematic style, baroque art influence, rich textures, deep shadows, subtle glow around the queen, symbolic roses in hand, traditional fairy tale illustration, enchanting ambiance
+snow white, radiant smile, pure-hearted expression, skin as white as snow, cheeks as red as apples, hair as black and smooth as silk, long eyelashes, innocent eyes, full lips, simple yet charming dress, natural floral accents, lively forest background, sunlight filtering through trees, vibrant greenery, seven dwarfs surrounding her, industrious and benevolent men, short stature, clean and orderly surroundings, joyful and peaceful atmosphere, warm color tones, soft natural lighting, whimsical fantasy style, fairy tale setting, enchanting details</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1260,17 +1261,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>一位已故的女性，生前美丽且善良听了这个回答之后，才知道皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女并没有死，她感到很愤怒。</t>
+          <t>王后(一位美丽而善良的女子，身体虚弱)听了这个回答之后，才知道白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)并没有死，她感到很愤怒。</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>A deceased woman, who had been beautiful and kind-hearted during her lifetime, heard this response and realized that the fair-skinned girl with rosy cheeks and lustrous black hair, who had gradually blossomed into a beautiful young maiden, was still alive. This revelation filled her with immense anger.</t>
+          <t>The queen, a beautiful and kind-hearted woman but frail in health, felt an intense surge of anger upon learning from the response that Snow White, whose skin was as white as snow, cheeks as red as apples, and hair as black and smooth as silk, had grown into a pure and innocent young maiden and was, in fact, not dead.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>deceased woman, pale skin, translucent complexion, delicate features, beautiful detailed eyes filled with anger, sharp gaze, elegant nose, sorrowful yet furious expression, beautiful detailed lips curled into a snarl, long eyelashes, kind-hearted aura contrasted by current rage, fair-skinned girl in background, rosy cheeks glowing with life, lustrous black hair flowing naturally, youthful beauty, blossoming maiden, contrasting emotions of anger and regret, dark atmospheric background, dim lighting emphasizing facial details, high detail in textures, cinematic artistic style, deep color tones, muted blues and grays, dramatic shadows enhancing mood, 8k image quality</t>
+          <t>queen, beautiful and kind-hearted, frail in health, intense surge of anger, Snow White, skin white as snow, cheeks red as apples, hair black and smooth as silk, pure and innocent young maiden, detailed facial features, elegant posture, royal attire, delicate crown, soft lighting, warm color tone, realistic style, high detail, sharp focus, long eyelashes, expressive eyes, graceful nose, beautifully shaped lips, regal background, emotional atmosphere</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1282,17 +1283,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>“真是可恶极了，一定要让皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女从世界上消失”</t>
+          <t>“真是可恶极了，一定要让白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)从世界上消失”</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>It was truly infuriating; the world seemed to demand that she must have skin as fair as snow, cheeks flushed with a healthy red, and hair that was pitch-black and silky smooth, gradually transforming into a beautiful young girl only to eventually vanish from existence.</t>
+          <t>The evil queen thought to herself with great malice, "That白雪公主, whose skin is as white as snow, cheeks as red as apples, and hair as black and smooth as silk, who is gradually growing into a beautiful young maiden and possesses purity and kindness, must be completely erased from the world."</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>beautiful young girl, fair skin like snow, cheeks with healthy red blush, pitch-black silky hair, delicate facial features, beautiful detailed eyes, long eyelashes, elegant nose, graceful lips, soft natural expression, traditional eastern aesthetic, flowing dress, ethereal atmosphere, surrounded by soft light, vanishing into mist, dreamlike scene, high detail, sharp focus, cinematic style, soft pastel colors, warm lighting, mystical ambiance, 8k quality</t>
+          <t>evil queen, dark and menacing aura, beautiful yet cold detailed face, sharp detailed nose, maliciously scheming eyes, thin lips with a sinister smile, long elegant eyelashes, intricate crown on her head, rich royal attire with deep black and crimson colors, flowing silk gown with golden embroidery, pale skin contrasting with dark surroundings, snowy white princess in the background, delicate features with rosy apple-like cheeks, shiny silk-black hair cascading down her back, pure innocent expression, contrast between darkness and light, dramatic lighting with shadows emphasizing malice, gothic art style, cinematic composition, highly detailed textures, 8k ultra-high definition, realistic photography style, dark moody color tones, red and black dominating the scene, atmospheric fog adding tension, deep focus on the evil queen's facial expressions</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1304,17 +1305,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>坏心肠的一位已故的女性，生前美丽且善良想到了一个办法，她在鲜红的苹果外面，涂上了她调配的毒药，准备去毒死皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女。 “嘿！</t>
+          <t>坏心肠的王后(一位美丽而善良的女子，身体虚弱)想到了一个办法，她在鲜红的苹果外面，涂上了她调配的毒药，准备去毒死白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)。 “嘿！</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>A deceased woman, who was wicked at heart despite being beautiful and seemingly kind during her lifetime, devised a plan. She coated the surface of a bright red apple with poison that she had concocted herself, intending to use it to kill a young girl who was growing up to be stunningly beautiful, with skin as white as snow, rosy cheeks, and lustrous black hair. "Hey!"</t>
+          <t>The evil-hearted queen, a beautiful and kind woman but physically frail, devised a plan. She coated the bright red apple with poison that she had concocted herself, intending to use it to kill Snow White, whose skin was as white as snow, cheeks as red as apples, and hair as black and smooth as silk, gradually blossoming into a pure and kind-hearted young maiden. "Ha!"</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>deceased woman, beautiful yet wicked, detailed pale face, sharp intelligent eyes, delicate nose, sinister smile with lips coated in red, long flowing black hair, dark elegant gown, gothic lace details, bright red poisoned apple, shimmering toxic coating, young girl in background, skin white as snow, rosy cheeks, lustrous black hair, innocent expression, dark forest setting, eerie twilight lighting, deep shadows, crimson highlights, dramatic contrast, cinematic composition, highly detailed painting, realistic textures, dark romantic style, rich atmospheric tones, mysterious mood, 8k quality</t>
+          <t>evil-hearted queen, beautiful and kind woman, physically frail, detailed elegant face, sharp intelligent eyes, delicate nose, cunning smile, long black eyelashes, luxurious dark hair, pale skin, red lips, wearing an intricate gown, holding a bright red poisoned apple, gothic atmosphere, dark forest background, dramatic lighting, deep shadows, crimson tones, golden accents, baroque art style, highly detailed texture, cinematic quality, realistic portrait, mysterious aura, contrast between beauty and malice</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1326,17 +1327,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>嘿！ 皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女只要吃一口这个有毒的苹果，就一定会死去。 到那个时候，我就是世界上最美丽的女人了。”</t>
+          <t>嘿！ 白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)只要吃一口这个有毒的苹果，就一定会死去。 到那个时候，我就是世界上最美丽的女人了。”</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>The evil queen, with a pale complexion as white as snow, rosy cheeks, and lustrous black hair, believed that the beautiful young maiden would surely perish upon taking a bite of the poisoned apple. As she contemplated this, she envisioned herself becoming the fairest woman in the world once the girl was gone.</t>
+          <t>The evil queen thought to herself, "Hey! As long as Snow White, who has skin as white as snow, cheeks as red as apples, and hair as black and smooth as silk, and who is gradually growing into a beautiful young lady, pure and kind-hearted, takes just one bite of this poisoned apple, she will surely die. And when that happens, I will become the most beautiful woman in the world."</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>evil queen, pale complexion, rosy cheeks, lustrous black hair, elegant crown, dark red lips, sharp nose, cold detailed eyes, long eyelashes, regal posture, flowing gown, deep purple color, golden embroidery, luxurious fabric, poisoned apple, gothic castle background, dramatic lighting, rich details, cinematic style, high contrast, dark atmospheric tones, realistic portrait, 8k quality, intricate textures, baroque art influence, mysterious aura, stunning realism</t>
+          <t>evil queen with a cunning smile, pale skin, sharp nose, full red lips, detailed evil eyes, long black hair, wearing an elegant dark gown, holding a poisoned red apple, intricate gold jewelry, gothic crown, dramatic lighting with dark shadows, deep red and black color tones, high detail in facial features, realistic texture, cinematic style, dark fairy tale atmosphere, 8k quality, sharp focus on the queen's face, lush forest background with mist, mystical ambiance, rich fabric textures, glowing evil aura around the apple</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1348,17 +1349,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>然后，一位已故的女性，生前美丽且善良就打扮成老太婆的模样，提着一篮苹果到森林里去了。</t>
+          <t>然后，王后(一位美丽而善良的女子，身体虚弱)就打扮成老太婆的模样，提着一篮苹果到森林里去了。</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Then, a deceased woman who had been beautiful and kind during her lifetime decided to disguise herself as an old woman, carrying a basket of apples with her as she ventured into the forest.</t>
+          <t>Then, the queen, who was a beautiful and kind-hearted woman but in frail health, disguised herself as an old woman, carrying a basket of apples, and went to the forest.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>deceased woman disguised as old woman, carrying a basket of apples, walking into the forest, beautiful detailed eyes, kind expression, detailed face with long eyelashes, weathered hands, traditional old-fashioned dress, textured clothing, realistic skin tones, soft lighting, autumn forest scenery, golden afternoon sunlight, rich earthy color tones, highly detailed textures, cinematic quality, photorealistic style, 8k resolution, natural shadows, deep emotional atmosphere</t>
+          <t>queen disguised as old woman, wearing simple clothing with weathered textures, carrying a basket filled with red apples, surrounded by forest foliage, beautiful detailed eyes with kindness and wisdom, delicate nose with graceful contours, gentle lips showing warmth, long eyelashes framing the eyes, frail yet dignified posture, soft autumn light filtering through trees, earthy color tones with warm hues, realistic art style with fine attention to detail, high-quality cinematic rendering, natural lighting creating serene ambiance, moss-covered stones and fallen leaves underfoot, tranquil forest atmosphere</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1370,17 +1371,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>坏一位已故的女性，生前美丽且善良提着一篮苹果来到了小矮人的小木屋前。 “可爱的小姑娘，你要不要买一个又红又香的苹果呀！</t>
+          <t>坏王后(一位美丽而善良的女子，身体虚弱)提着一篮苹果来到了小矮人的小木屋前。 “可爱的小姑娘，你要不要买一个又红又香的苹果呀！</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>A deceased woman, who was beautiful and kind during her lifetime, carried a basket of apples and arrived at the door of the dwarfs' wooden cabin. The dwarfs, seeing her, asked with a smile: "Dear little lady, would you like to buy a red and fragrant apple?"</t>
+          <t>The frail yet beautiful and kind-hearted queen approached the dwarfs' cottage with a basket of apples in her hands. She called out to the young girl standing nearby, offering her a red and fragrant apple with a gentle smile.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>deceased woman, beautiful and kind face, soft smile, delicate features, extremely detailed eyes and face, long eyelashes, gentle expression, elegant nose, beautifully shaped lips, flowing hair, vintage dress, basket of apples, wooden cabin, dwarfs, friendly smiles, red and fragrant apples, warm lighting, natural textures, autumnal background, soft color tones, high detail, cinematic style, realistic art, 4k quality</t>
+          <t>queen in a forest clearing, frail yet beautiful and kind-hearted, elegant gown with intricate details, detailed eyes expressing warmth, delicate nose, soft and inviting lips, long eyelashes, gentle smile, basket of apples in her hands, red and fragrant apple offered to a young girl, young girl standing nearby, dwarfs' cottage in the background, wooden and rustic texture, moss-covered stones, vibrant greenery, sunlight filtering through trees, soft lighting, fairy tale atmosphere, romantic artistic style, warm color tone with hints of golden and green, highly detailed illustration, sharp focus, 8k quality, realistic yet enchanting</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1397,12 +1398,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>She offered him a bite of the delicacy, confident that he would surely enjoy it.</t>
+          <t>The waiter offered to give one to the customer to taste, believing that the customer would surely like it.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>girl offering a bite of delicacy, elegant pose, confident expression, beautiful detailed eyes, perfectly shaped nose, beautiful detailed lips, long eyelashes, delicate facial features, traditional delicacy on a small plate, rich textures, soft lighting, warm color tone, intricate details, high-quality artwork, realistic style, romantic atmosphere, detailed background with subtle patterns, smooth skin, natural shadows, masterful composition</t>
+          <t>waiter, customer interaction, elegant restaurant setting, detailed facial expression, beautiful detailed eyes, gentle smile on lips, neatly styled hair, formal attire, sophisticated ambiance, realistic texture, high detail, warm lighting, golden tones, natural shadows, professional posture, confident gesture, offering a sample dish, delicious food presentation, positive atmosphere, photorealistic style, 8k quality</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1414,17 +1415,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>本来就很喜欢吃苹果的皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女，看到又红又大的苹果，便高兴地说： “哇！ 这红红的苹果多么的可爱呀！</t>
+          <t>本来就很喜欢吃苹果的白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)，看到又红又大的苹果，便高兴地说： “哇！ 这红红的苹果多么的可爱呀！</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>The girl, who had always loved eating apples, had skin as white as snow, rosy cheeks, and black, smooth hair. As she gradually blossomed into a beautiful young maiden, she saw a bright red, large apple and exclaimed with delight: "Wow! What a lovely red apple this is!"</t>
+          <t>Snow White, who had always loved eating apples and was a beautiful young girl with skin as white as snow, cheeks as red as apples, and lustrous black hair, grew more radiant with each passing day, embodying purity and kindness. Upon seeing the large, red apple, she exclaimed joyfully, "Wow! What a lovely red apple this is!"</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>girl with snow white skin, rosy cheeks, black smooth hair, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, wearing a soft pastel dress, standing in an apple orchard, bright red large apple in her hand, expressing delight, realistic texture, highly detailed facial features, soft natural lighting, warm color tone, cinematic artistic style, 8k image quality, lush green grass, clear blue sky background, vibrant surroundings</t>
+          <t>snow white, beautiful young girl, skin as white as snow, cheeks as red as apples, lustrous black hair, radiant appearance, purity and kindness, large red apple, joyful expression, detailed eyes, beautiful nose, delicate lips, long eyelashes, traditional fairy tale style, soft lighting, vibrant colors, high detail, realistic texture, enchanting atmosphere, lush green background, natural scenery, stunning realism, 8k quality</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1436,17 +1437,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>一定很好吃的。” 于是皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女就伸手接过那个苹果。</t>
+          <t>一定很好吃的。” 于是白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)就伸手接过那个苹果。</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>The apple, which was sure to be very delicious, was then taken by the hand of a beautiful young girl who was growing up to be stunning, with skin as white as snow, rosy cheeks, and black, lustrous hair.</t>
+          <t>The stepmother, believing it to be a most delicious treat, had prepared the apple with malice aforethought. Snow White, whose skin was as white as snow, cheeks as red as apples, and hair as black and smooth as silk, was gradually blossoming into a beautiful young maiden, pure and kind-hearted. She reached out her hand and took the apple offered to her.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>apple, beautiful young girl, pale white skin, rosy cheeks, black lustrous hair, delicate facial features, stunning appearance, soft natural lighting, realistic texture, high detail, smooth skin, elegant posture, traditional european dress, intricate patterns, lush green garden, vibrant colors, soft focus, photorealistic style, 8k quality, beautiful detailed eyes, perfectly shaped nose, captivating smile, long eyelashes, charming expression, harmonious color tones</t>
+          <t>stepmother with a sinister smile, beautifully detailed eyes, sharp nose, cunning lips, dark elegant dress, intricate jewelry, malice in her gaze, Snow White with skin as white as snow, cheeks as red as apples, hair as black and smooth as silk, pure innocent expression, delicate features, beautiful detailed eyes, soft rosy lips, long eyelashes, wearing a simple yet charming dress, vibrant red apple glistening with temptation, dimly lit forest background, mysterious atmosphere, gothic fairy tale style, rich textures, cinematic lighting, highly detailed illustration, fantasy art, deep shadows contrasting with bright highlights, dramatic color tones of crimson and midnight blue</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1458,17 +1459,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>结果，皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女才咬了一口，就马上倒在地上，昏死过去了。</t>
+          <t>结果，白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)才咬了一口，就马上倒在地上，昏死过去了。</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>As a result, her skin became as white as snow, her cheeks flushed with a healthy red hue, and her hair turned jet black and smooth. She gradually developed into a beautiful young girl. However, after she took a bite, she immediately collapsed on the ground and lost consciousness.</t>
+          <t>The poisonous apple, which was cunningly disguised as a tempting fruit, had barely been bitten by Snow White—a maiden who had grown into a beautiful young woman with skin as white as snow, cheeks as red as apples, and hair as black and smooth as silk, known for her purity and kindness—when she immediately collapsed onto the ground, falling into a deathlike swoon.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>girl with snow white skin, healthy red cheeks, jet black smooth hair, beautiful detailed eyes, delicate nose, cherry lips, long eyelashes, elegant facial features, wearing traditional fairytale attire, collapsed posture, unconscious expression, soft ambient lighting, rich color tones, highly detailed realism, cinematic quality, 8k resolution, intricate shadows and highlights, magical atmosphere, enchanting forest background, mystical aura, fairy tale style</t>
+          <t>snow white, beautiful young woman, skin as white as snow, cheeks as red as apples, hair as black and smooth as silk, pure and kind, detailed beautiful eyes, delicate nose, soft lips, long eyelashes, wearing a traditional renaissance dress, blue and gold attire, standing in a dark enchanted forest, holding a half-bitten poisonous apple, apple shiny and red, dramatic lighting, focused on her face showing innocence, collapsed onto the ground, realistic painting, cinematic composition, rich textures, hyper-realistic style, deep shadows, golden afternoon sunlight filtering through trees, moss-covered stones around her, lush greenery, 8k ultra-detailed quality, dark fairy tale atmosphere, moody color tones, intricate details</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1480,17 +1481,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>坏心的一位已故的女性，生前美丽且善良看到她倒在地上，大笑着说：“哈！哈！ 皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女从此以后就从这个世界上消失了。”</t>
+          <t>坏心的王后(一位美丽而善良的女子，身体虚弱)看到她倒在地上，大笑着说：“哈！哈！ 白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)从此以后就从这个世界上消失了。”</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>A deceased woman, who was malicious in heart but had been beautiful and kind during her lifetime, was seen lying on the ground. A figure stood over her, laughing loudly: "Ha! Ha! Her skin was as white as snow, her cheeks were rosy, and her hair was black and smooth. She gradually grew into a beautiful young girl, but from this day forward, she has vanished from this world."</t>
+          <t>The evil-hearted queen, a beautiful and kind woman though frail in health, saw her fall to the ground and burst into laughter, saying, "Ha! Ha! The innocent Snow White, whose skin was as white as snow, cheeks as red as apples, and hair as smooth and black as silk, growing into a pure and virtuous young lady, will now vanish from this world forever."</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>deceased woman, beautiful detailed eyes, delicate nose, full lips, long eyelashes, pale white skin, rosy cheeks, black smooth hair, lying on the ground, transformation into young girl, vanished from the world, mysterious atmosphere, dark fantasy style, gothic elements, high contrast lighting, deep shadows, vibrant yet eerie colors, cinematic composition, realistic details, sharp focus, cold snowy environment, standing figure laughing, dramatic pose, haunting expression, intricate clothing textures, flowing fabrics, 8k quality, highly detailed art, photorealistic rendering</t>
+          <t>evil queen, beautiful and kind woman, frail in health, laughing with malice, detailed elegant gown, sharp intelligent eyes, delicate nose, cruelly smiling lips, long dark eyelashes, pale white skin, rosy apple-like cheeks, smooth black silk hair, intricate crown, gothic castle background, dark dramatic lighting, rich deep colors, cinematic photorealistic style, high detail, 8k quality</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1502,17 +1503,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>小矮人傍晚回家的时后，看到皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女躺在地上像死了一样，他们马上把她抬到床上，尽力的施救，可是皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女仍然没有醒过来。</t>
+          <t>小矮人傍晚回家的时后，看到白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)躺在地上像死了一样，他们马上把她抬到床上，尽力的施救，可是白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)仍然没有醒过来。</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>In the evening, when the dwarfs returned home, they found a beautiful young woman lying on the ground as if she were dead. She had skin as white as snow, rosy cheeks, and smooth, black hair. As she had gradually grown into a stunning maiden, the dwarfs immediately carried her to a bed and did their utmost to revive her. However, despite their efforts, the beautiful young woman with skin as white as snow, rosy cheeks, and smooth, black hair remained unconscious.</t>
+          <t>In the dim light of dusk, the dwarfs returned home and found Snow White, whose skin was as white as snow, cheeks as red as apples, and hair as black and smooth as silk, lying on the ground like a lifeless figure. She had blossomed into a beautiful young maiden, embodying purity and kindness. Alarmed, the dwarfs immediately carried her to the bed and did everything in their power to revive her. However, despite their best efforts, Snow White remained unconscious.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>beautiful young woman, skin as white as snow, rosy cheeks, smooth black hair, lying on the ground, unconscious expression, delicate facial features, extremely detailed eyes and face, long eyelashes, beautiful detailed lips, soft nose structure, dressed in a simple yet elegant gown, surrounded by concerned dwarfs, wooden cabin interior, evening light filtering through windows, warm ambient lighting, realistic texture, high detail, cinematic style, rich color tones, soft shadows, fantasy art, 8k quality</t>
+          <t>dwarfs, Snow White, unconscious girl, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, skin white as snow, cheeks red as apples, hair black and smooth as silk, dim light of dusk, wooden cabin interior, soft bed, worried expressions, small caring hands, purity, kindness, warm lighting, realistic painting, cinematic style, detailed textures, soft shadows, emotional atmosphere, 8k quality</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1524,17 +1525,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>小矮人们哭哭啼啼的把皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女，放在一个装满鲜花的玻璃棺材内，准备举行盛大的葬礼。</t>
+          <t>小矮人们哭哭啼啼的把白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)，放在一个装满鲜花的玻璃棺材内，准备举行盛大的葬礼。</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>The dwarfs, weeping bitterly, placed the girl, who had fair skin like snow, rosy cheeks, and smooth, black hair, and was gradually blossoming into a beautiful young maiden, into a glass coffin filled with flowers, preparing to hold a grand funeral for her.</t>
+          <t>The dwarfs, with tears streaming down their faces, gently placed Snow White, whose skin was as white as snow, cheeks as red as apples, and hair as black and smooth as silk, and who had gradually grown into a beautiful young maiden known for her purity and kindness, into a glass coffin filled with flowers to prepare for a grand funeral.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>dwarfs, weeping bitterly, sorrowful expressions, detailed faces, a girl in a glass coffin, fair skin like snow, rosy cheeks, smooth black hair, delicate facial features, beautiful detailed eyes, long eyelashes, beautifully shaped nose, elegant lips, gradual transformation into a young maiden, flowers inside the glass coffin, floral arrangements, grand funeral preparations, somber atmosphere, realistic texture, cinematic lighting, soft tones, high-quality art, dark yet enchanting mood, gothic romanticism style, 8k resolution</t>
+          <t>dwarfs, crying, tears streaming down faces, gentle expressions, Snow White, pure and kind maiden, skin white as snow, cheeks red as apples, hair black and smooth as silk, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, glass coffin, filled with flowers, grand funeral preparation, magical forest atmosphere, soft lighting, emotional scene, realistic texture, high detail, cinematic style, warm yet somber color tone, 8k quality, dramatic depth, lush greenery background, enchanting fairy tale ambiance</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1551,12 +1552,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>At that moment, the prince from a neighboring kingdom happened to be passing through the forest when he caught sight of a beautiful and adorable princess lying in a glass coffin, surrounded by little dwarfs and small animals who were mourning her loss with great sorrow.</t>
+          <t>At that moment, the prince from a neighboring kingdom happened to be passing through the forest when he noticed a beautiful and adorable princess lying in a glass coffin, surrounded by little dwarfs and small animals who were mourning her loss with great sorrow.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>prince in medieval attire, elegant and noble posture, detailed facial features, sharp jawline, confident expression, beautiful detailed eyes, straight nose, charming lips, wearing a royal cape with golden embroidery, holding a bouquet of flowers, glass coffin with intricate carvings, princess inside the coffin, delicate and serene face, rosy cheeks, long flowing hair, dressed in a white gown with lace details, surrounded by seven dwarfs, each displaying sorrowful expressions, small animals like rabbits and squirrels gathered around, tears streaming down their faces, deep forest background, lush green trees, soft moss covering the ground, dappled sunlight filtering through the leaves, mystical and melancholic atmosphere, highly detailed textures, cinematic lighting, soft pastel color tones, realistic art style, ultra-high resolution, 8k quality</t>
+          <t>prince in medieval attire, detailed facial features, sharp nose, kind eyes, gentle smile, wearing a royal cloak, standing near a glass coffin, beautiful and adorable princess inside the coffin, delicate facial features, rosy cheeks, long eyelashes, closed eyes, peaceful expression, surrounded by seven dwarfs dressed in traditional clothing, expressing sadness, small forest animals like rabbits and squirrels mourning nearby, lush forest background, tall trees with golden autumn leaves, soft moss covering the ground, beams of sunlight breaking through the canopy, magical atmosphere, realistic painting style, rich details, vibrant colors, warm lighting, cinematic composition, high-quality art, 8k resolution</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1568,17 +1569,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>王子知道事情的经过之后，含着泪水悲伤地的注视皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女说：</t>
+          <t>王子知道事情的经过之后，含着泪水悲伤地的注视白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)说：</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Upon learning the details of the matter, the prince, with tears welling up in his eyes, gazed sorrowfully at her—her skin as white as snow, her cheeks rosy, her hair jet-black and lustrous, and she was blossoming into a beautiful young maiden. He realized that she had endured much hardship and silently vowed to protect her from any future harm.</t>
+          <t>Upon learning the details of the matter, the prince, with tears welling up in his eyes, gazed at Snow White, who had gradually grown into a beautiful young maiden with skin as white as snow, cheeks as red as apples, and hair as black and smooth as silk, and said to her tenderly, "My dear Snow White, your purity and kindness have touched my heart."</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>prince, beautiful detailed eyes filled with tears, sorrowful gaze, delicate nose, soft and gentle lips, long eyelashes, extremely detailed face, pale skin, white as snow, rosy cheeks, jet-black lustrous hair, elegant posture, graceful dress, blooming into a young maiden, innocent expression, endured hardships, vow to protect, emotional moment, realistic texture, cinematic lighting, warm tones, high detail, 8k quality, renaissance art style, dramatic contrast, soft background, romantic atmosphere</t>
+          <t>prince, Snow White, beautiful detailed eyes, tears in eyes, tender expression, beautiful detailed lips, elegant nose, long eyelashes, extremely detailed face, skin as white as snow, cheeks as red as apples, hair as black and smooth as silk, romantic atmosphere, soft lighting, realistic style, high detail, cinematic quality, warm color tone, emotional moment, lush garden background, natural scenery, delicate textures</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1595,12 +1596,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>The young man lamented, "Poor princess, if only you could be resurrected, how wonderful it would be!"</t>
+          <t>The knight lamented, "If only the poor princess could be resurrected, it would bring so much joy!"</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>young man in a dark enchanted forest, wearing medieval clothing, detailed facial features, sad expression, beautiful detailed eyes with longing gaze, sharp nose, soft lips, long eyelashes, princess floating in the background, translucent and glowing, resurrection magic aura, shimmering light particles, mystical atmosphere, intricate textures on trees, moss-covered ground, moonlight filtering through dense canopy, deep blue and purple color tones, soft lighting, cinematic quality, highly detailed, realistic style, 8k resolution</t>
+          <t>knight in shining armor, sorrowful expression, detailed face, beautiful detailed eyes filled with longing, strong nose, delicate lips curved in sadness, long eyelashes, medieval setting, grand castle in the background, dimly lit scene, soft lighting casting shadows, princess silhouette visible through a stained glass window, emotional atmosphere, intricate textures on armor and cape, rich fabric details, gothic architectural elements, dramatic romantic style, dark moody colors with hints of gold and blue, ultra high-quality artwork, realistic painting style, cinematic composition, 8k resolution</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1612,17 +1613,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>王子向皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女献上了花束，含情脉脉的地凝视着她说：“她的皮肤雪白，脸颊红润，好像睡着一般，根本不像死去的人。”</t>
+          <t>王子向白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)献上了花束，含情脉脉的地凝视着她说：“她的皮肤雪白，脸颊红润，好像睡着一般，根本不像死去的人。”</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>The prince, with skin as pale as snow, rosy cheeks, and lustrous black hair, presented a bouquet of flowers to the beautiful young maiden who was gradually blossoming into her full grace. He gazed at her tenderly and said, "Her skin is as white as snow, her cheeks rosy, and she looks as if she is merely sleeping, not at all like someone who has passed away."</t>
+          <t>The prince presented a bouquet of flowers to Snow White, whose skin was as white as snow, cheeks as red as apples, and hair as black and smooth as silk, gradually blossoming into a beautiful young maiden, pure and kind-hearted. He gazed at her affectionately and said, "Her skin is as white as snow, her cheeks are rosy, and she looks as if she is asleep, not at all like someone who has passed away."</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>prince, pale skin, rosy cheeks, lustrous black hair, bouquet of flowers, beautiful young maiden, blossoming grace, tender gaze, detailed facial features, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, elegant clothing, romantic atmosphere, soft lighting, realistic style, high detail, cinematic quality, warm color tone, white and red accents, emotional expression, timeless art, masterful composition</t>
+          <t>prince in elegant attire, Snow White with porcelain skin, rosy apple-like cheeks, lustrous black silky hair, pure and kind-hearted expression, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, extremely detailed face, bouquet of flowers, romantic gesture, enchanted forest background, soft natural lighting, warm pastel color tones, cinematic quality, highly detailed realistic art style, magical fairy tale atmosphere</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1634,17 +1635,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>最后，王子情不自禁地俯身吻了她。 突然，皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女从口中吐出了吃进去的苹果。</t>
+          <t>最后，王子情不自禁地俯身吻了她。 突然，白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)从口中吐出了吃进去的苹果。</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Finally, the prince couldn't help but lean down and kiss her. At that moment, a miraculous transformation occurred. The girl's skin became as white as snow, her cheeks flushed with a healthy red hue, and her hair grew long and sleek, shining with a deep black luster. Gradually, she emerged as a beautiful young maiden, and from her mouth, the piece of apple she had swallowed was expelled.</t>
+          <t>Finally, the prince could no longer contain his feelings and gently leaned down to kiss her. At that very moment, Snow White, whose skin was as white as snow, cheeks as red as apples, and hair as black and smooth as silk, and who had gradually grown into a beautiful young maiden known for her purity and kindness, expelled the piece of poisoned apple from her mouth.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>prince, princess, romantic moment, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, extremely detailed face, white as snow skin, healthy red cheeks, long sleek black hair, shining with luster, deep black, miraculous transformation, apple piece, expulsion, magical atmosphere, soft lighting, realistic style, high detail, cinematic quality, warm tones, enchanting scenery, fantasy theme, elegant posture, flowing hair, natural blush, glowing complexion, soft shadows, vibrant colors</t>
+          <t>prince, Snow White, romantic moment, tender kiss, beautiful detailed eyes, delicate nose, soft lips, long eyelashes, extremely detailed face, white skin, rosy cheeks, black silky hair, purity, kindness, enchanted forest, magical atmosphere, soft lighting, warm color tone, realistic style, high detail, cinematic quality, emotional expression, gentle embrace, poison apple, expelled from mouth, fairy tale scene, dreamlike ambiance</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1661,12 +1662,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>It was the prince's love for the princess that rendered the poisoned apple ineffective. As a result, the princess gradually regained her body heat, and her bright eyes slowly opened, revealing her return to life.</t>
+          <t>It was the prince's love for the princess that rendered the poisoned apple ineffective. As a result, the princess gradually regained her body heat, and her bright eyes slowly opened.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>princess, prince, romantic scene, bright eyes, beautiful detailed eyes, long eyelashes, delicate nose, soft lips, glowing skin, flowing golden hair, elegant dress, royal attire, warm lighting, soft shadows, realistic style, high detail, lifelike textures, tender expression, love theme, enchanted forest background, soft green tones, golden sunlight, vibrant colors, magical atmosphere, 8k quality, photorealistic, cinematic lighting, emotional connection</t>
+          <t>prince, princess, romantic embrace, bright eyes slowly opening, regained body heat, poisoned apple on the ground, detailed medieval clothing, luxurious golden crown, soft glowing light, warm color tone, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, extremely detailed face, elegant gown with intricate embroidery, rich textures, realistic painting style, high-quality artwork, soft natural lighting, romantic atmosphere, lush garden background, soft focus effect, masterpiece level detail</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1678,17 +1679,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女苏醒了过来，好像是从长睡中醒来一般，她的脸颊和唇依旧是那么的红润。 “哇！ 你们看到了吧！</t>
+          <t>白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)苏醒了过来，好像是从长睡中醒来一般，她的脸颊和唇依旧是那么的红润。 “哇！ 你们看到了吧！</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Her skin was as white as snow, her cheeks were rosy, and her hair was pitch-black and smooth. She gradually awakened, growing into a beautiful maiden, as if emerging from a long slumber. Her cheeks and lips remained vividly red. The girl exclaimed with excitement, "Wow! Didn't you see that!"</t>
+          <t>Snow White, with skin as white as snow, cheeks as red as apples, and hair as black and smooth as silk, gradually grew into a beautiful young girl who was pure and kind. She awakened as if from a long sleep, her cheeks and lips still as rosy as ever. The prince exclaimed in amazement, "Look! You see, she has awakened!"</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>snow-white skin, rosy cheeks, pitch-black smooth hair, beautiful detailed eyes, delicate nose, vividly red lips, long eyelashes, extremely detailed face, elegant maiden, awakening from slumber, surprised expression, excited exclamation, traditional eastern beauty, realistic portrait, soft natural lighting, high detail, cinematic quality, warm color tone, 8k resolution, photorealistic style, artistic composition</t>
+          <t>snow white, pure and kind princess, skin as white as snow, cheeks as red as ripe apples, hair as black and smooth as silk, beautiful detailed eyes with long eyelashes, delicate nose, rosy lips, elegant and graceful posture, wearing a traditional renaissance-style dress, awakening from a deep sleep, magical fairy tale atmosphere, lush green forest background with soft sunlight filtering through leaves, realistic painting style, hyper-detailed textures, cinematic lighting, vibrant yet soft color tones, enchanting and dreamlike ambiance, royal prince watching in amazement, 8k quality</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1700,17 +1701,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女活过来了！ 皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女复活了！” 小矮人们都雀跃不已，兴奋地叫着。 王子更是满心欢喜地说：</t>
+          <t>白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)活过来了！ 白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)复活了！” 小矮人们都雀跃不已，兴奋地叫着。 王子更是满心欢喜地说：</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>The princess, with skin as white as snow, rosy cheeks, and hair that was jet black and smooth, gradually came back to life as a beautiful young girl. The dwarfs jumped for joy, calling out excitedly. The prince, overjoyed, exclaimed:</t>
+          <t>The prince was overjoyed and exclaimed with delight as Snow White, whose skin was as white as snow, cheeks as red as apples, and hair as black and smooth as silk, had gradually grown into a beautiful maiden, embodying purity and kindness, had come back to life. The dwarfs were also thrilled and cheered excitedly.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>princess, skin as white as snow, rosy cheeks, jet black smooth hair, beautiful detailed eyes, delicate nose, elegant lips, long eyelashes, graceful posture, royal attire, shimmering gown, golden tiara, glowing aura, joyful dwarfs, excited prince, vibrant forest background, soft sunlight, magical atmosphere, realistic texture, cinematic lighting, rich details, fantasy art style, warm color tone, ultra high resolution, photorealistic quality</t>
+          <t>prince, Snow White, dwarfs, forest clearing, overjoyed expression, beautiful maiden, purity, kindness, white skin, rosy cheeks, black silky hair, detailed facial features, delicate nose, long eyelashes, elegant lips, vibrant emotions, cheerful atmosphere, fantasy style, soft lighting, rich details, high-quality artwork, realistic textures, warm color tones, natural surroundings, celebrating dwarfs, magical ambiance, enchanting scene</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1722,17 +1723,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>“真是太好了！ 皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女重生了，上帝真的不会让我失望啊！” 连在旁的动物们也吱吱喳喳谈论不休。</t>
+          <t>“真是太好了！ 白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)重生了，上帝真的不会让我失望啊！” 连在旁的动物们也吱吱喳喳谈论不休。</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>It was truly remarkable! The girl, who had been reborn, possessed skin as white as snow, rosy cheeks, and hair that was jet black and smooth. She was gradually growing into a beautiful young maiden, and the Lord had indeed not let her down. Even the animals nearby chimed in with their own chatter, discussing the marvel incessantly.</t>
+          <t>"It was truly wonderful! The person who had been praying fervently exclaimed with joy, for Snow White—the princess whose skin was as white as snow, cheeks as red as apples, and hair as black and smooth as silk, who had gradually grown into a beautiful young girl, embodying purity and kindness—had been reborn. God truly would not disappoint them!" Even the animals nearby chattered excitedly, unable to stop their lively discussions.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>girl with snow white skin, rosy cheeks, jet black smooth hair, beautiful detailed eyes, delicate nose, elegant lips, long eyelashes, extremely detailed face, graceful posture, surrounded by curious animals, vibrant forest background, soft natural lighting, warm color tone, high detail, realistic style, cinematic quality, enchanting atmosphere, 8k resolution</t>
+          <t>snow white, princess, pure and kind, reborn, beautiful young girl, skin as white as snow, cheeks as red as apples, hair as black and smooth as silk, detailed eyes, delicate nose, beautiful lips, long eyelashes, extremely elegant facial features, joyful expression, praying fervently, animals chattering excitedly, forest setting, natural light, soft focus, cinematic style, rich details, vibrant colors, enchanting atmosphere, magical realism, high quality, 8k resolution</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1744,17 +1745,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>王子向皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女说明了他的来历之后，就握着公主的双手，温柔的说：“公主，你愿意和我一起回皇宫，做我的王妃吗？”</t>
+          <t>王子向白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)说明了他的来历之后，就握着公主的双手，温柔的说：“公主，你愿意和我一起回皇宫，做我的王妃吗？”</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>The prince, with skin as white as snow, rosy cheeks, and hair that was jet black and smooth, gradually matured into a beautiful young lady. After explaining her origins, she then held the princess's hands and said gently: "Princess, would you be willing to return to the palace with me and become my queen?"</t>
+          <t>After the prince recounted his origins to Snow White, whose skin was as white as snow, cheeks as red as apples, and hair as black and smooth as silk, and who had gradually grown into a beautiful young maiden, pure and kind-hearted, he then gently held her hands and tenderly asked: "Princess, would you be willing to return with me to the royal palace and become my queen?"</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>prince transformed into a beautiful young lady, snow white skin, rosy cheeks, jet black smooth hair, elegant and graceful posture, detailed delicate facial features, extremely detailed eyes and face, long eyelashes, beautiful detailed eyes, petite nose, beautiful detailed lips, wearing an exquisite royal gown, shimmering fabric with gold embroidery, soft natural lighting, romantic atmosphere, pastel color tones, sharp focus, high detail, cinematic style, fantasy art, 8k quality</t>
+          <t>snow white, prince, royal palace, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, extremely detailed face, skin as white as snow, cheeks as red as apples, hair as black and smooth as silk, pure and kind-hearted, gentle expression, romantic atmosphere, soft lighting, rich colors, high detail, cinematic style, fantasy art, enchanting background, lush garden, elegant clothing, golden crown, loving gaze, tender moment, magical ambiance, realistic texture, stunning scenery, 8k quality</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1766,17 +1767,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女羞怯地点头答应了。</t>
+          <t>白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)羞怯地点头答应了。</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>The girl, with skin as white as snow, rosy cheeks, and hair that was jet black and smooth, gradually developed into a beautiful young maiden. She shyly nodded in agreement.</t>
+          <t>The young Snow White, with skin as white as snow, cheeks as red as apples, and hair that was pitch-black and smooth, gradually blossomed into a beautiful adolescent who was pure and kind-hearted, shyly nodded in agreement.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>girl with snow white skin, rosy cheeks, jet black smooth hair, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, shy expression, youthful appearance, traditional east asian beauty, soft natural lighting, ultra detailed face, high quality, sharp focus, cinematic style, warm color tone, realistic portrait, 8k resolution</t>
+          <t>young Snow White, pure and kind-hearted adolescent, shy expression, beautiful detailed eyes, long eyelashes, delicately shaped nose, beautiful detailed lips, skin as white as snow, cheeks as red as apples, pitch-black smooth hair, flowing locks, elegant posture, traditional fairy tale attire, soft lighting, magical forest background, vibrant yet soft color tones, highly detailed realistic style, cinematic quality, 8k resolution, enchanting atmosphere, subtle blush on face, gentle nodding gesture, captivating gaze, surrounded by fluttering butterflies</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1788,17 +1789,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>小矮人和森林皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女和七个身材矮小的男性，住在森林中的小木屋里，勤劳善良的动物们，有的手舞足蹈，有的欢声歌唱，为王子和皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女歌颂庆贺。</t>
+          <t>小矮人和森林白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)和七个小矮人(七个身材矮小的男子，勤劳善良，喜欢整洁)的动物们，有的手舞足蹈，有的欢声歌唱，为王子和白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)歌颂庆贺。</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>The Snow-white maiden and the seven dwarfs lived in a small wooden house in the forest. Her skin was as white as snow, her cheeks were rosy, and her hair was black and smooth. She gradually grew into a beautiful young girl. The seven dwarfs were short men who were hardworking and kind-hearted. Various animals in the forest were cheerful and lively; some danced gracefully, while others sang joyfully. Together, they celebrated and praised the prince, the Snow-white maiden who had grown into a beautiful young girl with white skin, rosy cheeks, and black, smooth hair.</t>
+          <t>In the heart of the forest, the animals gathered joyfully around Snow White, a young princess with skin as white as snow, cheeks as red as apples, and hair as black and smooth as silk, who had grown into a beautiful and pure-hearted maiden. Alongside her were the Seven Dwarfs, seven short-statured men known for their diligence, kindness, and love for cleanliness. Some animals danced gracefully while others sang merrily, celebrating the union of the prince and Snow White, praising their love and purity in harmonious melodies.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>snow-white maiden, seven dwarfs, small wooden house, forest background, beautiful detailed eyes, delicate nose, elegant lips, long eyelashes, white skin, rosy cheeks, black smooth hair, short hardworking dwarfs, kind-hearted expressions, cheerful forest animals, graceful dancing animals, joyful singing birds, vibrant forest atmosphere, fairy tale style, soft lighting, warm color tones, high detail, cinematic quality, magical realism, enchanting scenery, harmonious composition</t>
+          <t>snow white, prince, seven dwarfs, animals in the forest, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, extremely detailed face, skin as white as snow, cheeks as red as apples, hair as black and smooth as silk, joyful celebration, graceful dancing animals, merry singing birds, lush green trees, vibrant flowers, golden sunlight filtering through leaves, magical atmosphere, fairy tale style, soft lighting, warm color tones, highly detailed illustration, enchanting scenery, harmonious melodies, clean and tidy dwarfs, diligence and kindness, pure-hearted princess, romantic union, dreamlike quality, 8k resolution, cinematic composition, watercolor painting style</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1815,12 +1816,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>The crowd joyfully cheered, expressing their heartfelt wishes that the prince and princess would remain happy and content forever.</t>
+          <t>The crowd joyfully expressed their heartfelt wish that the prince and princess would remain happy and content forever.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>prince, princess, royal couple, beautiful detailed eyes, elegant noses, delicate lips, long eyelashes, radiant smiles, luxurious clothing, golden crowns, intricate dresses, rich fabrics, silk textures, velvet robes, joyous crowd, cheering people, waving hands, heartfelt wishes, happiness, contentment, grand castle background, ornate architecture, colorful flags, bright lighting, warm color tones, detailed faces, realistic style, high-quality image, sharp focus, dynamic composition, fantasy art, majestic atmosphere</t>
+          <t>prince, princess, crowd of people, celebration, heartfelt wishes, happiness, contentment, medieval castle background, detailed royal attire, golden crowns, elegant gowns, beautiful detailed eyes, perfectly shaped noses, delicate lips, warm smiles, long eyelashes, vibrant banners, colorful confetti, soft lighting, rich color tones, intricate textures, high detail, romantic artistic style, joyful atmosphere, realistic painting quality</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1832,17 +1833,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>王子带着皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女，骑着白马向小矮人和森林里的动物们告别，他们一直回头向小矮人们挥手说再见：</t>
+          <t>王子带着白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)，骑着白马向小矮人和森林里的动物们告别，他们一直回头向小矮人们挥手说再见：</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>The princess, with skin as white as snow, rosy cheeks, and lustrous black hair, gradually grew into a beautiful young lady. She rode a white horse and bid farewell to the dwarfs and the animals in the forest who had been her companions. As she departed, she continuously turned back to wave goodbye to the dwarfs with a heartfelt expression.</t>
+          <t>The prince, accompanied by Snow White—a young maiden of remarkable beauty whose skin was as white as snow, cheeks as red as apples, and hair as black and smooth as silk, and who was characterized by her gradual growth into a virtuous and kind teenager—gracefully rode a white horse to bid farewell to the seven dwarfs and the animals in the forest. As they proceeded, they continuously turned back to wave their hands affectionately towards the dwarfs, expressing their heartfelt goodbyes.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>princess, white skin, rosy cheeks, lustrous black hair, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, elegant dress, white horse, waving hand, heartfelt expression, forest background, dwarfs, animals, farewell scene, sunlight filtering through trees, soft lighting, warm color tone, realistic style, high detail, 8k quality</t>
+          <t>prince, Snow White, white horse, seven dwarfs, forest animals, farewell scene, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, white skin, rosy cheeks, black silk hair, virtuous and kind expression, graceful posture, waving hands, emotional goodbye, enchanted forest, soft lighting, warm color tone, cinematic style, highly detailed, 8k quality, realistic art, magical atmosphere</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1859,12 +1860,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>The little dwarf said to the person who had taken care of him, "Thank you all for your care for me, I will always remember each and every one of you." The person replied with deep emotion, "Wish you all happiness, and may good fortune forever accompany you. Farewell!"</t>
+          <t>The dwarves said their farewells with heartfelt gratitude, expressing their eternal remembrance for the care they had received. They wished each other happiness and bid a final farewell.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>little dwarf, human character interaction, beautiful detailed eyes, kind smile, heartfelt expression, long eyelashes, delicate nose, warm lips, emotional farewell scene, lush forest background, soft sunlight lighting, golden hour atmosphere, gratitude theme, touching moment, realistic style, high detail, 8k quality, cinematic composition, natural color tones, rich textures, moss-covered stones, vibrant greenery, subtle bokeh effect, timeless art style</t>
+          <t>dwarves, heartfelt farewell, expressions of gratitude, eternal remembrance, care received, wishing happiness, final goodbye, detailed beards, warm smiles, beautiful detailed eyes, kind noses, solemn lips, long eyelashes, traditional dwarven attire, intricate patterns on clothing, mountainous backdrop, soft lighting, golden hour, rich earthy tones, detailed textures, high-quality art, realistic style, emotional scene, cinematic composition</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1881,12 +1882,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>After they left the forest and returned to their neighboring country, they were immediately welcomed by all the people. In the hearts of the citizens, the prince and princess were truly a perfect match destined by heaven.</t>
+          <t>After they left the forest and returned to their neighboring country, they were immediately greeted with great enthusiasm by all the citizens. In the hearts of the people, the two were truly a perfect match made in heaven.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>prince, princess, grand welcoming ceremony, cheering crowd, detailed medieval clothing, golden crowns, beautiful detailed eyes, delicate noses, elegant lips, long eyelashes, red carpet, colorful banners, vibrant flowers, sunny day, cobblestone streets, detailed architecture, realistic texture, sharp focus, cinematic style, warm color tone, natural lighting, ultra-detailed facial features, harmonious composition, romantic atmosphere, high-quality artwork, 8k resolution</t>
+          <t>two heroes returning from an adventure, a male and female standing together, beautiful detailed eyes, elegant noses, charming detailed lips, long eyelashes, radiant smiles, wearing travel-stained yet majestic clothing, surrounded by cheering citizens, colorful banners waving in the air, golden sunlight illuminating the scene, cobblestone streets underfoot, medieval fantasy atmosphere, highly detailed faces and hands, intricate textures on clothes, vibrant colors, dynamic composition, cinematic lighting, rich details, photorealistic style, 8k quality</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1898,17 +1899,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>坏心的一位已故的女性，生前美丽且善良自从毒害了皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女之后，就以为皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女必死无疑，所以非常高兴。</t>
+          <t>坏心的王后(一位美丽而善良的女子，身体虚弱)自从毒害了白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)之后，就以为白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)必死无疑，所以非常高兴。</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>A deceased woman, who was evil-hearted but had been beautiful and kind during her lifetime, rejoiced greatly after successfully poisoning a young girl. This young girl, with skin as white as snow, rosy cheeks, and black, lustrous hair, had gradually blossomed into a beautiful maiden. The evil woman believed that such a maiden, possessing features as pristine as snow, cheeks as red as roses, and hair as black as ebony, was undoubtedly destined to die.</t>
+          <t>The evil-hearted queen, a woman of striking beauty and gentle nature yet frail in health, believed that Snow White, whose skin was as white as snow, cheeks as red as apples, and hair as smooth and black as silk, and who was gradually blossoming into a pure and kind-hearted young maiden, had certainly met her demise after being poisoned. Thus, the queen was filled with immense joy.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>deceased woman, evil-hearted, beautiful and kind in life, rejoicing after poisoning, young girl with snow-white skin, rosy cheeks, black lustrous hair, blooming into a beautiful maiden, pristine features, cheeks red as roses, hair black as ebony, destined to die, dark atmosphere, detailed face, sharp eyes, cruel smile, long eyelashes, elegant nose, stunning yet sinister beauty, gothic style, dramatic lighting, deep shadows, rich textures, cinematic quality, dark romanticism, 8k ultra-detailed, realistic art, moody color tones, cold blues and purples, subtle red accents</t>
+          <t>evil-hearted queen, striking beauty, gentle nature, frail health, detailed elegant gown, dark throne room, beautiful detailed eyes, sharp nose, captivating lips, long eyelashes, extremely detailed face, pale skin, red cheeks, black silk hair, majestic crown, sinister smile, luxurious robes, dramatic lighting, deep shadows, gold accents, rich textures, gothic style, dark atmospheric background, baroque art style, high detail, cinematic quality, 8k resolution</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1925,12 +1926,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>One day, she asked the magic mirror with full confidence, "Magic mirror on the wall, who is the most beautiful person in the world right now? Shouldn't it be me?" The magic mirror replied, "The most beautiful person in the world right now is not you but Snow White. Although you are dressed gorgeously and look stunning, your heart is filled with jealousy and evil, which makes you less beautiful inside and out."</t>
+          <t>One day, she asked the magic mirror with great confidence, "Magic mirror, magic mirror, am I not the most beautiful person in the world right now?" The magic mirror replied, "You are indeed very beautiful, but the most beautiful person in the world is still Snow White."</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>beautiful queen in a grand hall, standing before a magical mirror, detailed crown on her head, elegant long dress with intricate patterns, beautiful detailed eyes with long eyelashes, perfectly shaped nose, confident yet slightly angry expression, beautiful detailed lips with a hint of arrogance, dark shadows reflecting jealousy and evil in her eyes, luxurious golden decorations in the background, ornate marble floor, soft glowing light from the magic mirror, dramatic contrast between light and shadow, highly detailed textures, cinematic quality, dark romantic style, deep red and gold color tones, strong lighting creating dramatic atmosphere, realistic painting style, 8k resolution, ultra-detailed artwork</t>
+          <t>magic mirror, elegant woman, beautiful detailed eyes, delicate nose, confident expression, beautiful detailed lips, long eyelashes, extremely detailed face, luxurious dress, golden frame, ornate mirror design, intricate patterns, gothic style, dark forest background, soft lighting, rich color tones, fantasy art style, highly detailed texture, cinematic quality, vibrant colors, mystical atmosphere</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1942,17 +1943,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>“除了皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女以外，你是最美丽的人，但是，在邻国生活的皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女比你漂亮千万倍。”</t>
+          <t>“除了白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)以外，你是最美丽的人，但是，在邻国生活的白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)比你漂亮千万倍。”</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>The king told Snow White, "Apart from you gradually growing into a beautiful young girl with skin as white as snow, rosy cheeks, and hair that is jet black and smooth, you are the most beautiful person I know. However, there is a girl in the neighboring country who also has skin as white as snow, rosy cheeks, and jet black, smooth hair, and she is millions of times more beautiful than you."</t>
+          <t>The mirror replied to the queen, "Apart from Snow White, who has skin as white as snow, cheeks as red as apples, and hair that is pitch-black and smooth, gradually growing into a beautiful young lady with purity and kindness, you are the most beautiful person in the world. However, Snow White, who resides in the neighboring kingdom and possesses the same qualities of beauty, innocence, and kindness, is millions of times more beautiful than you."</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>snow white, the king, medieval castle garden, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, extremely detailed face, pale skin like snow, rosy cheeks, jet black smooth hair, elegant royal attire, golden crown, rich velvet fabric, intricate embroidery, soft natural lighting, romantic atmosphere, fairy tale style, timeless art, hyper-realistic painting, 8k resolution, cinematic composition, warm color tones, soft shadows, lush greenery background, detailed flora, enchanting ambiance</t>
+          <t>queen, majestic throne room, grand mirror, beautiful detailed eyes, delicate nose, elegant lips, long eyelashes, intricate crown, luxurious gown, deep red cheeks, snow-white skin, pitch-black hair, soft curls, regal posture, golden light, dark dramatic shadows, rich textures, ornate decor, baroque style, dramatic contrast, warm tones, sharp details, cinematic lighting, realistic portrait, 8k quality, highly detailed, photorealistic, timeless elegance</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1964,17 +1965,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>一位已故的女性，生前美丽且善良听了觉得很奇怪，她想皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女不是被她害死了吗？ 可是又想到皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女运气一向很好，</t>
+          <t>王后(一位美丽而善良的女子，身体虚弱)听了觉得很奇怪，她想白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)不是被她害死了吗？ 可是又想到白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)运气一向很好，</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>A deceased woman, who had been beautiful and kind-hearted during her lifetime, found it strange when she heard this. She wondered how the girl with skin as white as snow, rosy cheeks, and lustrous black hair could have grown into a beautiful young maiden when she herself had not caused her death. Yet, upon further reflection, she realized that the girl with skin as white as snow, rosy cheeks, and lustrous black hair had always been blessed with good fortune.</t>
+          <t>The queen, a beautiful and kind-hearted woman but frail in health, felt greatly perplexed upon hearing this. She thought to herself that Snow White, who was growing into a pure and benevolent young maiden with skin as white as snow, rosy cheeks like apples, and lustrous black hair, had already been killed by her own machinations. Yet, she also recalled that Snow White, the same innocent and virtuous maiden with snow-white skin, apple-red cheeks, and glossy black hair, had always been extraordinarily lucky.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>a deceased woman with a kind-hearted soul, translucent pale skin, soft rosy cheeks, flowing lustrous black hair, delicate elegant features, beautiful detailed eyes filled with curiosity, perfectly shaped nose, graceful lips with a gentle expression, wearing traditional ancient attire, surrounded by ethereal glowing light, set in an otherworldly mystical forest at twilight, intricate textures on leaves and bark, highly detailed facial structure, long eyelashes framing her eyes, vibrant yet serene atmosphere, warm golden lighting blending with cool blue tones, cinematic composition, ultra-detailed realism mixed with fantasy elements, 8k resolution, sharp focus, rich deep shadows contrasted with radiant highlights</t>
+          <t>queen, elegant posture, delicate facial features, beautiful detailed eyes, long eyelashes, perfectly shaped nose, gentle lips, frail health appearance, pale skin, intricate crown, luxurious gown, rich textures, deep red velvet fabric, golden embroidery, soft lighting, warm tones, regal atmosphere, perplexed expression, thoughtful gaze, dark wooden throne, ornate carvings, dimly lit castle hall, dramatic shadows, realistic style, high detail, cinematic quality, soft focus on the queen's face, contrasting colors between the queen and the background, snow white allusion, symbolic elements of innocence and purity in the scene, lustrous black hair flowing down, rosy apple-like cheeks, pristine white skin glow</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1986,17 +1987,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>“简直是气死人了，我就不相信不能杀掉皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女！”</t>
+          <t>“简直是气死人了，我就不相信不能杀掉白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)！”</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>It was utterly infuriating. He could not believe that he would fail to kill the girl with skin as white as snow, rosy cheeks, and lustrous black hair, who was blossoming into a beautiful young woman.</t>
+          <t>The queen was furious, muttering to herself, "I can't stand it! How could I possibly fail to get rid of Snow White, who has skin as white as snow, cheeks as red as apples, and hair as black and smooth as silk? She is gradually blossoming into a beautiful young girl, pure and kind-hearted!"</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>beautiful detailed eyes, long eyelashes, delicate nose, elegant lips, pale white skin, rosy cheeks, lustrous black hair, youthful beauty, flowing dress, soft textures, intricate details, dark forest atmosphere, mysterious lighting, cinematic composition, high-quality artwork, realistic style, rich colors, dramatic contrast, deep shadows, glowing highlights, 8k resolution, photorealistic rendering, gothic romanticism, dark fantasy elements, enchanting ambiance</t>
+          <t>angry queen, detailed facial features, sharp eyes with intense gaze, beautifully shaped nose, perfectly defined lips in a snarl, long dark eyelashes, elaborate royal gown, deep red cheeks, black smooth hair like silk, elegant yet menacing posture, standing in a dimly lit throne room, intricate golden crown, rich velvet textures, dramatic shadows, cinematic lighting, dark moody atmosphere, high detail, 8k quality, gothic art style, dark crimson and gold color tones, realistic portrait photography, emotional expression focus</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2008,17 +2009,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>一位已故的女性，生前美丽且善良原本就是个女巫，于是她骑着魔扫帚，带着魔剑，飞往邻国，准备去除掉她的眼中钉。</t>
+          <t>王后(一位美丽而善良的女子，身体虚弱)原本就是个女巫，于是她骑着魔扫帚，带着魔剑，飞往邻国，准备去除掉她的眼中钉。</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>A deceased woman, who was beautiful and kind during her lifetime, was originally a witch. She mounted her magical broomstick, wielding a enchanted sword, and flew to a neighboring country with the determination to eliminate her sworn rival.</t>
+          <t>The queen, a beautiful and kind-hearted woman with fragile health, was originally a witch. She then mounted her magical broomstick, wielding a enchanted sword, and flew off to the neighboring country, determined to eliminate the thorn in her side.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>deceased woman, once beautiful and kind witch, detailed pale face, soft facial features, enchanting eyes with a determined gaze, delicate nose, serene lips, long flowing hair, magical broomstick, enchanted sword, dark yet elegant witch attire, intricate patterns on clothing, floating cape, moonlit sky, mystical aura, swirling fog, realistic texture, cinematic quality, gothic fantasy style, deep blue and purple color tones, dramatic lighting, high detail, photorealistic</t>
+          <t>queen on a magical broomstick, enchanted sword in hand, determined expression, beautiful detailed eyes, delicate nose, elegant lips, long eyelashes, fragile yet strong aura, flowing robes, mystical background, dark clouds, moonlight shining, fantasy atmosphere, realistic texture, vibrant details, cinematic quality, rich colors, dramatic lighting, high definition, intricate design, magical elements, witch transformation, neighboring country landscape, epic adventure, stunning art style</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2030,17 +2031,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>当她飞到邻国的上空时，突然一道闪电朝坏一位已故的女性，生前美丽且善良打来。 “劈！叭！” 一阵响声把女巫一位已故的女性，生前美丽且善良从扫帚上打下来。</t>
+          <t>当她飞到邻国的上空时，突然一道闪电朝坏王后(一位美丽而善良的女子，身体虚弱)打来。 “劈！叭！” 一阵响声把女巫王后(一位美丽而善良的女子，身体虚弱)从扫帚上打下来。</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>As she flew over the neighboring country, a sudden bolt of lightning struck a deceased woman who had been beautiful and kind-hearted during her lifetime. With a loud "Crack! Boom!", the sound caused the witch to fall from her broomstick.</t>
+          <t>As she flew over the neighboring kingdom, a sudden bolt of lightning struck the evil queen, a beautiful and kind woman with frail health. "Crack! Boom!" The deafening sound caused the witch queen, another beautiful and benevolent woman in poor physical condition, to fall from her broomstick.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>deceased woman, beautiful and kind-hearted, struck by lightning, falling from broomstick, witch in mid-air, detailed facial features, soft nose, elegant lips, striking eyes, long eyelashes, flowing hair, dramatic sky, stormy weather, dark clouds, lightning bolts, gothic style, mysterious atmosphere, deep shadows, realistic lighting, cinematic composition, high detail, dynamic pose, haunting beauty, rich textures, atmospheric tones, vibrant yet somber colors</t>
+          <t>beautiful detailed eyes, long eyelashes, delicate nose, soft lips, a woman with frail health, elegant queen, flowing gown, intricate crown, stormy sky, dark clouds, vivid lightning strike, sudden bolt of lightning, broomstick in mid-air, falling motion, neighboring kingdom landscape, castle in the distance, dramatic lighting, moody atmosphere, realistic style, cinematic quality, high detail, sharp focus, deep shadows, pale complexion, compassionate expression, benevolent aura, lush greenery below, rolling hills, mystical setting, dynamic composition</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2052,17 +2053,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>女巫一位已故的女性，生前美丽且善良终于受到上帝的处罚，结束了作恶多端的生命。</t>
+          <t>女巫王后(一位美丽而善良的女子，身体虚弱)终于受到上帝的处罚，结束了作恶多端的生命。</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>A witch, who was once a beautiful and kind woman in her lifetime but later turned to malevolence, was eventually punished by God, thus bringing an end to her life of committing countless evils.</t>
+          <t>The Queen Witch, a beautiful and kind-hearted woman who suffered from frail health, was ultimately punished by God, thus bringing an end to her life of rampant wickedness.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>witch with dark mysterious aura, beautiful detailed eyes with a hint of sorrow, sharp nose with a curved line, full and beautiful detailed lips, long eyelashes, pale skin with subtle cracks indicating divine punishment, flowing black hair with strands turning to ash, tattered elegant dress with dark Gothic patterns, standing in a desolate battlefield under a blood-red sky, surrounded by shattered remains of her magical artifacts, detailed facial features showing a mix of beauty and malevolence, intricate textures on cracked skin symbolizing divine retribution, dramatic lighting with dark shadows contrasting against faint red highlights, deep moody colors with shades of crimson and dark gray, highly detailed realistic style with elements of dark fantasy art, cinematic quality with sharp focus on the witch's face, rich atmospheric background enhancing the tragic story, high definition details throughout the image, dark romantic artistic tone, supernatural and haunting ambiance</t>
+          <t>queen witch, beautiful and kind-hearted woman, frail health, divine punishment, end of wickedness, elegant gown, pale skin, delicate features, sorrowful expression, intricate crown, detailed eyes with a hint of sadness, perfectly shaped nose, soft and gentle lips, long flowing hair, dark atmospheric background, dim lighting, gothic architectural elements, rich textures, high detail, cinematic quality, dark romantic style, deep color tones, dramatic shadows, 8k resolution, highly realistic, photorealistic, masterpiece</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2074,17 +2075,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>此时，王子的国家却举国欢腾，因为美丽的皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女答应了王子的求婚，正在举行盛大的婚礼。</t>
+          <t>此时，王子的国家却举国欢腾，因为美丽的白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)答应了王子的求婚，正在举行盛大的婚礼。</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>At that moment, the prince's entire nation was celebrating with great joy. The reason was that a beautiful young lady, whose skin was as white as snow, cheeks rosy, and hair black and smooth, had gradually blossomed into a stunning maiden. She had accepted the prince's proposal, and they were now hosting a grand wedding ceremony.</t>
+          <t>At that moment, the prince's kingdom was filled with nationwide celebration as the beautiful Snow White princess, whose skin was as white as snow, cheeks as red as apples, and hair as black and smooth as silk, had gradually blossomed into a beautiful young maiden known for her purity and kindness, and had accepted the prince's proposal. A grand wedding ceremony was being held in honor of their union.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>prince, princess, royal wedding ceremony, grand celebration, beautiful young lady, white skin, rosy cheeks, black smooth hair, stunning maiden, elegant gown, golden crown, detailed eyes, delicate nose, beautiful lips, long eyelashes, extremely detailed face, luxurious palace, festive atmosphere, vibrant crowd, sparkling lights, rich textures, intricate patterns, soft lighting, warm color tone, romantic artistic style, high-quality image, sharp focus, realistic details</t>
+          <t>snow white princess, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, extremely detailed face, skin as white as snow, cheeks as red as apples, hair as black and smooth as silk, elegant wedding dress, golden crown, prince, grand wedding ceremony, nationwide celebration, kingdom, medieval castle, colorful flags, festive decorations, vibrant flowers, romantic atmosphere, high-quality artwork, realistic style, warm color tone, soft lighting, detailed textures, luxurious fabrics, intricate patterns, joyous crowd, fairy tale scene</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2096,17 +2097,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>小矮人和森林的动物们也被邀请来参加婚礼，在全国人民的祝福声中，王子和皮肤白皙如雪，双颊红润，头发乌黑柔顺，逐渐成长为美丽的少女将永远快乐的生活在一起。</t>
+          <t>小矮人和森林的动物们也被邀请来参加婚礼，在全国人民的祝福声中，王子和白雪公主(皮肤白得像雪，双颊红得有如苹果，头发乌黑柔顺，逐渐成长为美少女，纯洁善良)将永远快乐的生活在一起。</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>The dwarfs and the animals in the forest were also invited to the wedding. Amidst the blessings of all the people in the nation, the prince and the girl with skin as white as snow, rosy cheeks, and smooth black hair, who had gradually grown into a beautiful young woman, would live together happily forever.</t>
+          <t>The dwarfs and the animals in the forest were also invited to attend the wedding. Amidst the blessings of all the people in the country, the prince and Snow White, whose skin was as white as snow, cheeks as red as apples, and hair as black and smooth as silk, had grown into a beautiful young maiden renowned for her purity and kindness, would live together happily ever after.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>dwarfs, animals, forest wedding, prince, beautiful young woman, white skin, rosy cheeks, smooth black hair, detailed eyes, delicate nose, elegant lips, long eyelashes, lush trees, golden sunlight, fairy tale atmosphere, enchanted forest, joyful celebration, intricate dresses, royal attire, soft lighting, warm color tones, realistic style, high detail, cinematic quality, magical ambiance, happiness, love, blessings, vibrant nature, flowers, butterflies, natural beauty, harmonious composition</t>
+          <t>dwarfs, animals, forest, wedding celebration, prince, Snow White, white skin, apple-red cheeks, black silky hair, purity, kindness, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, lush trees, golden sunlight, fairy tale atmosphere, magical ambiance, vibrant flowers, elegant dresses, traditional wedding attire, joyous crowd, realistic texture, hyper-detailed faces, soft lighting, warm color tones, romantic scene, enchanting environment, high-quality artwork, classic artistic style</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
